--- a/metro_budget_exercise.xlsx
+++ b/metro_budget_exercise.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mary van Valkenburg\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DA14\Projects\lookups-da14-seanfahey1127\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19ED61FC-0AAB-4DAC-83F6-00D6AC42053B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6F5E12-3CE4-4723-B78E-BFE621ADE9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="90" windowWidth="21877" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metro_budget" sheetId="1" r:id="rId1"/>
@@ -314,7 +314,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -458,7 +458,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -880,9 +880,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -920,7 +920,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1026,7 +1026,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1168,7 +1168,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1176,27 +1176,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P107"/>
+  <dimension ref="A1:P100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
       <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="32.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="26.265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.86328125" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="15.85546875" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" customWidth="1"/>
-    <col min="14" max="15" width="17.85546875" customWidth="1"/>
-    <col min="16" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.59765625" customWidth="1"/>
+    <col min="8" max="8" width="26.265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="15.86328125" customWidth="1"/>
+    <col min="13" max="13" width="15.3984375" customWidth="1"/>
+    <col min="14" max="15" width="17.86328125" customWidth="1"/>
+    <col min="16" max="17" width="13.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1298,7 +1298,7 @@
       </c>
       <c r="O3" s="5"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1324,7 +1324,7 @@
       </c>
       <c r="O4" s="5"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1350,7 +1350,7 @@
       </c>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1376,7 +1376,7 @@
       </c>
       <c r="O6" s="5"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1402,7 +1402,7 @@
       </c>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="O8" s="5"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1454,7 +1454,7 @@
       </c>
       <c r="O9" s="5"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="O10" s="5"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="O11" s="5"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1532,7 +1532,7 @@
       </c>
       <c r="O12" s="5"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1558,7 +1558,7 @@
       </c>
       <c r="O13" s="5"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="O14" s="5"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -1610,7 +1610,7 @@
       </c>
       <c r="O15" s="5"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="O16" s="5"/>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -1662,7 +1662,7 @@
       </c>
       <c r="O17" s="5"/>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="O18" s="5"/>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="O19" s="5"/>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -1740,7 +1740,7 @@
       </c>
       <c r="O20" s="5"/>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -1766,7 +1766,7 @@
       </c>
       <c r="O21" s="5"/>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -1792,7 +1792,7 @@
       </c>
       <c r="O22" s="5"/>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -1818,7 +1818,7 @@
       </c>
       <c r="O23" s="5"/>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -1844,7 +1844,7 @@
       </c>
       <c r="O24" s="5"/>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="O25" s="5"/>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="O26" s="5"/>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -1922,7 +1922,7 @@
       </c>
       <c r="O27" s="5"/>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -1948,7 +1948,7 @@
       </c>
       <c r="O28" s="5"/>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -1974,7 +1974,7 @@
       </c>
       <c r="O29" s="5"/>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -2000,7 +2000,7 @@
       </c>
       <c r="O30" s="5"/>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -2026,7 +2026,7 @@
       </c>
       <c r="O31" s="5"/>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -2052,7 +2052,7 @@
       </c>
       <c r="O32" s="5"/>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="O33" s="5"/>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>48</v>
       </c>
@@ -2104,7 +2104,7 @@
       </c>
       <c r="O34" s="5"/>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -2130,7 +2130,7 @@
       </c>
       <c r="O35" s="5"/>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>50</v>
       </c>
@@ -2156,7 +2156,7 @@
       </c>
       <c r="O36" s="5"/>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>51</v>
       </c>
@@ -2182,7 +2182,7 @@
       </c>
       <c r="O37" s="5"/>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -2208,7 +2208,7 @@
       </c>
       <c r="O38" s="5"/>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>53</v>
       </c>
@@ -2234,7 +2234,7 @@
       </c>
       <c r="O39" s="5"/>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>54</v>
       </c>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="O40" s="5"/>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>55</v>
       </c>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="O41" s="5"/>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>56</v>
       </c>
@@ -2312,7 +2312,7 @@
       </c>
       <c r="O42" s="5"/>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>57</v>
       </c>
@@ -2338,7 +2338,7 @@
       </c>
       <c r="O43" s="5"/>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>58</v>
       </c>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="O44" s="5"/>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>59</v>
       </c>
@@ -2390,7 +2390,7 @@
       </c>
       <c r="O45" s="5"/>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>60</v>
       </c>
@@ -2416,7 +2416,7 @@
       </c>
       <c r="O46" s="5"/>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>61</v>
       </c>
@@ -2442,7 +2442,7 @@
       </c>
       <c r="O47" s="5"/>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>62</v>
       </c>
@@ -2468,7 +2468,7 @@
       </c>
       <c r="O48" s="5"/>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>63</v>
       </c>
@@ -2494,7 +2494,7 @@
       </c>
       <c r="O49" s="5"/>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>64</v>
       </c>
@@ -2520,7 +2520,7 @@
       </c>
       <c r="O50" s="5"/>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>65</v>
       </c>
@@ -2546,7 +2546,7 @@
       </c>
       <c r="O51" s="5"/>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>66</v>
       </c>
@@ -2572,12 +2572,12 @@
       </c>
       <c r="O52" s="5"/>
     </row>
-    <row r="54" spans="1:15" ht="15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A54" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
@@ -2591,42 +2591,42 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A63" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>0</v>
       </c>
@@ -2640,43 +2640,42 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15"/>
-    <row r="72" spans="1:4" ht="15">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
         <v>0</v>
       </c>
@@ -2690,48 +2689,47 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15"/>
-    <row r="81" spans="1:7" ht="15">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="15">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B83" s="1" t="s">
         <v>71</v>
       </c>
@@ -2739,34 +2737,33 @@
         <v>72</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>73</v>
       </c>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>74</v>
       </c>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>75</v>
       </c>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
     </row>
-    <row r="87" spans="1:7" ht="15"/>
-    <row r="88" spans="1:7" ht="15">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="15">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>77</v>
       </c>
@@ -2782,7 +2779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="15">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B90" s="8" t="s">
         <v>0</v>
       </c>
@@ -2802,7 +2799,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>73</v>
       </c>
@@ -2810,7 +2807,7 @@
       <c r="E91" s="5"/>
       <c r="G91" s="5"/>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>74</v>
       </c>
@@ -2818,7 +2815,7 @@
       <c r="E92" s="5"/>
       <c r="G92" s="5"/>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>75</v>
       </c>
@@ -2826,12 +2823,12 @@
       <c r="E93" s="5"/>
       <c r="G93" s="5"/>
     </row>
-    <row r="95" spans="1:7" ht="15">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="15">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>77</v>
       </c>
@@ -2847,7 +2844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="15">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B97" s="8" t="s">
         <v>0</v>
       </c>
@@ -2867,7 +2864,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>73</v>
       </c>
@@ -2876,7 +2873,7 @@
       <c r="G98" s="4"/>
       <c r="I98" s="4"/>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>74</v>
       </c>
@@ -2885,7 +2882,7 @@
       <c r="G99" s="4"/>
       <c r="I99" s="4"/>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>75</v>
       </c>
@@ -2894,12 +2891,6 @@
       <c r="G100" s="4"/>
       <c r="I100" s="4"/>
     </row>
-    <row r="102" spans="1:9" ht="15"/>
-    <row r="103" spans="1:9" ht="15"/>
-    <row r="104" spans="1:9" ht="15"/>
-    <row r="105" spans="1:9" ht="15"/>
-    <row r="106" spans="1:9" ht="15"/>
-    <row r="107" spans="1:9" ht="15"/>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A83" xr:uid="{0ECE0BAD-DC74-4E7B-8842-0609702F3664}">
@@ -2919,13 +2910,13 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2933,7 +2924,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2941,7 +2932,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -2949,7 +2940,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2957,7 +2948,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -2965,7 +2956,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -2973,7 +2964,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -2981,7 +2972,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -2989,7 +2980,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -2997,7 +2988,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>

--- a/metro_budget_exercise.xlsx
+++ b/metro_budget_exercise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DA14\Projects\lookups-da14-seanfahey1127\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6F5E12-3CE4-4723-B78E-BFE621ADE9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770410FC-FE53-4463-BD6A-C5A3B39E491D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="90">
   <si>
     <t>Department</t>
   </si>
@@ -1176,10 +1176,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P100"/>
+  <dimension ref="A1:R100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1188,15 +1188,15 @@
     <col min="2" max="4" width="26.265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.86328125" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.59765625" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
     <col min="8" max="8" width="26.265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="15.86328125" customWidth="1"/>
-    <col min="13" max="13" width="15.3984375" customWidth="1"/>
-    <col min="14" max="15" width="17.86328125" customWidth="1"/>
-    <col min="16" max="17" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="15.86328125" customWidth="1"/>
+    <col min="14" max="14" width="15.3984375" customWidth="1"/>
+    <col min="15" max="16" width="17.86328125" customWidth="1"/>
+    <col min="17" max="18" width="13.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1216,37 +1216,43 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1256,23 +1262,62 @@
       <c r="C2">
         <v>341243679.13</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="G2">
+      <c r="D2">
+        <f>B2-C2</f>
+        <v>15396420.870000005</v>
+      </c>
+      <c r="E2" s="5">
+        <f>IFERROR(D2/B2, 0)</f>
+        <v>4.3170750765267295E-2</v>
+      </c>
+      <c r="F2">
+        <f>_xlfn.RANK.EQ(E2, $E$2:$E$52, 0)</f>
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2">
         <v>382685200</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>346340810.81999999</v>
       </c>
-      <c r="J2" s="5"/>
+      <c r="J2">
+        <f>H2-I2</f>
+        <v>36344389.180000007</v>
+      </c>
+      <c r="K2" s="5">
+        <f>IFERROR(J2/H2, 0)</f>
+        <v>9.4972027086493035E-2</v>
+      </c>
       <c r="L2">
+        <f>_xlfn.RANK.EQ(K2, $K$2:$K$52, 0)</f>
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2">
         <v>376548600</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>355279492.22999901</v>
       </c>
-      <c r="O2" s="5"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P2">
+        <f>N2-O2</f>
+        <v>21269107.770000994</v>
+      </c>
+      <c r="Q2" s="5">
+        <f>IFERROR(P2/N2, 0)</f>
+        <v>5.6484362894991494E-2</v>
+      </c>
+      <c r="R2">
+        <f>_xlfn.RANK.EQ(Q2, $Q$2:$Q$52, 0)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1282,23 +1327,62 @@
       <c r="C3">
         <v>321214.59000000003</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="G3">
+      <c r="D3">
+        <f t="shared" ref="D3:D52" si="0">B3-C3</f>
+        <v>7585.4099999999744</v>
+      </c>
+      <c r="E3" s="5">
+        <f t="shared" ref="E3:E52" si="1">IFERROR(D3/B3, 0)</f>
+        <v>2.3069981751824741E-2</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F52" si="2">_xlfn.RANK.EQ(E3, $E$2:$E$52, 0)</f>
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3">
         <v>334800</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>312433.70999999897</v>
       </c>
-      <c r="J3" s="5"/>
+      <c r="J3">
+        <f t="shared" ref="J3:J52" si="3">H3-I3</f>
+        <v>22366.290000001027</v>
+      </c>
+      <c r="K3" s="5">
+        <f t="shared" ref="K3:K52" si="4">IFERROR(J3/H3, 0)</f>
+        <v>6.6804928315415249E-2</v>
+      </c>
       <c r="L3">
+        <f t="shared" ref="L3:L52" si="5">_xlfn.RANK.EQ(K3, $K$2:$K$52, 0)</f>
+        <v>14</v>
+      </c>
+      <c r="M3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3">
         <v>322700</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>322263.03999999998</v>
       </c>
-      <c r="O3" s="5"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P3">
+        <f t="shared" ref="P3:P52" si="6">N3-O3</f>
+        <v>436.96000000002095</v>
+      </c>
+      <c r="Q3" s="5">
+        <f t="shared" ref="Q3:Q52" si="7">IFERROR(P3/N3, 0)</f>
+        <v>1.3540749922529313E-3</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R52" si="8">_xlfn.RANK.EQ(Q3, $Q$2:$Q$52, 0)</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1308,23 +1392,62 @@
       <c r="C4">
         <v>3115157.5599999898</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="G4">
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>15442.440000010189</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" si="1"/>
+        <v>4.9327413275443007E-3</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4">
         <v>3652300</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>3589693.2099999902</v>
       </c>
-      <c r="J4" s="5"/>
+      <c r="J4">
+        <f t="shared" si="3"/>
+        <v>62606.790000009816</v>
+      </c>
+      <c r="K4" s="5">
+        <f t="shared" si="4"/>
+        <v>1.7141743558856015E-2</v>
+      </c>
       <c r="L4">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="M4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4">
         <v>3662400</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>3564983.04999999</v>
       </c>
-      <c r="O4" s="5"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P4">
+        <f t="shared" si="6"/>
+        <v>97416.950000009965</v>
+      </c>
+      <c r="Q4" s="5">
+        <f t="shared" si="7"/>
+        <v>2.6599210899959033E-2</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1334,23 +1457,62 @@
       <c r="C5">
         <v>6947552.6699999999</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="G5">
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>723147.33000000007</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" si="1"/>
+        <v>9.4273968477453174E-2</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5">
         <v>7968300</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>7020609.3200000003</v>
       </c>
-      <c r="J5" s="5"/>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>947690.6799999997</v>
+      </c>
+      <c r="K5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.118932605449092</v>
+      </c>
       <c r="L5">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="M5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5">
         <v>7759600</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>7497322.9100000001</v>
       </c>
-      <c r="O5" s="5"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P5">
+        <f t="shared" si="6"/>
+        <v>262277.08999999985</v>
+      </c>
+      <c r="Q5" s="5">
+        <f t="shared" si="7"/>
+        <v>3.3800336357544182E-2</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1360,23 +1522,62 @@
       <c r="C6">
         <v>385908.52</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="G6">
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>23391.479999999981</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="1"/>
+        <v>5.7149963352064452E-2</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6">
         <v>428500</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>427758.64</v>
       </c>
-      <c r="J6" s="5"/>
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>741.35999999998603</v>
+      </c>
+      <c r="K6" s="5">
+        <f t="shared" si="4"/>
+        <v>1.7301283547257551E-3</v>
+      </c>
       <c r="L6">
+        <f t="shared" si="5"/>
+        <v>44</v>
+      </c>
+      <c r="M6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6">
         <v>445200</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>445114.28999999899</v>
       </c>
-      <c r="O6" s="5"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P6">
+        <f t="shared" si="6"/>
+        <v>85.710000001010485</v>
+      </c>
+      <c r="Q6" s="5">
+        <f t="shared" si="7"/>
+        <v>1.925202156356929E-4</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="8"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1386,23 +1587,62 @@
       <c r="C7">
         <v>2946071.21</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="G7">
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>382928.79000000004</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="1"/>
+        <v>0.11502817362571344</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7">
         <v>3390900</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>3051483.41</v>
       </c>
-      <c r="J7" s="5"/>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>339416.58999999985</v>
+      </c>
+      <c r="K7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.10009631366303927</v>
+      </c>
       <c r="L7">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="M7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7">
         <v>3345200</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>2946440.08</v>
       </c>
-      <c r="O7" s="5"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P7">
+        <f t="shared" si="6"/>
+        <v>398759.91999999993</v>
+      </c>
+      <c r="Q7" s="5">
+        <f t="shared" si="7"/>
+        <v>0.11920361114432618</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1412,23 +1652,62 @@
       <c r="C8">
         <v>1315623.30999999</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="G8">
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>236476.69000000996</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="1"/>
+        <v>0.15235918433091292</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8">
         <v>1590700</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>1383905.98999999</v>
       </c>
-      <c r="J8" s="5"/>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>206794.01000001002</v>
+      </c>
+      <c r="K8" s="5">
+        <f t="shared" si="4"/>
+        <v>0.13000189224870184</v>
+      </c>
       <c r="L8">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="M8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8">
         <v>1579300</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>1337735.3199999901</v>
       </c>
-      <c r="O8" s="5"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P8">
+        <f t="shared" si="6"/>
+        <v>241564.68000000995</v>
+      </c>
+      <c r="Q8" s="5">
+        <f t="shared" si="7"/>
+        <v>0.15295680364719175</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1438,23 +1717,62 @@
       <c r="C9">
         <v>8952825.2799999993</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="G9">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>396574.72000000067</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="1"/>
+        <v>4.2417130511048909E-2</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9">
         <v>11073700</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>9929059.5199999996</v>
       </c>
-      <c r="J9" s="5"/>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>1144640.4800000004</v>
+      </c>
+      <c r="K9" s="5">
+        <f t="shared" si="4"/>
+        <v>0.10336567542917005</v>
+      </c>
       <c r="L9">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="M9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9">
         <v>10790500</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>9993599.52999999</v>
       </c>
-      <c r="O9" s="5"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P9">
+        <f t="shared" si="6"/>
+        <v>796900.47000000998</v>
+      </c>
+      <c r="Q9" s="5">
+        <f t="shared" si="7"/>
+        <v>7.3852043000788653E-2</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1464,23 +1782,62 @@
       <c r="C10">
         <v>407090.37</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="G10">
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>36209.630000000005</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="1"/>
+        <v>8.1681998646514792E-2</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10">
         <v>495200</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>467907.84000000003</v>
       </c>
-      <c r="J10" s="5"/>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>27292.159999999974</v>
+      </c>
+      <c r="K10" s="5">
+        <f t="shared" si="4"/>
+        <v>5.5113408723747932E-2</v>
+      </c>
       <c r="L10">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="M10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10">
         <v>487500</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <v>478318.92</v>
       </c>
-      <c r="O10" s="5"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P10">
+        <f t="shared" si="6"/>
+        <v>9181.0800000000163</v>
+      </c>
+      <c r="Q10" s="5">
+        <f t="shared" si="7"/>
+        <v>1.883298461538465E-2</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="8"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1490,23 +1847,62 @@
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="G11">
-        <v>0</v>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f>_xlfn.RANK.EQ(E11, $E$2:$E$52, 0)</f>
+        <v>47</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="J11" s="5"/>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="L11">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+      <c r="M11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11">
         <v>375000</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <v>63771.91</v>
       </c>
-      <c r="O11" s="5"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P11">
+        <f t="shared" si="6"/>
+        <v>311228.08999999997</v>
+      </c>
+      <c r="Q11" s="5">
+        <f t="shared" si="7"/>
+        <v>0.82994157333333329</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1516,23 +1912,62 @@
       <c r="C12">
         <v>4066595.33</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="G12">
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>214304.66999999993</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="1"/>
+        <v>5.0060657805601608E-2</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12">
         <v>4700400</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>4205555.5999999996</v>
       </c>
-      <c r="J12" s="5"/>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>494844.40000000037</v>
+      </c>
+      <c r="K12" s="5">
+        <f t="shared" si="4"/>
+        <v>0.10527708280146378</v>
+      </c>
       <c r="L12">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="M12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12">
         <v>4677800</v>
       </c>
-      <c r="M12">
+      <c r="O12">
         <v>4371713.1399999997</v>
       </c>
-      <c r="O12" s="5"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P12">
+        <f t="shared" si="6"/>
+        <v>306086.86000000034</v>
+      </c>
+      <c r="Q12" s="5">
+        <f t="shared" si="7"/>
+        <v>6.5433934755654441E-2</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1542,23 +1977,62 @@
       <c r="C13">
         <v>5772288.3300000001</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="G13">
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>75511.669999999925</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="1"/>
+        <v>1.2912833886247806E-2</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13">
         <v>6223700</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>5909077.9399999902</v>
       </c>
-      <c r="J13" s="5"/>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>314622.06000000983</v>
+      </c>
+      <c r="K13" s="5">
+        <f t="shared" si="4"/>
+        <v>5.0552253482656594E-2</v>
+      </c>
       <c r="L13">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="M13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13">
         <v>6207300</v>
       </c>
-      <c r="M13">
+      <c r="O13">
         <v>6056976.6699999999</v>
       </c>
-      <c r="O13" s="5"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P13">
+        <f t="shared" si="6"/>
+        <v>150323.33000000007</v>
+      </c>
+      <c r="Q13" s="5">
+        <f t="shared" si="7"/>
+        <v>2.4217184605222895E-2</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1568,23 +2042,62 @@
       <c r="C14">
         <v>505017.37</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="G14">
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>6982.6300000000047</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="1"/>
+        <v>1.3637949218750009E-2</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="G14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14">
         <v>530500</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>524402.98</v>
       </c>
-      <c r="J14" s="5"/>
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>6097.0200000000186</v>
+      </c>
+      <c r="K14" s="5">
+        <f t="shared" si="4"/>
+        <v>1.1492968897266765E-2</v>
+      </c>
       <c r="L14">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="M14" t="s">
+        <v>28</v>
+      </c>
+      <c r="N14">
         <v>526200</v>
       </c>
-      <c r="M14">
+      <c r="O14">
         <v>504989.88</v>
       </c>
-      <c r="O14" s="5"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P14">
+        <f t="shared" si="6"/>
+        <v>21210.119999999995</v>
+      </c>
+      <c r="Q14" s="5">
+        <f t="shared" si="7"/>
+        <v>4.0308095781071827E-2</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -1594,23 +2107,62 @@
       <c r="C15">
         <v>156545919.90000001</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="G15">
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>-496819.90000000596</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="1"/>
+        <v>-3.1837408866824991E-3</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="G15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15">
         <v>184167800</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>175966389.24999899</v>
       </c>
-      <c r="J15" s="5"/>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>8201410.7500010133</v>
+      </c>
+      <c r="K15" s="5">
+        <f t="shared" si="4"/>
+        <v>4.4532273014072019E-2</v>
+      </c>
       <c r="L15">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="M15" t="s">
+        <v>29</v>
+      </c>
+      <c r="N15">
         <v>188953500</v>
       </c>
-      <c r="M15">
+      <c r="O15">
         <v>184450910.84999901</v>
       </c>
-      <c r="O15" s="5"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="P15">
+        <f t="shared" si="6"/>
+        <v>4502589.1500009894</v>
+      </c>
+      <c r="Q15" s="5">
+        <f t="shared" si="7"/>
+        <v>2.3829085727446114E-2</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1620,23 +2172,62 @@
       <c r="C16">
         <v>6522480.4599999897</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="G16">
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>78219.540000010282</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="1"/>
+        <v>1.1850188616360429E-2</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="G16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16">
         <v>7352500</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>7350464.0800000001</v>
       </c>
-      <c r="J16" s="5"/>
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>2035.9199999999255</v>
+      </c>
+      <c r="K16" s="5">
+        <f t="shared" si="4"/>
+        <v>2.769017341040361E-4</v>
+      </c>
       <c r="L16">
+        <f t="shared" si="5"/>
+        <v>46</v>
+      </c>
+      <c r="M16" t="s">
+        <v>30</v>
+      </c>
+      <c r="N16">
         <v>7397200</v>
       </c>
-      <c r="M16">
+      <c r="O16">
         <v>7397093</v>
       </c>
-      <c r="O16" s="5"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P16">
+        <f t="shared" si="6"/>
+        <v>107</v>
+      </c>
+      <c r="Q16" s="5">
+        <f t="shared" si="7"/>
+        <v>1.4464932677229222E-5</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="8"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -1646,23 +2237,62 @@
       <c r="C17">
         <v>14439480.050000001</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="G17">
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>421319.94999999925</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="1"/>
+        <v>2.8351094826658003E-2</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17">
         <v>15309700</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>14645233.51</v>
       </c>
-      <c r="J17" s="5"/>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>664466.49000000022</v>
+      </c>
+      <c r="K17" s="5">
+        <f t="shared" si="4"/>
+        <v>4.3401666263871937E-2</v>
+      </c>
       <c r="L17">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="M17" t="s">
+        <v>31</v>
+      </c>
+      <c r="N17">
         <v>15311800</v>
       </c>
-      <c r="M17">
+      <c r="O17">
         <v>14346057.039999999</v>
       </c>
-      <c r="O17" s="5"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P17">
+        <f t="shared" si="6"/>
+        <v>965742.96000000089</v>
+      </c>
+      <c r="Q17" s="5">
+        <f t="shared" si="7"/>
+        <v>6.3071811282801551E-2</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -1672,23 +2302,62 @@
       <c r="C18">
         <v>2615303.8999999901</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="G18">
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>149396.10000000987</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" si="1"/>
+        <v>5.4037002206391245E-2</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18">
         <v>2861000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>2671745.94</v>
       </c>
-      <c r="J18" s="5"/>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>189254.06000000006</v>
+      </c>
+      <c r="K18" s="5">
+        <f t="shared" si="4"/>
+        <v>6.6149619014330668E-2</v>
+      </c>
       <c r="L18">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="M18" t="s">
+        <v>32</v>
+      </c>
+      <c r="N18">
         <v>2910600</v>
       </c>
-      <c r="M18">
+      <c r="O18">
         <v>2535637.09</v>
       </c>
-      <c r="O18" s="5"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P18">
+        <f t="shared" si="6"/>
+        <v>374962.91000000015</v>
+      </c>
+      <c r="Q18" s="5">
+        <f t="shared" si="7"/>
+        <v>0.12882667147667154</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -1698,23 +2367,62 @@
       <c r="C19">
         <v>8460963.1999999899</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="G19">
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>376336.80000001006</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" si="1"/>
+        <v>4.258504294298146E-2</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="G19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19">
         <v>9713300</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>8991707.2399999909</v>
       </c>
-      <c r="J19" s="5"/>
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>721592.76000000909</v>
+      </c>
+      <c r="K19" s="5">
+        <f t="shared" si="4"/>
+        <v>7.4289145810384635E-2</v>
+      </c>
       <c r="L19">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="M19" t="s">
+        <v>33</v>
+      </c>
+      <c r="N19">
         <v>9343000</v>
       </c>
-      <c r="M19">
+      <c r="O19">
         <v>8766655.9100000001</v>
       </c>
-      <c r="O19" s="5"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P19">
+        <f t="shared" si="6"/>
+        <v>576344.08999999985</v>
+      </c>
+      <c r="Q19" s="5">
+        <f t="shared" si="7"/>
+        <v>6.1687262121374278E-2</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -1724,23 +2432,62 @@
       <c r="C20">
         <v>124384360.159999</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="G20">
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>1539.8400010019541</v>
+      </c>
+      <c r="E20" s="5">
+        <f t="shared" si="1"/>
+        <v>1.2379538203300809E-5</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="G20" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20">
         <v>131849400</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>131839624.37</v>
       </c>
-      <c r="J20" s="5"/>
+      <c r="J20">
+        <f t="shared" si="3"/>
+        <v>9775.6299999952316</v>
+      </c>
+      <c r="K20" s="5">
+        <f t="shared" si="4"/>
+        <v>7.4142392760188761E-5</v>
+      </c>
       <c r="L20">
+        <f t="shared" si="5"/>
+        <v>47</v>
+      </c>
+      <c r="M20" t="s">
+        <v>34</v>
+      </c>
+      <c r="N20">
         <v>130621400</v>
       </c>
-      <c r="M20">
+      <c r="O20">
         <v>130621283.53999899</v>
       </c>
-      <c r="O20" s="5"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P20">
+        <f t="shared" si="6"/>
+        <v>116.46000100672245</v>
+      </c>
+      <c r="Q20" s="5">
+        <f t="shared" si="7"/>
+        <v>8.9158438821450736E-7</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="8"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -1750,23 +2497,62 @@
       <c r="C21">
         <v>22408587.5499999</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="G21">
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>1923512.4500000998</v>
+      </c>
+      <c r="E21" s="5">
+        <f t="shared" si="1"/>
+        <v>7.9052463618023094E-2</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="G21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21">
         <v>24497400</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>22655993.629999999</v>
       </c>
-      <c r="J21" s="5"/>
+      <c r="J21">
+        <f t="shared" si="3"/>
+        <v>1841406.370000001</v>
+      </c>
+      <c r="K21" s="5">
+        <f t="shared" si="4"/>
+        <v>7.5167420624229556E-2</v>
+      </c>
       <c r="L21">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="M21" t="s">
+        <v>35</v>
+      </c>
+      <c r="N21">
         <v>24323000</v>
       </c>
-      <c r="M21">
+      <c r="O21">
         <v>23434073.089999899</v>
       </c>
-      <c r="O21" s="5"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P21">
+        <f t="shared" si="6"/>
+        <v>888926.91000010073</v>
+      </c>
+      <c r="Q21" s="5">
+        <f t="shared" si="7"/>
+        <v>3.6546762734864152E-2</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -1776,23 +2562,62 @@
       <c r="C22">
         <v>11412339.8799999</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="G22">
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>153660.12000009976</v>
+      </c>
+      <c r="E22" s="5">
+        <f t="shared" si="1"/>
+        <v>1.3285502334437123E-2</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="G22" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22">
         <v>11980700</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>11791977.9699999</v>
       </c>
-      <c r="J22" s="5"/>
+      <c r="J22">
+        <f t="shared" si="3"/>
+        <v>188722.03000009991</v>
+      </c>
+      <c r="K22" s="5">
+        <f t="shared" si="4"/>
+        <v>1.5752170574348738E-2</v>
+      </c>
       <c r="L22">
+        <f t="shared" si="5"/>
+        <v>38</v>
+      </c>
+      <c r="M22" t="s">
+        <v>36</v>
+      </c>
+      <c r="N22">
         <v>11935200</v>
       </c>
-      <c r="M22">
+      <c r="O22">
         <v>11934454.77</v>
       </c>
-      <c r="O22" s="5"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P22">
+        <f t="shared" si="6"/>
+        <v>745.23000000044703</v>
+      </c>
+      <c r="Q22" s="5">
+        <f t="shared" si="7"/>
+        <v>6.2439674240938325E-5</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="8"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -1802,23 +2627,62 @@
       <c r="C23">
         <v>20036743.4099999</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="G23">
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>825956.59000010043</v>
+      </c>
+      <c r="E23" s="5">
+        <f t="shared" si="1"/>
+        <v>3.9590110100806722E-2</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="G23" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23">
         <v>22683800</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>21722126.219999898</v>
       </c>
-      <c r="J23" s="5"/>
+      <c r="J23">
+        <f t="shared" si="3"/>
+        <v>961673.78000010177</v>
+      </c>
+      <c r="K23" s="5">
+        <f t="shared" si="4"/>
+        <v>4.2394738976719144E-2</v>
+      </c>
       <c r="L23">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="M23" t="s">
+        <v>37</v>
+      </c>
+      <c r="N23">
         <v>23220300</v>
       </c>
-      <c r="M23">
+      <c r="O23">
         <v>22619057.440000001</v>
       </c>
-      <c r="O23" s="5"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P23">
+        <f t="shared" si="6"/>
+        <v>601242.55999999866</v>
+      </c>
+      <c r="Q23" s="5">
+        <f t="shared" si="7"/>
+        <v>2.5892971236375011E-2</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="8"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -1828,23 +2692,62 @@
       <c r="C24">
         <v>904969.19</v>
       </c>
-      <c r="E24" s="5"/>
-      <c r="G24">
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>12230.810000000056</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" si="1"/>
+        <v>1.3334943305713101E-2</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="G24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24">
         <v>1112700</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>1067214.42</v>
       </c>
-      <c r="J24" s="5"/>
+      <c r="J24">
+        <f t="shared" si="3"/>
+        <v>45485.580000000075</v>
+      </c>
+      <c r="K24" s="5">
+        <f t="shared" si="4"/>
+        <v>4.087856565111897E-2</v>
+      </c>
       <c r="L24">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="M24" t="s">
+        <v>38</v>
+      </c>
+      <c r="N24">
         <v>1112600</v>
       </c>
-      <c r="M24">
+      <c r="O24">
         <v>1112527.1200000001</v>
       </c>
-      <c r="O24" s="5"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P24">
+        <f t="shared" si="6"/>
+        <v>72.879999999888241</v>
+      </c>
+      <c r="Q24" s="5">
+        <f t="shared" si="7"/>
+        <v>6.5504224339284781E-5</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="8"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -1854,23 +2757,62 @@
       <c r="C25">
         <v>479149.53</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="G25">
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>4950.4699999999721</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" si="1"/>
+        <v>1.0226130964676661E-2</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="G25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25">
         <v>505200</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>497194.20999999897</v>
       </c>
-      <c r="J25" s="5"/>
+      <c r="J25">
+        <f t="shared" si="3"/>
+        <v>8005.7900000010268</v>
+      </c>
+      <c r="K25" s="5">
+        <f t="shared" si="4"/>
+        <v>1.5846773555029746E-2</v>
+      </c>
       <c r="L25">
+        <f t="shared" si="5"/>
+        <v>37</v>
+      </c>
+      <c r="M25" t="s">
+        <v>39</v>
+      </c>
+      <c r="N25">
         <v>496500</v>
       </c>
-      <c r="M25">
+      <c r="O25">
         <v>494775.1</v>
       </c>
-      <c r="O25" s="5"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P25">
+        <f t="shared" si="6"/>
+        <v>1724.9000000000233</v>
+      </c>
+      <c r="Q25" s="5">
+        <f t="shared" si="7"/>
+        <v>3.4741188318228064E-3</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="8"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -1880,23 +2822,62 @@
       <c r="C26">
         <v>4801960.08</v>
       </c>
-      <c r="E26" s="5"/>
-      <c r="G26">
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>447839.91999999993</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" si="1"/>
+        <v>8.5306091660634673E-2</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26">
         <v>5442200</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>5122329.02999999</v>
       </c>
-      <c r="J26" s="5"/>
+      <c r="J26">
+        <f t="shared" si="3"/>
+        <v>319870.97000000998</v>
+      </c>
+      <c r="K26" s="5">
+        <f t="shared" si="4"/>
+        <v>5.8776040939327839E-2</v>
+      </c>
       <c r="L26">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="M26" t="s">
+        <v>40</v>
+      </c>
+      <c r="N26">
         <v>5430700</v>
       </c>
-      <c r="M26">
+      <c r="O26">
         <v>5117235.21</v>
       </c>
-      <c r="O26" s="5"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P26">
+        <f t="shared" si="6"/>
+        <v>313464.79000000004</v>
+      </c>
+      <c r="Q26" s="5">
+        <f t="shared" si="7"/>
+        <v>5.7720881286022069E-2</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -1906,23 +2887,62 @@
       <c r="C27">
         <v>0</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="G27">
-        <v>0</v>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="G27" t="s">
+        <v>41</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
-      <c r="J27" s="5"/>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="O27" s="5"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+      <c r="M27" t="s">
+        <v>41</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="8"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -1932,23 +2952,62 @@
       <c r="C28">
         <v>1250442.02</v>
       </c>
-      <c r="E28" s="5"/>
-      <c r="G28">
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>132457.97999999998</v>
+      </c>
+      <c r="E28" s="5">
+        <f t="shared" si="1"/>
+        <v>9.5782760864849215E-2</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G28" t="s">
+        <v>42</v>
+      </c>
+      <c r="H28">
         <v>1545700</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>1281335.23</v>
       </c>
-      <c r="J28" s="5"/>
+      <c r="J28">
+        <f t="shared" si="3"/>
+        <v>264364.77</v>
+      </c>
+      <c r="K28" s="5">
+        <f t="shared" si="4"/>
+        <v>0.17103239309050916</v>
+      </c>
       <c r="L28">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="M28" t="s">
+        <v>42</v>
+      </c>
+      <c r="N28">
         <v>1525900</v>
       </c>
-      <c r="M28">
+      <c r="O28">
         <v>1393285.06</v>
       </c>
-      <c r="O28" s="5"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P28">
+        <f t="shared" si="6"/>
+        <v>132614.93999999994</v>
+      </c>
+      <c r="Q28" s="5">
+        <f t="shared" si="7"/>
+        <v>8.6909325643882263E-2</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -1958,23 +3017,62 @@
       <c r="C29">
         <v>2523884.71</v>
       </c>
-      <c r="E29" s="5"/>
-      <c r="G29">
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>37915.290000000037</v>
+      </c>
+      <c r="E29" s="5">
+        <f t="shared" si="1"/>
+        <v>1.4800253727847622E-2</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="G29" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29">
         <v>2779500</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>2665264.4399999902</v>
       </c>
-      <c r="J29" s="5"/>
+      <c r="J29">
+        <f t="shared" si="3"/>
+        <v>114235.56000000983</v>
+      </c>
+      <c r="K29" s="5">
+        <f t="shared" si="4"/>
+        <v>4.1099320021590155E-2</v>
+      </c>
       <c r="L29">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="M29" t="s">
+        <v>43</v>
+      </c>
+      <c r="N29">
         <v>2889900</v>
       </c>
-      <c r="M29">
+      <c r="O29">
         <v>2889864.67</v>
       </c>
-      <c r="O29" s="5"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P29">
+        <f t="shared" si="6"/>
+        <v>35.330000000074506</v>
+      </c>
+      <c r="Q29" s="5">
+        <f t="shared" si="7"/>
+        <v>1.2225336516860273E-5</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="8"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -1984,23 +3082,62 @@
       <c r="C30">
         <v>12030494.1</v>
       </c>
-      <c r="E30" s="5"/>
-      <c r="G30">
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>101705.90000000037</v>
+      </c>
+      <c r="E30" s="5">
+        <f t="shared" si="1"/>
+        <v>8.3831374359143746E-3</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="G30" t="s">
+        <v>44</v>
+      </c>
+      <c r="H30">
         <v>12735900</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>12685514.279999901</v>
       </c>
-      <c r="J30" s="5"/>
+      <c r="J30">
+        <f t="shared" si="3"/>
+        <v>50385.720000099391</v>
+      </c>
+      <c r="K30" s="5">
+        <f t="shared" si="4"/>
+        <v>3.9561962641116366E-3</v>
+      </c>
       <c r="L30">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+      <c r="M30" t="s">
+        <v>44</v>
+      </c>
+      <c r="N30">
         <v>12861300</v>
       </c>
-      <c r="M30">
+      <c r="O30">
         <v>12826009.609999999</v>
       </c>
-      <c r="O30" s="5"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P30">
+        <f t="shared" si="6"/>
+        <v>35290.390000000596</v>
+      </c>
+      <c r="Q30" s="5">
+        <f t="shared" si="7"/>
+        <v>2.7439209100169185E-3</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="8"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -2010,23 +3147,62 @@
       <c r="C31">
         <v>1740827.69</v>
       </c>
-      <c r="E31" s="5"/>
-      <c r="G31">
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>24772.310000000056</v>
+      </c>
+      <c r="E31" s="5">
+        <f t="shared" si="1"/>
+        <v>1.4030533529678329E-2</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31">
         <v>1823300</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>1762676.85</v>
       </c>
-      <c r="J31" s="5"/>
+      <c r="J31">
+        <f t="shared" si="3"/>
+        <v>60623.149999999907</v>
+      </c>
+      <c r="K31" s="5">
+        <f t="shared" si="4"/>
+        <v>3.3249136181648611E-2</v>
+      </c>
       <c r="L31">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="M31" t="s">
+        <v>45</v>
+      </c>
+      <c r="N31">
         <v>1870700</v>
       </c>
-      <c r="M31">
+      <c r="O31">
         <v>1801391.34</v>
       </c>
-      <c r="O31" s="5"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P31">
+        <f t="shared" si="6"/>
+        <v>69308.659999999916</v>
+      </c>
+      <c r="Q31" s="5">
+        <f t="shared" si="7"/>
+        <v>3.7049585716576634E-2</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -2036,23 +3212,62 @@
       <c r="C32">
         <v>5925637.7199999904</v>
       </c>
-      <c r="E32" s="5"/>
-      <c r="G32">
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>73762.280000009574</v>
+      </c>
+      <c r="E32" s="5">
+        <f t="shared" si="1"/>
+        <v>1.2294942827617691E-2</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32">
         <v>6195500</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>6084985.4699999997</v>
       </c>
-      <c r="J32" s="5"/>
+      <c r="J32">
+        <f t="shared" si="3"/>
+        <v>110514.53000000026</v>
+      </c>
+      <c r="K32" s="5">
+        <f t="shared" si="4"/>
+        <v>1.7837871035428981E-2</v>
+      </c>
       <c r="L32">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+      <c r="M32" t="s">
+        <v>46</v>
+      </c>
+      <c r="N32">
         <v>6157400</v>
       </c>
-      <c r="M32">
+      <c r="O32">
         <v>5987572.0199999996</v>
       </c>
-      <c r="O32" s="5"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P32">
+        <f t="shared" si="6"/>
+        <v>169827.98000000045</v>
+      </c>
+      <c r="Q32" s="5">
+        <f t="shared" si="7"/>
+        <v>2.7581118653977402E-2</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -2062,23 +3277,62 @@
       <c r="C33">
         <v>920284264.73000002</v>
       </c>
-      <c r="E33" s="5"/>
-      <c r="G33">
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>7418835.2699990273</v>
+      </c>
+      <c r="E33" s="5">
+        <f t="shared" si="1"/>
+        <v>7.9969930789269058E-3</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="G33" t="s">
+        <v>47</v>
+      </c>
+      <c r="H33">
         <v>979671000</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>977068513.48000002</v>
       </c>
-      <c r="J33" s="5"/>
+      <c r="J33">
+        <f t="shared" si="3"/>
+        <v>2602486.5199999809</v>
+      </c>
+      <c r="K33" s="5">
+        <f t="shared" si="4"/>
+        <v>2.6564903115433454E-3</v>
+      </c>
       <c r="L33">
+        <f t="shared" si="5"/>
+        <v>43</v>
+      </c>
+      <c r="M33" t="s">
+        <v>47</v>
+      </c>
+      <c r="N33">
         <v>989572899.99999905</v>
       </c>
-      <c r="M33">
+      <c r="O33">
         <v>984116289.40999901</v>
       </c>
-      <c r="O33" s="5"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P33">
+        <f t="shared" si="6"/>
+        <v>5456610.5900000334</v>
+      </c>
+      <c r="Q33" s="5">
+        <f t="shared" si="7"/>
+        <v>5.5141067323084929E-3</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="8"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>48</v>
       </c>
@@ -2088,23 +3342,62 @@
       <c r="C34">
         <v>4109958.22</v>
       </c>
-      <c r="E34" s="5"/>
-      <c r="G34">
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>79341.779999999795</v>
+      </c>
+      <c r="E34" s="5">
+        <f t="shared" si="1"/>
+        <v>1.8939149738619768E-2</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="G34" t="s">
+        <v>48</v>
+      </c>
+      <c r="H34">
         <v>4350600</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>4137588.7699999898</v>
       </c>
-      <c r="J34" s="5"/>
+      <c r="J34">
+        <f t="shared" si="3"/>
+        <v>213011.23000001023</v>
+      </c>
+      <c r="K34" s="5">
+        <f t="shared" si="4"/>
+        <v>4.8961345561534093E-2</v>
+      </c>
       <c r="L34">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="M34" t="s">
+        <v>48</v>
+      </c>
+      <c r="N34">
         <v>4345600</v>
       </c>
-      <c r="M34">
+      <c r="O34">
         <v>4229801.51</v>
       </c>
-      <c r="O34" s="5"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P34">
+        <f t="shared" si="6"/>
+        <v>115798.49000000022</v>
+      </c>
+      <c r="Q34" s="5">
+        <f t="shared" si="7"/>
+        <v>2.6647296115611244E-2</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -2114,23 +3407,62 @@
       <c r="C35">
         <v>0</v>
       </c>
-      <c r="E35" s="5"/>
-      <c r="G35">
-        <v>0</v>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="G35" t="s">
+        <v>49</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
-      <c r="J35" s="5"/>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="O35" s="5"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+      <c r="M35" t="s">
+        <v>49</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="8"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>50</v>
       </c>
@@ -2140,23 +3472,62 @@
       <c r="C36">
         <v>735423.27999999898</v>
       </c>
-      <c r="E36" s="5"/>
-      <c r="G36">
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>62776.72000000102</v>
+      </c>
+      <c r="E36" s="5">
+        <f t="shared" si="1"/>
+        <v>7.8647857679780775E-2</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G36" t="s">
+        <v>50</v>
+      </c>
+      <c r="H36">
         <v>898700</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>740966.94999999902</v>
       </c>
-      <c r="J36" s="5"/>
+      <c r="J36">
+        <f t="shared" si="3"/>
+        <v>157733.05000000098</v>
+      </c>
+      <c r="K36" s="5">
+        <f t="shared" si="4"/>
+        <v>0.17551246244575608</v>
+      </c>
       <c r="L36">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="M36" t="s">
+        <v>50</v>
+      </c>
+      <c r="N36">
         <v>878300</v>
       </c>
-      <c r="M36">
+      <c r="O36">
         <v>777215.28999999899</v>
       </c>
-      <c r="O36" s="5"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P36">
+        <f t="shared" si="6"/>
+        <v>101084.71000000101</v>
+      </c>
+      <c r="Q36" s="5">
+        <f t="shared" si="7"/>
+        <v>0.11509132414892521</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>51</v>
       </c>
@@ -2166,23 +3537,62 @@
       <c r="C37">
         <v>2005447.73999999</v>
       </c>
-      <c r="E37" s="5"/>
-      <c r="G37">
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>82352.260000010021</v>
+      </c>
+      <c r="E37" s="5">
+        <f t="shared" si="1"/>
+        <v>3.9444515758219188E-2</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="G37" t="s">
+        <v>51</v>
+      </c>
+      <c r="H37">
         <v>2229200</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>2118943.21</v>
       </c>
-      <c r="J37" s="5"/>
+      <c r="J37">
+        <f t="shared" si="3"/>
+        <v>110256.79000000004</v>
+      </c>
+      <c r="K37" s="5">
+        <f t="shared" si="4"/>
+        <v>4.9460250314014013E-2</v>
+      </c>
       <c r="L37">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="M37" t="s">
+        <v>51</v>
+      </c>
+      <c r="N37">
         <v>2296900</v>
       </c>
-      <c r="M37">
+      <c r="O37">
         <v>2108718.34</v>
       </c>
-      <c r="O37" s="5"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P37">
+        <f t="shared" si="6"/>
+        <v>188181.66000000015</v>
+      </c>
+      <c r="Q37" s="5">
+        <f t="shared" si="7"/>
+        <v>8.1928538464887526E-2</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -2192,23 +3602,62 @@
       <c r="C38">
         <v>838669.82</v>
       </c>
-      <c r="E38" s="5"/>
-      <c r="G38">
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>16630.180000000051</v>
+      </c>
+      <c r="E38" s="5">
+        <f t="shared" si="1"/>
+        <v>1.9443680579913542E-2</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="G38" t="s">
+        <v>52</v>
+      </c>
+      <c r="H38">
         <v>792800</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>753451.96</v>
       </c>
-      <c r="J38" s="5"/>
+      <c r="J38">
+        <f t="shared" si="3"/>
+        <v>39348.040000000037</v>
+      </c>
+      <c r="K38" s="5">
+        <f t="shared" si="4"/>
+        <v>4.9631735620585316E-2</v>
+      </c>
       <c r="L38">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="M38" t="s">
+        <v>52</v>
+      </c>
+      <c r="N38">
         <v>777800</v>
       </c>
-      <c r="M38">
+      <c r="O38">
         <v>777663.26</v>
       </c>
-      <c r="O38" s="5"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P38">
+        <f t="shared" si="6"/>
+        <v>136.73999999999069</v>
+      </c>
+      <c r="Q38" s="5">
+        <f t="shared" si="7"/>
+        <v>1.7580354847003174E-4</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>53</v>
       </c>
@@ -2218,23 +3667,62 @@
       <c r="C39">
         <v>813108.87</v>
       </c>
-      <c r="E39" s="5"/>
-      <c r="G39">
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>70791.13</v>
+      </c>
+      <c r="E39" s="5">
+        <f t="shared" si="1"/>
+        <v>8.008952370177623E-2</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="G39" t="s">
+        <v>53</v>
+      </c>
+      <c r="H39">
         <v>1294400</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>1114242.27999999</v>
       </c>
-      <c r="J39" s="5"/>
+      <c r="J39">
+        <f t="shared" si="3"/>
+        <v>180157.72000000998</v>
+      </c>
+      <c r="K39" s="5">
+        <f t="shared" si="4"/>
+        <v>0.13918241656366656</v>
+      </c>
       <c r="L39">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="M39" t="s">
+        <v>53</v>
+      </c>
+      <c r="N39">
         <v>1759500</v>
       </c>
-      <c r="M39">
+      <c r="O39">
         <v>1680463.8699999901</v>
       </c>
-      <c r="O39" s="5"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P39">
+        <f t="shared" si="6"/>
+        <v>79036.1300000099</v>
+      </c>
+      <c r="Q39" s="5">
+        <f t="shared" si="7"/>
+        <v>4.4919653310605226E-2</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>54</v>
       </c>
@@ -2244,23 +3732,62 @@
       <c r="C40">
         <v>37565141.859999903</v>
       </c>
-      <c r="E40" s="5"/>
-      <c r="G40">
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>816758.14000009745</v>
+      </c>
+      <c r="E40" s="5">
+        <f t="shared" si="1"/>
+        <v>2.1279773539092578E-2</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="G40" t="s">
+        <v>54</v>
+      </c>
+      <c r="H40">
         <v>39964900</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>38095240.189999901</v>
       </c>
-      <c r="J40" s="5"/>
+      <c r="J40">
+        <f t="shared" si="3"/>
+        <v>1869659.8100000992</v>
+      </c>
+      <c r="K40" s="5">
+        <f t="shared" si="4"/>
+        <v>4.6782546934937892E-2</v>
+      </c>
       <c r="L40">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="M40" t="s">
+        <v>54</v>
+      </c>
+      <c r="N40">
         <v>40216700</v>
       </c>
-      <c r="M40">
+      <c r="O40">
         <v>39606263.709999897</v>
       </c>
-      <c r="O40" s="5"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P40">
+        <f t="shared" si="6"/>
+        <v>610436.29000010341</v>
+      </c>
+      <c r="Q40" s="5">
+        <f t="shared" si="7"/>
+        <v>1.5178676768608648E-2</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="8"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>55</v>
       </c>
@@ -2270,23 +3797,62 @@
       <c r="C41">
         <v>4409060.2099999897</v>
       </c>
-      <c r="E41" s="5"/>
-      <c r="G41">
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>184239.79000001028</v>
+      </c>
+      <c r="E41" s="5">
+        <f t="shared" si="1"/>
+        <v>4.0110550149132493E-2</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="G41" t="s">
+        <v>55</v>
+      </c>
+      <c r="H41">
         <v>5089500</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>4956043.6699999897</v>
       </c>
-      <c r="J41" s="5"/>
+      <c r="J41">
+        <f t="shared" si="3"/>
+        <v>133456.33000001032</v>
+      </c>
+      <c r="K41" s="5">
+        <f t="shared" si="4"/>
+        <v>2.6221894095689226E-2</v>
+      </c>
       <c r="L41">
+        <f t="shared" si="5"/>
+        <v>34</v>
+      </c>
+      <c r="M41" t="s">
+        <v>55</v>
+      </c>
+      <c r="N41">
         <v>4799900</v>
       </c>
-      <c r="M41">
+      <c r="O41">
         <v>4717822.6500000004</v>
       </c>
-      <c r="O41" s="5"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P41">
+        <f t="shared" si="6"/>
+        <v>82077.349999999627</v>
+      </c>
+      <c r="Q41" s="5">
+        <f t="shared" si="7"/>
+        <v>1.7099804162586642E-2</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>56</v>
       </c>
@@ -2296,23 +3862,62 @@
       <c r="C42">
         <v>188551675.67999899</v>
       </c>
-      <c r="E42" s="5"/>
-      <c r="G42">
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>41624.320001006126</v>
+      </c>
+      <c r="E42" s="5">
+        <f t="shared" si="1"/>
+        <v>2.2070943135841053E-4</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="G42" t="s">
+        <v>56</v>
+      </c>
+      <c r="H42">
         <v>199130300</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>196755033.31</v>
       </c>
-      <c r="J42" s="5"/>
+      <c r="J42">
+        <f t="shared" si="3"/>
+        <v>2375266.6899999976</v>
+      </c>
+      <c r="K42" s="5">
+        <f t="shared" si="4"/>
+        <v>1.1928203241796942E-2</v>
+      </c>
       <c r="L42">
+        <f t="shared" si="5"/>
+        <v>39</v>
+      </c>
+      <c r="M42" t="s">
+        <v>56</v>
+      </c>
+      <c r="N42">
         <v>199954600</v>
       </c>
-      <c r="M42">
+      <c r="O42">
         <v>199954563.74999899</v>
       </c>
-      <c r="O42" s="5"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P42">
+        <f t="shared" si="6"/>
+        <v>36.250001013278961</v>
+      </c>
+      <c r="Q42" s="5">
+        <f t="shared" si="7"/>
+        <v>1.8129115815929696E-7</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="8"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>57</v>
       </c>
@@ -2322,23 +3927,62 @@
       <c r="C43">
         <v>7968645.8300000001</v>
       </c>
-      <c r="E43" s="5"/>
-      <c r="G43">
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>166754.16999999993</v>
+      </c>
+      <c r="E43" s="5">
+        <f t="shared" si="1"/>
+        <v>2.0497353541313264E-2</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="G43" t="s">
+        <v>57</v>
+      </c>
+      <c r="H43">
         <v>8560800</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>8171472.0199999996</v>
       </c>
-      <c r="J43" s="5"/>
+      <c r="J43">
+        <f t="shared" si="3"/>
+        <v>389327.98000000045</v>
+      </c>
+      <c r="K43" s="5">
+        <f t="shared" si="4"/>
+        <v>4.5477990374731388E-2</v>
+      </c>
       <c r="L43">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="M43" t="s">
+        <v>57</v>
+      </c>
+      <c r="N43">
         <v>8497500</v>
       </c>
-      <c r="M43">
+      <c r="O43">
         <v>8150982.5699999901</v>
       </c>
-      <c r="O43" s="5"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P43">
+        <f t="shared" si="6"/>
+        <v>346517.43000000995</v>
+      </c>
+      <c r="Q43" s="5">
+        <f t="shared" si="7"/>
+        <v>4.0778750220654303E-2</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>58</v>
       </c>
@@ -2348,23 +3992,62 @@
       <c r="C44">
         <v>29789104.379999999</v>
       </c>
-      <c r="E44" s="5"/>
-      <c r="G44">
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>294095.62000000104</v>
+      </c>
+      <c r="E44" s="5">
+        <f t="shared" si="1"/>
+        <v>9.7760750186150751E-3</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="G44" t="s">
+        <v>58</v>
+      </c>
+      <c r="H44">
         <v>31040700</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>30793711.48</v>
       </c>
-      <c r="J44" s="5"/>
+      <c r="J44">
+        <f t="shared" si="3"/>
+        <v>246988.51999999955</v>
+      </c>
+      <c r="K44" s="5">
+        <f t="shared" si="4"/>
+        <v>7.9569249404813532E-3</v>
+      </c>
       <c r="L44">
+        <f t="shared" si="5"/>
+        <v>41</v>
+      </c>
+      <c r="M44" t="s">
+        <v>58</v>
+      </c>
+      <c r="N44">
         <v>31282200</v>
       </c>
-      <c r="M44">
+      <c r="O44">
         <v>31282141.25</v>
       </c>
-      <c r="O44" s="5"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P44">
+        <f t="shared" si="6"/>
+        <v>58.75</v>
+      </c>
+      <c r="Q44" s="5">
+        <f t="shared" si="7"/>
+        <v>1.8780648419868168E-6</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="8"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>59</v>
       </c>
@@ -2374,23 +4057,62 @@
       <c r="C45">
         <v>54589584.0499999</v>
       </c>
-      <c r="E45" s="5"/>
-      <c r="G45">
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>712015.95000009984</v>
+      </c>
+      <c r="E45" s="5">
+        <f t="shared" si="1"/>
+        <v>1.287514194887851E-2</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="G45" t="s">
+        <v>59</v>
+      </c>
+      <c r="H45">
         <v>56792200</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>54594953.959999897</v>
       </c>
-      <c r="J45" s="5"/>
+      <c r="J45">
+        <f t="shared" si="3"/>
+        <v>2197246.0400001034</v>
+      </c>
+      <c r="K45" s="5">
+        <f t="shared" si="4"/>
+        <v>3.8689222111488959E-2</v>
+      </c>
       <c r="L45">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="M45" t="s">
+        <v>59</v>
+      </c>
+      <c r="N45">
         <v>56027100</v>
       </c>
-      <c r="M45">
+      <c r="O45">
         <v>55386549.6599999</v>
       </c>
-      <c r="O45" s="5"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P45">
+        <f t="shared" si="6"/>
+        <v>640550.34000010043</v>
+      </c>
+      <c r="Q45" s="5">
+        <f t="shared" si="7"/>
+        <v>1.1432866237947358E-2</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="8"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>60</v>
       </c>
@@ -2400,23 +4122,62 @@
       <c r="C46">
         <v>258322.43</v>
       </c>
-      <c r="E46" s="5"/>
-      <c r="G46">
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>777.57000000000698</v>
+      </c>
+      <c r="E46" s="5">
+        <f t="shared" si="1"/>
+        <v>3.0010420686993711E-3</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="G46" t="s">
+        <v>60</v>
+      </c>
+      <c r="H46">
         <v>266000</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>257402.90999999901</v>
       </c>
-      <c r="J46" s="5"/>
+      <c r="J46">
+        <f t="shared" si="3"/>
+        <v>8597.090000000986</v>
+      </c>
+      <c r="K46" s="5">
+        <f t="shared" si="4"/>
+        <v>3.2319887218048821E-2</v>
+      </c>
       <c r="L46">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="M46" t="s">
+        <v>60</v>
+      </c>
+      <c r="N46">
         <v>267100</v>
       </c>
-      <c r="M46">
+      <c r="O46">
         <v>254753.15999999901</v>
       </c>
-      <c r="O46" s="5"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P46">
+        <f t="shared" si="6"/>
+        <v>12346.840000000986</v>
+      </c>
+      <c r="Q46" s="5">
+        <f t="shared" si="7"/>
+        <v>4.6225533508053113E-2</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>61</v>
       </c>
@@ -2426,23 +4187,62 @@
       <c r="C47">
         <v>70378426.719999999</v>
       </c>
-      <c r="E47" s="5"/>
-      <c r="G47">
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>12273.280000001192</v>
+      </c>
+      <c r="E47" s="5">
+        <f t="shared" si="1"/>
+        <v>1.7435939690898361E-4</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="G47" t="s">
+        <v>61</v>
+      </c>
+      <c r="H47">
         <v>73467000</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>73442541.659999996</v>
       </c>
-      <c r="J47" s="5"/>
+      <c r="J47">
+        <f t="shared" si="3"/>
+        <v>24458.340000003576</v>
+      </c>
+      <c r="K47" s="5">
+        <f t="shared" si="4"/>
+        <v>3.3291600310348285E-4</v>
+      </c>
       <c r="L47">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="M47" t="s">
+        <v>61</v>
+      </c>
+      <c r="N47">
         <v>75072800</v>
       </c>
-      <c r="M47">
+      <c r="O47">
         <v>75050829.179999903</v>
       </c>
-      <c r="O47" s="5"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P47">
+        <f t="shared" si="6"/>
+        <v>21970.820000097156</v>
+      </c>
+      <c r="Q47" s="5">
+        <f t="shared" si="7"/>
+        <v>2.9266019117572752E-4</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="8"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>62</v>
       </c>
@@ -2452,23 +4252,62 @@
       <c r="C48">
         <v>6527352.5699999901</v>
       </c>
-      <c r="E48" s="5"/>
-      <c r="G48">
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>209747.43000000995</v>
+      </c>
+      <c r="E48" s="5">
+        <f t="shared" si="1"/>
+        <v>3.1133192323107857E-2</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G48" t="s">
+        <v>62</v>
+      </c>
+      <c r="H48">
         <v>7214700</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>6922072.5599999996</v>
       </c>
-      <c r="J48" s="5"/>
+      <c r="J48">
+        <f t="shared" si="3"/>
+        <v>292627.44000000041</v>
+      </c>
+      <c r="K48" s="5">
+        <f t="shared" si="4"/>
+        <v>4.0559890224125802E-2</v>
+      </c>
       <c r="L48">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="M48" t="s">
+        <v>62</v>
+      </c>
+      <c r="N48">
         <v>7289800</v>
       </c>
-      <c r="M48">
+      <c r="O48">
         <v>6882350.23999999</v>
       </c>
-      <c r="O48" s="5"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P48">
+        <f t="shared" si="6"/>
+        <v>407449.76000001002</v>
+      </c>
+      <c r="Q48" s="5">
+        <f t="shared" si="7"/>
+        <v>5.5893132870587676E-2</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>63</v>
       </c>
@@ -2478,23 +4317,62 @@
       <c r="C49">
         <v>90499.43</v>
       </c>
-      <c r="E49" s="5"/>
-      <c r="G49">
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>1700.570000000007</v>
+      </c>
+      <c r="E49" s="5">
+        <f t="shared" si="1"/>
+        <v>1.8444360086767971E-2</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="G49" t="s">
+        <v>63</v>
+      </c>
+      <c r="H49">
         <v>102600</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>95466.880000000005</v>
       </c>
-      <c r="J49" s="5"/>
+      <c r="J49">
+        <f t="shared" si="3"/>
+        <v>7133.1199999999953</v>
+      </c>
+      <c r="K49" s="5">
+        <f t="shared" si="4"/>
+        <v>6.9523586744639335E-2</v>
+      </c>
       <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="O49" s="5"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="M49" t="s">
+        <v>63</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="8"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>64</v>
       </c>
@@ -2504,23 +4382,62 @@
       <c r="C50">
         <v>832600</v>
       </c>
-      <c r="E50" s="5"/>
-      <c r="G50">
-        <v>859100</v>
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E50" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="G50" t="s">
+        <v>64</v>
       </c>
       <c r="H50">
         <v>859100</v>
       </c>
-      <c r="J50" s="5"/>
+      <c r="I50">
+        <v>859100</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K50" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="L50">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+      <c r="M50" t="s">
+        <v>64</v>
+      </c>
+      <c r="N50">
         <v>843200</v>
       </c>
-      <c r="M50">
+      <c r="O50">
         <v>843200</v>
       </c>
-      <c r="O50" s="5"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q50" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="8"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>65</v>
       </c>
@@ -2530,23 +4447,62 @@
       <c r="C51">
         <v>8499425.3399999905</v>
       </c>
-      <c r="E51" s="5"/>
-      <c r="G51">
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>110074.66000000946</v>
+      </c>
+      <c r="E51" s="5">
+        <f t="shared" si="1"/>
+        <v>1.2785255822058129E-2</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="G51" t="s">
+        <v>65</v>
+      </c>
+      <c r="H51">
         <v>8925500</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>8599059.6199999992</v>
       </c>
-      <c r="J51" s="5"/>
+      <c r="J51">
+        <f t="shared" si="3"/>
+        <v>326440.38000000082</v>
+      </c>
+      <c r="K51" s="5">
+        <f t="shared" si="4"/>
+        <v>3.6573903982970231E-2</v>
+      </c>
       <c r="L51">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="M51" t="s">
+        <v>65</v>
+      </c>
+      <c r="N51">
         <v>8833900</v>
       </c>
-      <c r="M51">
+      <c r="O51">
         <v>8735843.3100000005</v>
       </c>
-      <c r="O51" s="5"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P51">
+        <f t="shared" si="6"/>
+        <v>98056.689999999478</v>
+      </c>
+      <c r="Q51" s="5">
+        <f t="shared" si="7"/>
+        <v>1.1100045280114048E-2</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>66</v>
       </c>
@@ -2556,28 +4512,67 @@
       <c r="C52">
         <v>2254684.7999999998</v>
       </c>
-      <c r="E52" s="5"/>
-      <c r="G52">
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>196315.20000000019</v>
+      </c>
+      <c r="E52" s="5">
+        <f t="shared" si="1"/>
+        <v>8.009596083231342E-2</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="G52" t="s">
+        <v>66</v>
+      </c>
+      <c r="H52">
         <v>2440700</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>2204672.88</v>
       </c>
-      <c r="J52" s="5"/>
+      <c r="J52">
+        <f t="shared" si="3"/>
+        <v>236027.12000000011</v>
+      </c>
+      <c r="K52" s="5">
+        <f t="shared" si="4"/>
+        <v>9.6704683082722218E-2</v>
+      </c>
       <c r="L52">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="M52" t="s">
+        <v>66</v>
+      </c>
+      <c r="N52">
         <v>2321600</v>
       </c>
-      <c r="M52">
+      <c r="O52">
         <v>2056835.26</v>
       </c>
-      <c r="O52" s="5"/>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="P52">
+        <f t="shared" si="6"/>
+        <v>264764.74</v>
+      </c>
+      <c r="Q52" s="5">
+        <f t="shared" si="7"/>
+        <v>0.11404408166781529</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A54" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
@@ -2591,42 +4586,42 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A63" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>0</v>
       </c>

--- a/metro_budget_exercise.xlsx
+++ b/metro_budget_exercise.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DA14\Projects\lookups-da14-seanfahey1127\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C279CE7-6202-49DD-BC8C-97AC1514E704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8AC4691-06A7-4CF6-9439-BF702CD95705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5055" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-180" yWindow="218" windowWidth="23475" windowHeight="14594" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metro_budget" sheetId="1" r:id="rId1"/>
@@ -33,8 +33,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="91">
   <si>
     <t>Department</t>
   </si>
@@ -304,6 +326,9 @@
   </si>
   <si>
     <t>Actual spending amount - budget amount for fiscal year 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            </t>
   </si>
 </sst>
 </file>
@@ -1091,7 +1116,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1102,8 +1127,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1142,9 +1166,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="51" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="51" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1361,7 +1382,7 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Internal Audit</c:v>
+                  <c:v>Administrative</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Budget</c:v>
@@ -1403,13 +1424,13 @@
                 <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1382900</c:v>
+                  <c:v>356640100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1294400</c:v>
+                  <c:v>334800</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2910600</c:v>
+                  <c:v>376548600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1429,7 +1450,7 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Internal Audit</c:v>
+                  <c:v>Administrative</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Actual</c:v>
@@ -1471,13 +1492,13 @@
                 <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1250442.02</c:v>
+                  <c:v>341243679.13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1114242.27999999</c:v>
+                  <c:v>312433.70999999897</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2535637.09</c:v>
+                  <c:v>355279492.22999901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2246,15 +2267,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>161703</xdr:colOff>
+      <xdr:colOff>378132</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>33075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>17991</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>171980</xdr:rowOff>
+      <xdr:colOff>234420</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>13228</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2593,8 +2614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="76" workbookViewId="0">
-      <selection activeCell="M72" sqref="L72:M72"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="72" workbookViewId="0">
+      <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2619,3373 +2640,3373 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="47" t="s">
+      <c r="K1" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="46" t="s">
+      <c r="L1" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="55" t="s">
+      <c r="N1" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="36" t="s">
+      <c r="P1" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="47" t="s">
+      <c r="Q1" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="46" t="s">
+      <c r="R1" s="45" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="16">
         <v>1552100</v>
       </c>
-      <c r="C2" s="42">
+      <c r="C2" s="41">
         <v>1315623.30999999</v>
       </c>
-      <c r="D2" s="52">
-        <f>B2-C2</f>
-        <v>236476.69000000996</v>
-      </c>
-      <c r="E2" s="54">
-        <f>IFERROR(D2/B2, 0)</f>
-        <v>0.15235918433091292</v>
-      </c>
-      <c r="F2" s="53">
-        <f>_xlfn.RANK.EQ(E2, $E$2:$E$52, 0)</f>
+      <c r="D2" s="48">
+        <f>C2-B2</f>
+        <v>-236476.69000000996</v>
+      </c>
+      <c r="E2" s="50">
+        <f t="shared" ref="E2:E33" si="0">IFERROR(D2/B2, 0)</f>
+        <v>-0.15235918433091292</v>
+      </c>
+      <c r="F2" s="49">
+        <f>_xlfn.RANK.EQ(E2, $E$2:$E$52, 1)</f>
         <v>1</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="22">
+        <v>898700</v>
+      </c>
+      <c r="I2" s="17">
+        <v>740966.94999999902</v>
+      </c>
+      <c r="J2" s="40">
+        <f>I2-H2</f>
+        <v>-157733.05000000098</v>
+      </c>
+      <c r="K2" s="50">
+        <f t="shared" ref="K2:K33" si="1">IFERROR(J2/H2, 0)</f>
+        <v>-0.17551246244575608</v>
+      </c>
+      <c r="L2" s="47">
+        <f>_xlfn.RANK.EQ(K2, $K$2:$K$52, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="M2" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="16">
+        <v>375000</v>
+      </c>
+      <c r="O2" s="17">
+        <v>63771.91</v>
+      </c>
+      <c r="P2" s="38">
+        <f>O2-N2</f>
+        <v>-311228.08999999997</v>
+      </c>
+      <c r="Q2" s="50">
+        <f t="shared" ref="Q2:Q33" si="2">IFERROR(P2/N2, 0)</f>
+        <v>-0.82994157333333329</v>
+      </c>
+      <c r="R2" s="47">
+        <f>_xlfn.RANK.EQ(Q2, $Q$2:$Q$52, 1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A3" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="16">
+        <v>3329000</v>
+      </c>
+      <c r="C3" s="41">
+        <v>2946071.21</v>
+      </c>
+      <c r="D3" s="48">
+        <f t="shared" ref="D3:D52" si="3">C3-B3</f>
+        <v>-382928.79000000004</v>
+      </c>
+      <c r="E3" s="50">
+        <f t="shared" si="0"/>
+        <v>-0.11502817362571344</v>
+      </c>
+      <c r="F3" s="49">
+        <f t="shared" ref="F3:F52" si="4">_xlfn.RANK.EQ(E3, $E$2:$E$52, 1)</f>
+        <v>2</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="16">
+        <v>1545700</v>
+      </c>
+      <c r="I3" s="17">
+        <v>1281335.23</v>
+      </c>
+      <c r="J3" s="40">
+        <f t="shared" ref="J3:J52" si="5">I3-H3</f>
+        <v>-264364.77</v>
+      </c>
+      <c r="K3" s="50">
+        <f t="shared" si="1"/>
+        <v>-0.17103239309050916</v>
+      </c>
+      <c r="L3" s="47">
+        <f t="shared" ref="L3:L52" si="6">_xlfn.RANK.EQ(K3, $K$2:$K$52, 1)</f>
+        <v>2</v>
+      </c>
+      <c r="M3" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="16">
+        <v>1579300</v>
+      </c>
+      <c r="O3" s="17">
+        <v>1337735.3199999901</v>
+      </c>
+      <c r="P3" s="38">
+        <f t="shared" ref="P3:P52" si="7">O3-N3</f>
+        <v>-241564.68000000995</v>
+      </c>
+      <c r="Q3" s="50">
+        <f t="shared" si="2"/>
+        <v>-0.15295680364719175</v>
+      </c>
+      <c r="R3" s="47">
+        <f t="shared" ref="R3:R52" si="8">_xlfn.RANK.EQ(Q3, $Q$2:$Q$52, 1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A4" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="16">
+        <v>1382900</v>
+      </c>
+      <c r="C4" s="41">
+        <v>1250442.02</v>
+      </c>
+      <c r="D4" s="48">
+        <f t="shared" si="3"/>
+        <v>-132457.97999999998</v>
+      </c>
+      <c r="E4" s="50">
+        <f t="shared" si="0"/>
+        <v>-9.5782760864849215E-2</v>
+      </c>
+      <c r="F4" s="49">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="16">
+        <v>1294400</v>
+      </c>
+      <c r="I4" s="17">
+        <v>1114242.27999999</v>
+      </c>
+      <c r="J4" s="40">
+        <f t="shared" si="5"/>
+        <v>-180157.72000000998</v>
+      </c>
+      <c r="K4" s="50">
+        <f t="shared" si="1"/>
+        <v>-0.13918241656366656</v>
+      </c>
+      <c r="L4" s="47">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="M4" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="16">
+        <v>2910600</v>
+      </c>
+      <c r="O4" s="17">
+        <v>2535637.09</v>
+      </c>
+      <c r="P4" s="38">
+        <f t="shared" si="7"/>
+        <v>-374962.91000000015</v>
+      </c>
+      <c r="Q4" s="50">
+        <f t="shared" si="2"/>
+        <v>-0.12882667147667154</v>
+      </c>
+      <c r="R4" s="47">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A5" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="16">
+        <v>7670700</v>
+      </c>
+      <c r="C5" s="41">
+        <v>6947552.6699999999</v>
+      </c>
+      <c r="D5" s="48">
+        <f t="shared" si="3"/>
+        <v>-723147.33000000007</v>
+      </c>
+      <c r="E5" s="50">
+        <f t="shared" si="0"/>
+        <v>-9.4273968477453174E-2</v>
+      </c>
+      <c r="F5" s="49">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="16">
+        <v>1590700</v>
+      </c>
+      <c r="I5" s="17">
+        <v>1383905.98999999</v>
+      </c>
+      <c r="J5" s="40">
+        <f t="shared" si="5"/>
+        <v>-206794.01000001002</v>
+      </c>
+      <c r="K5" s="50">
+        <f t="shared" si="1"/>
+        <v>-0.13000189224870184</v>
+      </c>
+      <c r="L5" s="47">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="M5" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="16">
+        <v>3345200</v>
+      </c>
+      <c r="O5" s="17">
+        <v>2946440.08</v>
+      </c>
+      <c r="P5" s="38">
+        <f t="shared" si="7"/>
+        <v>-398759.91999999993</v>
+      </c>
+      <c r="Q5" s="50">
+        <f t="shared" si="2"/>
+        <v>-0.11920361114432618</v>
+      </c>
+      <c r="R5" s="47">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A6" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="16">
+        <v>5249800</v>
+      </c>
+      <c r="C6" s="41">
+        <v>4801960.08</v>
+      </c>
+      <c r="D6" s="48">
+        <f t="shared" si="3"/>
+        <v>-447839.91999999993</v>
+      </c>
+      <c r="E6" s="50">
+        <f t="shared" si="0"/>
+        <v>-8.5306091660634673E-2</v>
+      </c>
+      <c r="F6" s="49">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="16">
+        <v>7968300</v>
+      </c>
+      <c r="I6" s="17">
+        <v>7020609.3200000003</v>
+      </c>
+      <c r="J6" s="40">
+        <f t="shared" si="5"/>
+        <v>-947690.6799999997</v>
+      </c>
+      <c r="K6" s="50">
+        <f t="shared" si="1"/>
+        <v>-0.118932605449092</v>
+      </c>
+      <c r="L6" s="47">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="M6" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="23">
-        <v>898700</v>
-      </c>
-      <c r="I2" s="18">
-        <v>740966.94999999902</v>
-      </c>
-      <c r="J2" s="41">
-        <f>H2-I2</f>
-        <v>157733.05000000098</v>
-      </c>
-      <c r="K2" s="54">
-        <f>IFERROR(J2/H2, 0)</f>
-        <v>0.17551246244575608</v>
-      </c>
-      <c r="L2" s="51">
-        <f>_xlfn.RANK.EQ(K2, $K$2:$K$52, 0)</f>
-        <v>1</v>
-      </c>
-      <c r="M2" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="17">
-        <v>375000</v>
-      </c>
-      <c r="O2" s="18">
-        <v>63771.91</v>
-      </c>
-      <c r="P2" s="39">
-        <f>N2-O2</f>
-        <v>311228.08999999997</v>
-      </c>
-      <c r="Q2" s="54">
-        <f>IFERROR(P2/N2, 0)</f>
-        <v>0.82994157333333329</v>
-      </c>
-      <c r="R2" s="51">
-        <f>_xlfn.RANK.EQ(Q2, $Q$2:$Q$52, 0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A3" s="25" t="s">
+      <c r="N6" s="16">
+        <v>878300</v>
+      </c>
+      <c r="O6" s="17">
+        <v>777215.28999999899</v>
+      </c>
+      <c r="P6" s="38">
+        <f t="shared" si="7"/>
+        <v>-101084.71000000101</v>
+      </c>
+      <c r="Q6" s="50">
+        <f t="shared" si="2"/>
+        <v>-0.11509132414892521</v>
+      </c>
+      <c r="R6" s="47">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A7" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="16">
+        <v>443300</v>
+      </c>
+      <c r="C7" s="41">
+        <v>407090.37</v>
+      </c>
+      <c r="D7" s="48">
+        <f t="shared" si="3"/>
+        <v>-36209.630000000005</v>
+      </c>
+      <c r="E7" s="50">
+        <f t="shared" si="0"/>
+        <v>-8.1681998646514792E-2</v>
+      </c>
+      <c r="F7" s="49">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="16">
+        <v>4700400</v>
+      </c>
+      <c r="I7" s="17">
+        <v>4205555.5999999996</v>
+      </c>
+      <c r="J7" s="40">
+        <f t="shared" si="5"/>
+        <v>-494844.40000000037</v>
+      </c>
+      <c r="K7" s="50">
+        <f t="shared" si="1"/>
+        <v>-0.10527708280146378</v>
+      </c>
+      <c r="L7" s="47">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="M7" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="N7" s="16">
+        <v>2321600</v>
+      </c>
+      <c r="O7" s="17">
+        <v>2056835.26</v>
+      </c>
+      <c r="P7" s="38">
+        <f t="shared" si="7"/>
+        <v>-264764.74</v>
+      </c>
+      <c r="Q7" s="50">
+        <f t="shared" si="2"/>
+        <v>-0.11404408166781529</v>
+      </c>
+      <c r="R7" s="47">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A8" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="16">
+        <v>2451000</v>
+      </c>
+      <c r="C8" s="41">
+        <v>2254684.7999999998</v>
+      </c>
+      <c r="D8" s="48">
+        <f t="shared" si="3"/>
+        <v>-196315.20000000019</v>
+      </c>
+      <c r="E8" s="50">
+        <f t="shared" si="0"/>
+        <v>-8.009596083231342E-2</v>
+      </c>
+      <c r="F8" s="49">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="16">
+        <v>11073700</v>
+      </c>
+      <c r="I8" s="17">
+        <v>9929059.5199999996</v>
+      </c>
+      <c r="J8" s="40">
+        <f t="shared" si="5"/>
+        <v>-1144640.4800000004</v>
+      </c>
+      <c r="K8" s="50">
+        <f t="shared" si="1"/>
+        <v>-0.10336567542917005</v>
+      </c>
+      <c r="L8" s="47">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="M8" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" s="16">
+        <v>1525900</v>
+      </c>
+      <c r="O8" s="17">
+        <v>1393285.06</v>
+      </c>
+      <c r="P8" s="38">
+        <f t="shared" si="7"/>
+        <v>-132614.93999999994</v>
+      </c>
+      <c r="Q8" s="50">
+        <f t="shared" si="2"/>
+        <v>-8.6909325643882263E-2</v>
+      </c>
+      <c r="R8" s="47">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A9" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="16">
+        <v>883900</v>
+      </c>
+      <c r="C9" s="41">
+        <v>813108.87</v>
+      </c>
+      <c r="D9" s="48">
+        <f t="shared" si="3"/>
+        <v>-70791.13</v>
+      </c>
+      <c r="E9" s="50">
+        <f t="shared" si="0"/>
+        <v>-8.008952370177623E-2</v>
+      </c>
+      <c r="F9" s="49">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="G9" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="17">
-        <v>3329000</v>
-      </c>
-      <c r="C3" s="42">
-        <v>2946071.21</v>
-      </c>
-      <c r="D3" s="52">
-        <f>B3-C3</f>
-        <v>382928.79000000004</v>
-      </c>
-      <c r="E3" s="54">
-        <f>IFERROR(D3/B3, 0)</f>
-        <v>0.11502817362571344</v>
-      </c>
-      <c r="F3" s="50">
-        <f>_xlfn.RANK.EQ(E3, $E$2:$E$52, 0)</f>
-        <v>2</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" s="17">
-        <v>1545700</v>
-      </c>
-      <c r="I3" s="18">
-        <v>1281335.23</v>
-      </c>
-      <c r="J3" s="41">
-        <f>H3-I3</f>
-        <v>264364.77</v>
-      </c>
-      <c r="K3" s="54">
-        <f>IFERROR(J3/H3, 0)</f>
-        <v>0.17103239309050916</v>
-      </c>
-      <c r="L3" s="50">
-        <f>_xlfn.RANK.EQ(K3, $K$2:$K$52, 0)</f>
-        <v>2</v>
-      </c>
-      <c r="M3" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="17">
-        <v>1579300</v>
-      </c>
-      <c r="O3" s="18">
-        <v>1337735.3199999901</v>
-      </c>
-      <c r="P3" s="39">
-        <f>N3-O3</f>
-        <v>241564.68000000995</v>
-      </c>
-      <c r="Q3" s="54">
-        <f>IFERROR(P3/N3, 0)</f>
-        <v>0.15295680364719175</v>
-      </c>
-      <c r="R3" s="50">
-        <f>_xlfn.RANK.EQ(Q3, $Q$2:$Q$52, 0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A4" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="17">
-        <v>1382900</v>
-      </c>
-      <c r="C4" s="42">
-        <v>1250442.02</v>
-      </c>
-      <c r="D4" s="52">
-        <f>B4-C4</f>
-        <v>132457.97999999998</v>
-      </c>
-      <c r="E4" s="54">
-        <f>IFERROR(D4/B4, 0)</f>
-        <v>9.5782760864849215E-2</v>
-      </c>
-      <c r="F4" s="51">
-        <f>_xlfn.RANK.EQ(E4, $E$2:$E$52, 0)</f>
-        <v>3</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" s="17">
-        <v>1294400</v>
-      </c>
-      <c r="I4" s="18">
-        <v>1114242.27999999</v>
-      </c>
-      <c r="J4" s="41">
-        <f>H4-I4</f>
-        <v>180157.72000000998</v>
-      </c>
-      <c r="K4" s="54">
-        <f>IFERROR(J4/H4, 0)</f>
-        <v>0.13918241656366656</v>
-      </c>
-      <c r="L4" s="51">
-        <f>_xlfn.RANK.EQ(K4, $K$2:$K$52, 0)</f>
-        <v>3</v>
-      </c>
-      <c r="M4" s="29" t="s">
+      <c r="H9" s="16">
+        <v>3390900</v>
+      </c>
+      <c r="I9" s="17">
+        <v>3051483.41</v>
+      </c>
+      <c r="J9" s="40">
+        <f t="shared" si="5"/>
+        <v>-339416.58999999985</v>
+      </c>
+      <c r="K9" s="50">
+        <f t="shared" si="1"/>
+        <v>-0.10009631366303927</v>
+      </c>
+      <c r="L9" s="47">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="M9" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="N9" s="16">
+        <v>2296900</v>
+      </c>
+      <c r="O9" s="17">
+        <v>2108718.34</v>
+      </c>
+      <c r="P9" s="38">
+        <f t="shared" si="7"/>
+        <v>-188181.66000000015</v>
+      </c>
+      <c r="Q9" s="50">
+        <f t="shared" si="2"/>
+        <v>-8.1928538464887526E-2</v>
+      </c>
+      <c r="R9" s="47">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A10" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="16">
+        <v>24332100</v>
+      </c>
+      <c r="C10" s="41">
+        <v>22408587.5499999</v>
+      </c>
+      <c r="D10" s="48">
+        <f t="shared" si="3"/>
+        <v>-1923512.4500000998</v>
+      </c>
+      <c r="E10" s="50">
+        <f t="shared" si="0"/>
+        <v>-7.9052463618023094E-2</v>
+      </c>
+      <c r="F10" s="49">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="16">
+        <v>2440700</v>
+      </c>
+      <c r="I10" s="17">
+        <v>2204672.88</v>
+      </c>
+      <c r="J10" s="40">
+        <f t="shared" si="5"/>
+        <v>-236027.12000000011</v>
+      </c>
+      <c r="K10" s="50">
+        <f t="shared" si="1"/>
+        <v>-9.6704683082722218E-2</v>
+      </c>
+      <c r="L10" s="47">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="M10" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="16">
+        <v>10790500</v>
+      </c>
+      <c r="O10" s="17">
+        <v>9993599.52999999</v>
+      </c>
+      <c r="P10" s="38">
+        <f t="shared" si="7"/>
+        <v>-796900.47000000998</v>
+      </c>
+      <c r="Q10" s="50">
+        <f t="shared" si="2"/>
+        <v>-7.3852043000788653E-2</v>
+      </c>
+      <c r="R10" s="47">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A11" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="16">
+        <v>798200</v>
+      </c>
+      <c r="C11" s="41">
+        <v>735423.27999999898</v>
+      </c>
+      <c r="D11" s="48">
+        <f t="shared" si="3"/>
+        <v>-62776.72000000102</v>
+      </c>
+      <c r="E11" s="50">
+        <f t="shared" si="0"/>
+        <v>-7.8647857679780775E-2</v>
+      </c>
+      <c r="F11" s="49">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="16">
+        <v>382685200</v>
+      </c>
+      <c r="I11" s="17">
+        <v>346340810.81999999</v>
+      </c>
+      <c r="J11" s="40">
+        <f t="shared" si="5"/>
+        <v>-36344389.180000007</v>
+      </c>
+      <c r="K11" s="50">
+        <f t="shared" si="1"/>
+        <v>-9.4972027086493035E-2</v>
+      </c>
+      <c r="L11" s="47">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="M11" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" s="16">
+        <v>4677800</v>
+      </c>
+      <c r="O11" s="17">
+        <v>4371713.1399999997</v>
+      </c>
+      <c r="P11" s="38">
+        <f t="shared" si="7"/>
+        <v>-306086.86000000034</v>
+      </c>
+      <c r="Q11" s="50">
+        <f t="shared" si="2"/>
+        <v>-6.5433934755654441E-2</v>
+      </c>
+      <c r="R11" s="47">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A12" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="16">
+        <v>409300</v>
+      </c>
+      <c r="C12" s="41">
+        <v>385908.52</v>
+      </c>
+      <c r="D12" s="48">
+        <f t="shared" si="3"/>
+        <v>-23391.479999999981</v>
+      </c>
+      <c r="E12" s="50">
+        <f t="shared" si="0"/>
+        <v>-5.7149963352064452E-2</v>
+      </c>
+      <c r="F12" s="49">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="16">
+        <v>24497400</v>
+      </c>
+      <c r="I12" s="17">
+        <v>22655993.629999999</v>
+      </c>
+      <c r="J12" s="40">
+        <f t="shared" si="5"/>
+        <v>-1841406.370000001</v>
+      </c>
+      <c r="K12" s="50">
+        <f t="shared" si="1"/>
+        <v>-7.5167420624229556E-2</v>
+      </c>
+      <c r="L12" s="47">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="M12" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" s="16">
+        <v>15311800</v>
+      </c>
+      <c r="O12" s="17">
+        <v>14346057.039999999</v>
+      </c>
+      <c r="P12" s="38">
+        <f t="shared" si="7"/>
+        <v>-965742.96000000089</v>
+      </c>
+      <c r="Q12" s="50">
+        <f t="shared" si="2"/>
+        <v>-6.3071811282801551E-2</v>
+      </c>
+      <c r="R12" s="47">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A13" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="17">
-        <v>2910600</v>
-      </c>
-      <c r="O4" s="18">
-        <v>2535637.09</v>
-      </c>
-      <c r="P4" s="39">
-        <f>N4-O4</f>
-        <v>374962.91000000015</v>
-      </c>
-      <c r="Q4" s="54">
-        <f>IFERROR(P4/N4, 0)</f>
-        <v>0.12882667147667154</v>
-      </c>
-      <c r="R4" s="51">
-        <f>_xlfn.RANK.EQ(Q4, $Q$2:$Q$52, 0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A5" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="17">
-        <v>7670700</v>
-      </c>
-      <c r="C5" s="42">
-        <v>6947552.6699999999</v>
-      </c>
-      <c r="D5" s="52">
-        <f>B5-C5</f>
-        <v>723147.33000000007</v>
-      </c>
-      <c r="E5" s="54">
-        <f>IFERROR(D5/B5, 0)</f>
-        <v>9.4273968477453174E-2</v>
-      </c>
-      <c r="F5" s="50">
-        <f>_xlfn.RANK.EQ(E5, $E$2:$E$52, 0)</f>
-        <v>4</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="17">
-        <v>1590700</v>
-      </c>
-      <c r="I5" s="18">
-        <v>1383905.98999999</v>
-      </c>
-      <c r="J5" s="41">
-        <f>H5-I5</f>
-        <v>206794.01000001002</v>
-      </c>
-      <c r="K5" s="54">
-        <f>IFERROR(J5/H5, 0)</f>
-        <v>0.13000189224870184</v>
-      </c>
-      <c r="L5" s="50">
-        <f>_xlfn.RANK.EQ(K5, $K$2:$K$52, 0)</f>
-        <v>4</v>
-      </c>
-      <c r="M5" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" s="17">
-        <v>3345200</v>
-      </c>
-      <c r="O5" s="18">
-        <v>2946440.08</v>
-      </c>
-      <c r="P5" s="39">
-        <f>N5-O5</f>
-        <v>398759.91999999993</v>
-      </c>
-      <c r="Q5" s="54">
-        <f>IFERROR(P5/N5, 0)</f>
-        <v>0.11920361114432618</v>
-      </c>
-      <c r="R5" s="50">
-        <f>_xlfn.RANK.EQ(Q5, $Q$2:$Q$52, 0)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A6" s="25" t="s">
+      <c r="B13" s="16">
+        <v>2764700</v>
+      </c>
+      <c r="C13" s="41">
+        <v>2615303.8999999901</v>
+      </c>
+      <c r="D13" s="48">
+        <f t="shared" si="3"/>
+        <v>-149396.10000000987</v>
+      </c>
+      <c r="E13" s="50">
+        <f t="shared" si="0"/>
+        <v>-5.4037002206391245E-2</v>
+      </c>
+      <c r="F13" s="49">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="16">
+        <v>9713300</v>
+      </c>
+      <c r="I13" s="17">
+        <v>8991707.2399999909</v>
+      </c>
+      <c r="J13" s="40">
+        <f t="shared" si="5"/>
+        <v>-721592.76000000909</v>
+      </c>
+      <c r="K13" s="50">
+        <f t="shared" si="1"/>
+        <v>-7.4289145810384635E-2</v>
+      </c>
+      <c r="L13" s="47">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="M13" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="N13" s="16">
+        <v>9343000</v>
+      </c>
+      <c r="O13" s="17">
+        <v>8766655.9100000001</v>
+      </c>
+      <c r="P13" s="38">
+        <f t="shared" si="7"/>
+        <v>-576344.08999999985</v>
+      </c>
+      <c r="Q13" s="50">
+        <f t="shared" si="2"/>
+        <v>-6.1687262121374278E-2</v>
+      </c>
+      <c r="R13" s="47">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A14" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="16">
+        <v>4280900</v>
+      </c>
+      <c r="C14" s="41">
+        <v>4066595.33</v>
+      </c>
+      <c r="D14" s="48">
+        <f t="shared" si="3"/>
+        <v>-214304.66999999993</v>
+      </c>
+      <c r="E14" s="50">
+        <f t="shared" si="0"/>
+        <v>-5.0060657805601608E-2</v>
+      </c>
+      <c r="F14" s="49">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="16">
+        <v>102600</v>
+      </c>
+      <c r="I14" s="17">
+        <v>95466.880000000005</v>
+      </c>
+      <c r="J14" s="40">
+        <f t="shared" si="5"/>
+        <v>-7133.1199999999953</v>
+      </c>
+      <c r="K14" s="50">
+        <f t="shared" si="1"/>
+        <v>-6.9523586744639335E-2</v>
+      </c>
+      <c r="L14" s="47">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="M14" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="17">
-        <v>5249800</v>
-      </c>
-      <c r="C6" s="42">
-        <v>4801960.08</v>
-      </c>
-      <c r="D6" s="52">
-        <f>B6-C6</f>
-        <v>447839.91999999993</v>
-      </c>
-      <c r="E6" s="54">
-        <f>IFERROR(D6/B6, 0)</f>
-        <v>8.5306091660634673E-2</v>
-      </c>
-      <c r="F6" s="51">
-        <f>_xlfn.RANK.EQ(E6, $E$2:$E$52, 0)</f>
-        <v>5</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="17">
-        <v>7968300</v>
-      </c>
-      <c r="I6" s="18">
-        <v>7020609.3200000003</v>
-      </c>
-      <c r="J6" s="41">
-        <f>H6-I6</f>
-        <v>947690.6799999997</v>
-      </c>
-      <c r="K6" s="54">
-        <f>IFERROR(J6/H6, 0)</f>
-        <v>0.118932605449092</v>
-      </c>
-      <c r="L6" s="51">
-        <f>_xlfn.RANK.EQ(K6, $K$2:$K$52, 0)</f>
-        <v>5</v>
-      </c>
-      <c r="M6" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="N6" s="17">
-        <v>878300</v>
-      </c>
-      <c r="O6" s="18">
-        <v>777215.28999999899</v>
-      </c>
-      <c r="P6" s="39">
-        <f>N6-O6</f>
-        <v>101084.71000000101</v>
-      </c>
-      <c r="Q6" s="54">
-        <f>IFERROR(P6/N6, 0)</f>
-        <v>0.11509132414892521</v>
-      </c>
-      <c r="R6" s="51">
-        <f>_xlfn.RANK.EQ(Q6, $Q$2:$Q$52, 0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A7" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="17">
-        <v>443300</v>
-      </c>
-      <c r="C7" s="42">
-        <v>407090.37</v>
-      </c>
-      <c r="D7" s="52">
-        <f>B7-C7</f>
-        <v>36209.630000000005</v>
-      </c>
-      <c r="E7" s="54">
-        <f>IFERROR(D7/B7, 0)</f>
-        <v>8.1681998646514792E-2</v>
-      </c>
-      <c r="F7" s="50">
-        <f>_xlfn.RANK.EQ(E7, $E$2:$E$52, 0)</f>
-        <v>6</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="17">
-        <v>4700400</v>
-      </c>
-      <c r="I7" s="18">
-        <v>4205555.5999999996</v>
-      </c>
-      <c r="J7" s="41">
-        <f>H7-I7</f>
-        <v>494844.40000000037</v>
-      </c>
-      <c r="K7" s="54">
-        <f>IFERROR(J7/H7, 0)</f>
-        <v>0.10527708280146378</v>
-      </c>
-      <c r="L7" s="50">
-        <f>_xlfn.RANK.EQ(K7, $K$2:$K$52, 0)</f>
-        <v>6</v>
-      </c>
-      <c r="M7" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="N7" s="17">
-        <v>2321600</v>
-      </c>
-      <c r="O7" s="18">
-        <v>2056835.26</v>
-      </c>
-      <c r="P7" s="39">
-        <f>N7-O7</f>
-        <v>264764.74</v>
-      </c>
-      <c r="Q7" s="54">
-        <f>IFERROR(P7/N7, 0)</f>
-        <v>0.11404408166781529</v>
-      </c>
-      <c r="R7" s="50">
-        <f>_xlfn.RANK.EQ(Q7, $Q$2:$Q$52, 0)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A8" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="17">
-        <v>2451000</v>
-      </c>
-      <c r="C8" s="42">
-        <v>2254684.7999999998</v>
-      </c>
-      <c r="D8" s="52">
-        <f>B8-C8</f>
-        <v>196315.20000000019</v>
-      </c>
-      <c r="E8" s="54">
-        <f>IFERROR(D8/B8, 0)</f>
-        <v>8.009596083231342E-2</v>
-      </c>
-      <c r="F8" s="51">
-        <f>_xlfn.RANK.EQ(E8, $E$2:$E$52, 0)</f>
-        <v>7</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="17">
-        <v>11073700</v>
-      </c>
-      <c r="I8" s="18">
-        <v>9929059.5199999996</v>
-      </c>
-      <c r="J8" s="41">
-        <f>H8-I8</f>
-        <v>1144640.4800000004</v>
-      </c>
-      <c r="K8" s="54">
-        <f>IFERROR(J8/H8, 0)</f>
-        <v>0.10336567542917005</v>
-      </c>
-      <c r="L8" s="51">
-        <f>_xlfn.RANK.EQ(K8, $K$2:$K$52, 0)</f>
-        <v>7</v>
-      </c>
-      <c r="M8" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="N8" s="17">
-        <v>1525900</v>
-      </c>
-      <c r="O8" s="18">
-        <v>1393285.06</v>
-      </c>
-      <c r="P8" s="39">
-        <f>N8-O8</f>
-        <v>132614.93999999994</v>
-      </c>
-      <c r="Q8" s="54">
-        <f>IFERROR(P8/N8, 0)</f>
-        <v>8.6909325643882263E-2</v>
-      </c>
-      <c r="R8" s="51">
-        <f>_xlfn.RANK.EQ(Q8, $Q$2:$Q$52, 0)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A9" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="17">
-        <v>883900</v>
-      </c>
-      <c r="C9" s="42">
-        <v>813108.87</v>
-      </c>
-      <c r="D9" s="52">
-        <f>B9-C9</f>
-        <v>70791.13</v>
-      </c>
-      <c r="E9" s="54">
-        <f>IFERROR(D9/B9, 0)</f>
-        <v>8.008952370177623E-2</v>
-      </c>
-      <c r="F9" s="50">
-        <f>_xlfn.RANK.EQ(E9, $E$2:$E$52, 0)</f>
-        <v>8</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="17">
-        <v>3390900</v>
-      </c>
-      <c r="I9" s="18">
-        <v>3051483.41</v>
-      </c>
-      <c r="J9" s="41">
-        <f>H9-I9</f>
-        <v>339416.58999999985</v>
-      </c>
-      <c r="K9" s="54">
-        <f>IFERROR(J9/H9, 0)</f>
-        <v>0.10009631366303927</v>
-      </c>
-      <c r="L9" s="50">
-        <f>_xlfn.RANK.EQ(K9, $K$2:$K$52, 0)</f>
-        <v>8</v>
-      </c>
-      <c r="M9" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="N9" s="17">
-        <v>2296900</v>
-      </c>
-      <c r="O9" s="18">
-        <v>2108718.34</v>
-      </c>
-      <c r="P9" s="39">
-        <f>N9-O9</f>
-        <v>188181.66000000015</v>
-      </c>
-      <c r="Q9" s="54">
-        <f>IFERROR(P9/N9, 0)</f>
-        <v>8.1928538464887526E-2</v>
-      </c>
-      <c r="R9" s="50">
-        <f>_xlfn.RANK.EQ(Q9, $Q$2:$Q$52, 0)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A10" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="17">
-        <v>24332100</v>
-      </c>
-      <c r="C10" s="42">
-        <v>22408587.5499999</v>
-      </c>
-      <c r="D10" s="52">
-        <f>B10-C10</f>
-        <v>1923512.4500000998</v>
-      </c>
-      <c r="E10" s="54">
-        <f>IFERROR(D10/B10, 0)</f>
-        <v>7.9052463618023094E-2</v>
-      </c>
-      <c r="F10" s="51">
-        <f>_xlfn.RANK.EQ(E10, $E$2:$E$52, 0)</f>
-        <v>9</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="H10" s="17">
-        <v>2440700</v>
-      </c>
-      <c r="I10" s="18">
-        <v>2204672.88</v>
-      </c>
-      <c r="J10" s="41">
-        <f>H10-I10</f>
-        <v>236027.12000000011</v>
-      </c>
-      <c r="K10" s="54">
-        <f>IFERROR(J10/H10, 0)</f>
-        <v>9.6704683082722218E-2</v>
-      </c>
-      <c r="L10" s="51">
-        <f>_xlfn.RANK.EQ(K10, $K$2:$K$52, 0)</f>
-        <v>9</v>
-      </c>
-      <c r="M10" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="N10" s="17">
-        <v>10790500</v>
-      </c>
-      <c r="O10" s="18">
-        <v>9993599.52999999</v>
-      </c>
-      <c r="P10" s="39">
-        <f>N10-O10</f>
-        <v>796900.47000000998</v>
-      </c>
-      <c r="Q10" s="54">
-        <f>IFERROR(P10/N10, 0)</f>
-        <v>7.3852043000788653E-2</v>
-      </c>
-      <c r="R10" s="51">
-        <f>_xlfn.RANK.EQ(Q10, $Q$2:$Q$52, 0)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A11" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="17">
-        <v>798200</v>
-      </c>
-      <c r="C11" s="42">
-        <v>735423.27999999898</v>
-      </c>
-      <c r="D11" s="52">
-        <f>B11-C11</f>
-        <v>62776.72000000102</v>
-      </c>
-      <c r="E11" s="54">
-        <f>IFERROR(D11/B11, 0)</f>
-        <v>7.8647857679780775E-2</v>
-      </c>
-      <c r="F11" s="50">
-        <f>_xlfn.RANK.EQ(E11, $E$2:$E$52, 0)</f>
-        <v>10</v>
-      </c>
-      <c r="G11" s="25" t="s">
+      <c r="N14" s="16">
+        <v>5430700</v>
+      </c>
+      <c r="O14" s="17">
+        <v>5117235.21</v>
+      </c>
+      <c r="P14" s="38">
+        <f t="shared" si="7"/>
+        <v>-313464.79000000004</v>
+      </c>
+      <c r="Q14" s="50">
+        <f t="shared" si="2"/>
+        <v>-5.7720881286022069E-2</v>
+      </c>
+      <c r="R14" s="47">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A15" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="17">
-        <v>382685200</v>
-      </c>
-      <c r="I11" s="18">
-        <v>346340810.81999999</v>
-      </c>
-      <c r="J11" s="41">
-        <f>H11-I11</f>
-        <v>36344389.180000007</v>
-      </c>
-      <c r="K11" s="54">
-        <f>IFERROR(J11/H11, 0)</f>
-        <v>9.4972027086493035E-2</v>
-      </c>
-      <c r="L11" s="50">
-        <f>_xlfn.RANK.EQ(K11, $K$2:$K$52, 0)</f>
-        <v>10</v>
-      </c>
-      <c r="M11" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="N11" s="17">
-        <v>4677800</v>
-      </c>
-      <c r="O11" s="18">
-        <v>4371713.1399999997</v>
-      </c>
-      <c r="P11" s="39">
-        <f>N11-O11</f>
-        <v>306086.86000000034</v>
-      </c>
-      <c r="Q11" s="54">
-        <f>IFERROR(P11/N11, 0)</f>
-        <v>6.5433934755654441E-2</v>
-      </c>
-      <c r="R11" s="50">
-        <f>_xlfn.RANK.EQ(Q11, $Q$2:$Q$52, 0)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A12" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="17">
-        <v>409300</v>
-      </c>
-      <c r="C12" s="42">
-        <v>385908.52</v>
-      </c>
-      <c r="D12" s="52">
-        <f>B12-C12</f>
-        <v>23391.479999999981</v>
-      </c>
-      <c r="E12" s="54">
-        <f>IFERROR(D12/B12, 0)</f>
-        <v>5.7149963352064452E-2</v>
-      </c>
-      <c r="F12" s="51">
-        <f>_xlfn.RANK.EQ(E12, $E$2:$E$52, 0)</f>
-        <v>11</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="17">
-        <v>24497400</v>
-      </c>
-      <c r="I12" s="18">
-        <v>22655993.629999999</v>
-      </c>
-      <c r="J12" s="41">
-        <f>H12-I12</f>
-        <v>1841406.370000001</v>
-      </c>
-      <c r="K12" s="54">
-        <f>IFERROR(J12/H12, 0)</f>
-        <v>7.5167420624229556E-2</v>
-      </c>
-      <c r="L12" s="51">
-        <f>_xlfn.RANK.EQ(K12, $K$2:$K$52, 0)</f>
-        <v>11</v>
-      </c>
-      <c r="M12" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="N12" s="17">
-        <v>15311800</v>
-      </c>
-      <c r="O12" s="18">
-        <v>14346057.039999999</v>
-      </c>
-      <c r="P12" s="39">
-        <f>N12-O12</f>
-        <v>965742.96000000089</v>
-      </c>
-      <c r="Q12" s="54">
-        <f>IFERROR(P12/N12, 0)</f>
-        <v>6.3071811282801551E-2</v>
-      </c>
-      <c r="R12" s="51">
-        <f>_xlfn.RANK.EQ(Q12, $Q$2:$Q$52, 0)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A13" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="17">
-        <v>2764700</v>
-      </c>
-      <c r="C13" s="42">
-        <v>2615303.8999999901</v>
-      </c>
-      <c r="D13" s="52">
-        <f>B13-C13</f>
-        <v>149396.10000000987</v>
-      </c>
-      <c r="E13" s="54">
-        <f>IFERROR(D13/B13, 0)</f>
-        <v>5.4037002206391245E-2</v>
-      </c>
-      <c r="F13" s="50">
-        <f>_xlfn.RANK.EQ(E13, $E$2:$E$52, 0)</f>
-        <v>12</v>
-      </c>
-      <c r="G13" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="17">
-        <v>9713300</v>
-      </c>
-      <c r="I13" s="18">
-        <v>8991707.2399999909</v>
-      </c>
-      <c r="J13" s="41">
-        <f>H13-I13</f>
-        <v>721592.76000000909</v>
-      </c>
-      <c r="K13" s="54">
-        <f>IFERROR(J13/H13, 0)</f>
-        <v>7.4289145810384635E-2</v>
-      </c>
-      <c r="L13" s="50">
-        <f>_xlfn.RANK.EQ(K13, $K$2:$K$52, 0)</f>
-        <v>12</v>
-      </c>
-      <c r="M13" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="N13" s="17">
-        <v>9343000</v>
-      </c>
-      <c r="O13" s="18">
-        <v>8766655.9100000001</v>
-      </c>
-      <c r="P13" s="39">
-        <f>N13-O13</f>
-        <v>576344.08999999985</v>
-      </c>
-      <c r="Q13" s="54">
-        <f>IFERROR(P13/N13, 0)</f>
-        <v>6.1687262121374278E-2</v>
-      </c>
-      <c r="R13" s="50">
-        <f>_xlfn.RANK.EQ(Q13, $Q$2:$Q$52, 0)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A14" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="17">
-        <v>4280900</v>
-      </c>
-      <c r="C14" s="42">
-        <v>4066595.33</v>
-      </c>
-      <c r="D14" s="52">
-        <f>B14-C14</f>
-        <v>214304.66999999993</v>
-      </c>
-      <c r="E14" s="54">
-        <f>IFERROR(D14/B14, 0)</f>
-        <v>5.0060657805601608E-2</v>
-      </c>
-      <c r="F14" s="51">
-        <f>_xlfn.RANK.EQ(E14, $E$2:$E$52, 0)</f>
-        <v>13</v>
-      </c>
-      <c r="G14" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="H14" s="17">
-        <v>102600</v>
-      </c>
-      <c r="I14" s="18">
-        <v>95466.880000000005</v>
-      </c>
-      <c r="J14" s="41">
-        <f>H14-I14</f>
-        <v>7133.1199999999953</v>
-      </c>
-      <c r="K14" s="54">
-        <f>IFERROR(J14/H14, 0)</f>
-        <v>6.9523586744639335E-2</v>
-      </c>
-      <c r="L14" s="51">
-        <f>_xlfn.RANK.EQ(K14, $K$2:$K$52, 0)</f>
-        <v>13</v>
-      </c>
-      <c r="M14" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="N14" s="17">
-        <v>5430700</v>
-      </c>
-      <c r="O14" s="18">
-        <v>5117235.21</v>
-      </c>
-      <c r="P14" s="39">
-        <f>N14-O14</f>
-        <v>313464.79000000004</v>
-      </c>
-      <c r="Q14" s="54">
-        <f>IFERROR(P14/N14, 0)</f>
-        <v>5.7720881286022069E-2</v>
-      </c>
-      <c r="R14" s="51">
-        <f>_xlfn.RANK.EQ(Q14, $Q$2:$Q$52, 0)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A15" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="17">
+      <c r="B15" s="16">
         <v>356640100</v>
       </c>
-      <c r="C15" s="42">
+      <c r="C15" s="41">
         <v>341243679.13</v>
       </c>
-      <c r="D15" s="52">
-        <f>B15-C15</f>
-        <v>15396420.870000005</v>
-      </c>
-      <c r="E15" s="54">
-        <f>IFERROR(D15/B15, 0)</f>
-        <v>4.3170750765267295E-2</v>
-      </c>
-      <c r="F15" s="50">
-        <f>_xlfn.RANK.EQ(E15, $E$2:$E$52, 0)</f>
+      <c r="D15" s="48">
+        <f t="shared" si="3"/>
+        <v>-15396420.870000005</v>
+      </c>
+      <c r="E15" s="50">
+        <f t="shared" si="0"/>
+        <v>-4.3170750765267295E-2</v>
+      </c>
+      <c r="F15" s="49">
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="G15" s="25" t="s">
+      <c r="G15" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="16">
         <v>334800</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="17">
         <v>312433.70999999897</v>
       </c>
-      <c r="J15" s="41">
-        <f>H15-I15</f>
-        <v>22366.290000001027</v>
-      </c>
-      <c r="K15" s="54">
-        <f>IFERROR(J15/H15, 0)</f>
-        <v>6.6804928315415249E-2</v>
-      </c>
-      <c r="L15" s="50">
-        <f>_xlfn.RANK.EQ(K15, $K$2:$K$52, 0)</f>
+      <c r="J15" s="40">
+        <f t="shared" si="5"/>
+        <v>-22366.290000001027</v>
+      </c>
+      <c r="K15" s="50">
+        <f t="shared" si="1"/>
+        <v>-6.6804928315415249E-2</v>
+      </c>
+      <c r="L15" s="47">
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="M15" t="s">
         <v>16</v>
       </c>
-      <c r="N15" s="17">
+      <c r="N15" s="16">
         <v>376548600</v>
       </c>
-      <c r="O15" s="18">
+      <c r="O15" s="17">
         <v>355279492.22999901</v>
       </c>
-      <c r="P15" s="39">
-        <f>N15-O15</f>
-        <v>21269107.770000994</v>
-      </c>
-      <c r="Q15" s="54">
-        <f>IFERROR(P15/N15, 0)</f>
-        <v>5.6484362894991494E-2</v>
-      </c>
-      <c r="R15">
-        <f>_xlfn.RANK.EQ(Q15, $Q$2:$Q$52, 0)</f>
+      <c r="P15" s="38">
+        <f t="shared" si="7"/>
+        <v>-21269107.770000994</v>
+      </c>
+      <c r="Q15" s="50">
+        <f t="shared" si="2"/>
+        <v>-5.6484362894991494E-2</v>
+      </c>
+      <c r="R15" s="47">
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="16">
         <v>8837300</v>
       </c>
-      <c r="C16" s="42">
+      <c r="C16" s="41">
         <v>8460963.1999999899</v>
       </c>
-      <c r="D16" s="52">
-        <f>B16-C16</f>
-        <v>376336.80000001006</v>
-      </c>
-      <c r="E16" s="54">
-        <f>IFERROR(D16/B16, 0)</f>
-        <v>4.258504294298146E-2</v>
-      </c>
-      <c r="F16" s="51">
-        <f>_xlfn.RANK.EQ(E16, $E$2:$E$52, 0)</f>
+      <c r="D16" s="48">
+        <f t="shared" si="3"/>
+        <v>-376336.80000001006</v>
+      </c>
+      <c r="E16" s="50">
+        <f t="shared" si="0"/>
+        <v>-4.258504294298146E-2</v>
+      </c>
+      <c r="F16" s="49">
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="G16" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="16">
         <v>2861000</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="17">
         <v>2671745.94</v>
       </c>
-      <c r="J16" s="41">
-        <f>H16-I16</f>
-        <v>189254.06000000006</v>
-      </c>
-      <c r="K16" s="54">
-        <f>IFERROR(J16/H16, 0)</f>
-        <v>6.6149619014330668E-2</v>
-      </c>
-      <c r="L16" s="51">
-        <f>_xlfn.RANK.EQ(K16, $K$2:$K$52, 0)</f>
+      <c r="J16" s="40">
+        <f t="shared" si="5"/>
+        <v>-189254.06000000006</v>
+      </c>
+      <c r="K16" s="50">
+        <f t="shared" si="1"/>
+        <v>-6.6149619014330668E-2</v>
+      </c>
+      <c r="L16" s="47">
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="M16" s="29" t="s">
+      <c r="M16" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="N16" s="17">
+      <c r="N16" s="16">
         <v>7289800</v>
       </c>
-      <c r="O16" s="18">
+      <c r="O16" s="17">
         <v>6882350.23999999</v>
       </c>
-      <c r="P16" s="39">
-        <f>N16-O16</f>
-        <v>407449.76000001002</v>
-      </c>
-      <c r="Q16" s="54">
-        <f>IFERROR(P16/N16, 0)</f>
-        <v>5.5893132870587676E-2</v>
-      </c>
-      <c r="R16" s="51">
-        <f>_xlfn.RANK.EQ(Q16, $Q$2:$Q$52, 0)</f>
+      <c r="P16" s="38">
+        <f t="shared" si="7"/>
+        <v>-407449.76000001002</v>
+      </c>
+      <c r="Q16" s="50">
+        <f t="shared" si="2"/>
+        <v>-5.5893132870587676E-2</v>
+      </c>
+      <c r="R16" s="47">
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="16">
         <v>9349400</v>
       </c>
-      <c r="C17" s="42">
+      <c r="C17" s="41">
         <v>8952825.2799999993</v>
       </c>
-      <c r="D17" s="52">
-        <f>B17-C17</f>
-        <v>396574.72000000067</v>
-      </c>
-      <c r="E17" s="54">
-        <f>IFERROR(D17/B17, 0)</f>
-        <v>4.2417130511048909E-2</v>
-      </c>
-      <c r="F17" s="50">
-        <f>_xlfn.RANK.EQ(E17, $E$2:$E$52, 0)</f>
+      <c r="D17" s="48">
+        <f t="shared" si="3"/>
+        <v>-396574.72000000067</v>
+      </c>
+      <c r="E17" s="50">
+        <f t="shared" si="0"/>
+        <v>-4.2417130511048909E-2</v>
+      </c>
+      <c r="F17" s="49">
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="G17" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="16">
         <v>5442200</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="17">
         <v>5122329.02999999</v>
       </c>
-      <c r="J17" s="41">
-        <f>H17-I17</f>
-        <v>319870.97000000998</v>
-      </c>
-      <c r="K17" s="54">
-        <f>IFERROR(J17/H17, 0)</f>
-        <v>5.8776040939327839E-2</v>
-      </c>
-      <c r="L17" s="50">
-        <f>_xlfn.RANK.EQ(K17, $K$2:$K$52, 0)</f>
+      <c r="J17" s="40">
+        <f t="shared" si="5"/>
+        <v>-319870.97000000998</v>
+      </c>
+      <c r="K17" s="50">
+        <f t="shared" si="1"/>
+        <v>-5.8776040939327839E-2</v>
+      </c>
+      <c r="L17" s="47">
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
-      <c r="M17" s="30" t="s">
+      <c r="M17" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="N17" s="17">
+      <c r="N17" s="16">
         <v>267100</v>
       </c>
-      <c r="O17" s="18">
+      <c r="O17" s="17">
         <v>254753.15999999901</v>
       </c>
-      <c r="P17" s="39">
-        <f>N17-O17</f>
-        <v>12346.840000000986</v>
-      </c>
-      <c r="Q17" s="54">
-        <f>IFERROR(P17/N17, 0)</f>
-        <v>4.6225533508053113E-2</v>
-      </c>
-      <c r="R17" s="50">
-        <f>_xlfn.RANK.EQ(Q17, $Q$2:$Q$52, 0)</f>
+      <c r="P17" s="38">
+        <f t="shared" si="7"/>
+        <v>-12346.840000000986</v>
+      </c>
+      <c r="Q17" s="50">
+        <f t="shared" si="2"/>
+        <v>-4.6225533508053113E-2</v>
+      </c>
+      <c r="R17" s="47">
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="16">
         <v>4593300</v>
       </c>
-      <c r="C18" s="42">
+      <c r="C18" s="41">
         <v>4409060.2099999897</v>
       </c>
-      <c r="D18" s="52">
-        <f>B18-C18</f>
-        <v>184239.79000001028</v>
-      </c>
-      <c r="E18" s="54">
-        <f>IFERROR(D18/B18, 0)</f>
-        <v>4.0110550149132493E-2</v>
-      </c>
-      <c r="F18" s="51">
-        <f>_xlfn.RANK.EQ(E18, $E$2:$E$52, 0)</f>
+      <c r="D18" s="48">
+        <f t="shared" si="3"/>
+        <v>-184239.79000001028</v>
+      </c>
+      <c r="E18" s="50">
+        <f t="shared" si="0"/>
+        <v>-4.0110550149132493E-2</v>
+      </c>
+      <c r="F18" s="49">
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="G18" s="27" t="s">
+      <c r="G18" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="16">
         <v>495200</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18" s="17">
         <v>467907.84000000003</v>
       </c>
-      <c r="J18" s="41">
-        <f>H18-I18</f>
-        <v>27292.159999999974</v>
-      </c>
-      <c r="K18" s="54">
-        <f>IFERROR(J18/H18, 0)</f>
-        <v>5.5113408723747932E-2</v>
-      </c>
-      <c r="L18" s="51">
-        <f>_xlfn.RANK.EQ(K18, $K$2:$K$52, 0)</f>
+      <c r="J18" s="40">
+        <f t="shared" si="5"/>
+        <v>-27292.159999999974</v>
+      </c>
+      <c r="K18" s="50">
+        <f t="shared" si="1"/>
+        <v>-5.5113408723747932E-2</v>
+      </c>
+      <c r="L18" s="47">
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
-      <c r="M18" s="29" t="s">
+      <c r="M18" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="N18" s="17">
+      <c r="N18" s="16">
         <v>1759500</v>
       </c>
-      <c r="O18" s="18">
+      <c r="O18" s="17">
         <v>1680463.8699999901</v>
       </c>
-      <c r="P18" s="39">
-        <f>N18-O18</f>
-        <v>79036.1300000099</v>
-      </c>
-      <c r="Q18" s="54">
-        <f>IFERROR(P18/N18, 0)</f>
-        <v>4.4919653310605226E-2</v>
-      </c>
-      <c r="R18" s="48">
-        <f>_xlfn.RANK.EQ(Q18, $Q$2:$Q$52, 0)</f>
+      <c r="P18" s="38">
+        <f t="shared" si="7"/>
+        <v>-79036.1300000099</v>
+      </c>
+      <c r="Q18" s="50">
+        <f t="shared" si="2"/>
+        <v>-4.4919653310605226E-2</v>
+      </c>
+      <c r="R18" s="47">
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="16">
         <v>20862700</v>
       </c>
-      <c r="C19" s="42">
+      <c r="C19" s="41">
         <v>20036743.4099999</v>
       </c>
-      <c r="D19" s="52">
-        <f>B19-C19</f>
-        <v>825956.59000010043</v>
-      </c>
-      <c r="E19" s="54">
-        <f>IFERROR(D19/B19, 0)</f>
-        <v>3.9590110100806722E-2</v>
-      </c>
-      <c r="F19" s="50">
-        <f>_xlfn.RANK.EQ(E19, $E$2:$E$52, 0)</f>
+      <c r="D19" s="48">
+        <f t="shared" si="3"/>
+        <v>-825956.59000010043</v>
+      </c>
+      <c r="E19" s="50">
+        <f t="shared" si="0"/>
+        <v>-3.9590110100806722E-2</v>
+      </c>
+      <c r="F19" s="49">
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="G19" s="25" t="s">
+      <c r="G19" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="16">
         <v>6223700</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I19" s="17">
         <v>5909077.9399999902</v>
       </c>
-      <c r="J19" s="41">
-        <f>H19-I19</f>
-        <v>314622.06000000983</v>
-      </c>
-      <c r="K19" s="54">
-        <f>IFERROR(J19/H19, 0)</f>
-        <v>5.0552253482656594E-2</v>
-      </c>
-      <c r="L19" s="50">
-        <f>_xlfn.RANK.EQ(K19, $K$2:$K$52, 0)</f>
+      <c r="J19" s="40">
+        <f t="shared" si="5"/>
+        <v>-314622.06000000983</v>
+      </c>
+      <c r="K19" s="50">
+        <f t="shared" si="1"/>
+        <v>-5.0552253482656594E-2</v>
+      </c>
+      <c r="L19" s="47">
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
-      <c r="M19" s="30" t="s">
+      <c r="M19" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="N19" s="17">
+      <c r="N19" s="16">
         <v>8497500</v>
       </c>
-      <c r="O19" s="18">
+      <c r="O19" s="17">
         <v>8150982.5699999901</v>
       </c>
-      <c r="P19" s="39">
-        <f>N19-O19</f>
-        <v>346517.43000000995</v>
-      </c>
-      <c r="Q19" s="54">
-        <f>IFERROR(P19/N19, 0)</f>
-        <v>4.0778750220654303E-2</v>
-      </c>
-      <c r="R19" s="50">
-        <f>_xlfn.RANK.EQ(Q19, $Q$2:$Q$52, 0)</f>
+      <c r="P19" s="38">
+        <f t="shared" si="7"/>
+        <v>-346517.43000000995</v>
+      </c>
+      <c r="Q19" s="50">
+        <f t="shared" si="2"/>
+        <v>-4.0778750220654303E-2</v>
+      </c>
+      <c r="R19" s="47">
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B20" s="16">
         <v>2087800</v>
       </c>
-      <c r="C20" s="42">
+      <c r="C20" s="41">
         <v>2005447.73999999</v>
       </c>
-      <c r="D20" s="52">
-        <f>B20-C20</f>
-        <v>82352.260000010021</v>
-      </c>
-      <c r="E20" s="54">
-        <f>IFERROR(D20/B20, 0)</f>
-        <v>3.9444515758219188E-2</v>
-      </c>
-      <c r="F20" s="51">
-        <f>_xlfn.RANK.EQ(E20, $E$2:$E$52, 0)</f>
+      <c r="D20" s="48">
+        <f t="shared" si="3"/>
+        <v>-82352.260000010021</v>
+      </c>
+      <c r="E20" s="50">
+        <f t="shared" si="0"/>
+        <v>-3.9444515758219188E-2</v>
+      </c>
+      <c r="F20" s="49">
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="G20" s="27" t="s">
+      <c r="G20" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20" s="16">
         <v>792800</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I20" s="17">
         <v>753451.96</v>
       </c>
-      <c r="J20" s="41">
-        <f>H20-I20</f>
-        <v>39348.040000000037</v>
-      </c>
-      <c r="K20" s="54">
-        <f>IFERROR(J20/H20, 0)</f>
-        <v>4.9631735620585316E-2</v>
-      </c>
-      <c r="L20" s="51">
-        <f>_xlfn.RANK.EQ(K20, $K$2:$K$52, 0)</f>
+      <c r="J20" s="40">
+        <f t="shared" si="5"/>
+        <v>-39348.040000000037</v>
+      </c>
+      <c r="K20" s="50">
+        <f t="shared" si="1"/>
+        <v>-4.9631735620585316E-2</v>
+      </c>
+      <c r="L20" s="47">
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
-      <c r="M20" s="22" t="s">
+      <c r="M20" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="N20" s="17">
+      <c r="N20" s="16">
         <v>526200</v>
       </c>
-      <c r="O20" s="18">
+      <c r="O20" s="17">
         <v>504989.88</v>
       </c>
-      <c r="P20" s="39">
-        <f>N20-O20</f>
-        <v>21210.119999999995</v>
-      </c>
-      <c r="Q20" s="54">
-        <f>IFERROR(P20/N20, 0)</f>
-        <v>4.0308095781071827E-2</v>
-      </c>
-      <c r="R20" s="51">
-        <f>_xlfn.RANK.EQ(Q20, $Q$2:$Q$52, 0)</f>
+      <c r="P20" s="38">
+        <f t="shared" si="7"/>
+        <v>-21210.119999999995</v>
+      </c>
+      <c r="Q20" s="50">
+        <f t="shared" si="2"/>
+        <v>-4.0308095781071827E-2</v>
+      </c>
+      <c r="R20" s="47">
+        <f t="shared" si="8"/>
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="16">
         <v>6737100</v>
       </c>
-      <c r="C21" s="42">
+      <c r="C21" s="41">
         <v>6527352.5699999901</v>
       </c>
-      <c r="D21" s="52">
-        <f>B21-C21</f>
-        <v>209747.43000000995</v>
-      </c>
-      <c r="E21" s="54">
-        <f>IFERROR(D21/B21, 0)</f>
-        <v>3.1133192323107857E-2</v>
-      </c>
-      <c r="F21" s="50">
-        <f>_xlfn.RANK.EQ(E21, $E$2:$E$52, 0)</f>
+      <c r="D21" s="48">
+        <f t="shared" si="3"/>
+        <v>-209747.43000000995</v>
+      </c>
+      <c r="E21" s="50">
+        <f t="shared" si="0"/>
+        <v>-3.1133192323107857E-2</v>
+      </c>
+      <c r="F21" s="49">
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="G21" s="25" t="s">
+      <c r="G21" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="H21" s="17">
+      <c r="H21" s="16">
         <v>2229200</v>
       </c>
-      <c r="I21" s="18">
+      <c r="I21" s="17">
         <v>2118943.21</v>
       </c>
-      <c r="J21" s="41">
-        <f>H21-I21</f>
-        <v>110256.79000000004</v>
-      </c>
-      <c r="K21" s="54">
-        <f>IFERROR(J21/H21, 0)</f>
-        <v>4.9460250314014013E-2</v>
-      </c>
-      <c r="L21" s="50">
-        <f>_xlfn.RANK.EQ(K21, $K$2:$K$52, 0)</f>
+      <c r="J21" s="40">
+        <f t="shared" si="5"/>
+        <v>-110256.79000000004</v>
+      </c>
+      <c r="K21" s="50">
+        <f t="shared" si="1"/>
+        <v>-4.9460250314014013E-2</v>
+      </c>
+      <c r="L21" s="47">
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="M21" s="30" t="s">
+      <c r="M21" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="N21" s="17">
+      <c r="N21" s="16">
         <v>1870700</v>
       </c>
-      <c r="O21" s="18">
+      <c r="O21" s="17">
         <v>1801391.34</v>
       </c>
-      <c r="P21" s="39">
-        <f>N21-O21</f>
-        <v>69308.659999999916</v>
-      </c>
-      <c r="Q21" s="54">
-        <f>IFERROR(P21/N21, 0)</f>
-        <v>3.7049585716576634E-2</v>
-      </c>
-      <c r="R21" s="50">
-        <f>_xlfn.RANK.EQ(Q21, $Q$2:$Q$52, 0)</f>
+      <c r="P21" s="38">
+        <f t="shared" si="7"/>
+        <v>-69308.659999999916</v>
+      </c>
+      <c r="Q21" s="50">
+        <f t="shared" si="2"/>
+        <v>-3.7049585716576634E-2</v>
+      </c>
+      <c r="R21" s="47">
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="16">
         <v>14860800</v>
       </c>
-      <c r="C22" s="42">
+      <c r="C22" s="41">
         <v>14439480.050000001</v>
       </c>
-      <c r="D22" s="52">
-        <f>B22-C22</f>
-        <v>421319.94999999925</v>
-      </c>
-      <c r="E22" s="54">
-        <f>IFERROR(D22/B22, 0)</f>
-        <v>2.8351094826658003E-2</v>
+      <c r="D22" s="48">
+        <f t="shared" si="3"/>
+        <v>-421319.94999999925</v>
+      </c>
+      <c r="E22" s="50">
+        <f t="shared" si="0"/>
+        <v>-2.8351094826658003E-2</v>
       </c>
       <c r="F22" s="49">
-        <f>_xlfn.RANK.EQ(E22, $E$2:$E$52, 0)</f>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="G22" s="27" t="s">
+      <c r="G22" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="H22" s="17">
+      <c r="H22" s="16">
         <v>4350600</v>
       </c>
-      <c r="I22" s="18">
+      <c r="I22" s="17">
         <v>4137588.7699999898</v>
       </c>
-      <c r="J22" s="41">
-        <f>H22-I22</f>
-        <v>213011.23000001023</v>
-      </c>
-      <c r="K22" s="54">
-        <f>IFERROR(J22/H22, 0)</f>
-        <v>4.8961345561534093E-2</v>
-      </c>
-      <c r="L22" s="51">
-        <f>_xlfn.RANK.EQ(K22, $K$2:$K$52, 0)</f>
+      <c r="J22" s="40">
+        <f t="shared" si="5"/>
+        <v>-213011.23000001023</v>
+      </c>
+      <c r="K22" s="50">
+        <f t="shared" si="1"/>
+        <v>-4.8961345561534093E-2</v>
+      </c>
+      <c r="L22" s="47">
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
-      <c r="M22" s="22" t="s">
+      <c r="M22" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="N22" s="17">
+      <c r="N22" s="16">
         <v>24323000</v>
       </c>
-      <c r="O22" s="18">
+      <c r="O22" s="17">
         <v>23434073.089999899</v>
       </c>
-      <c r="P22" s="39">
-        <f>N22-O22</f>
-        <v>888926.91000010073</v>
-      </c>
-      <c r="Q22" s="54">
-        <f>IFERROR(P22/N22, 0)</f>
-        <v>3.6546762734864152E-2</v>
-      </c>
-      <c r="R22" s="51">
-        <f>_xlfn.RANK.EQ(Q22, $Q$2:$Q$52, 0)</f>
+      <c r="P22" s="38">
+        <f t="shared" si="7"/>
+        <v>-888926.91000010073</v>
+      </c>
+      <c r="Q22" s="50">
+        <f t="shared" si="2"/>
+        <v>-3.6546762734864152E-2</v>
+      </c>
+      <c r="R22" s="47">
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B23" s="16">
         <v>328800</v>
       </c>
-      <c r="C23" s="42">
+      <c r="C23" s="41">
         <v>321214.59000000003</v>
       </c>
-      <c r="D23" s="52">
-        <f>B23-C23</f>
-        <v>7585.4099999999744</v>
-      </c>
-      <c r="E23" s="54">
-        <f>IFERROR(D23/B23, 0)</f>
-        <v>2.3069981751824741E-2</v>
-      </c>
-      <c r="F23" s="50">
-        <f>_xlfn.RANK.EQ(E23, $E$2:$E$52, 0)</f>
+      <c r="D23" s="48">
+        <f t="shared" si="3"/>
+        <v>-7585.4099999999744</v>
+      </c>
+      <c r="E23" s="50">
+        <f t="shared" si="0"/>
+        <v>-2.3069981751824741E-2</v>
+      </c>
+      <c r="F23" s="49">
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="G23" s="25" t="s">
+      <c r="G23" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="H23" s="17">
+      <c r="H23" s="16">
         <v>39964900</v>
       </c>
-      <c r="I23" s="18">
+      <c r="I23" s="17">
         <v>38095240.189999901</v>
       </c>
-      <c r="J23" s="41">
-        <f>H23-I23</f>
-        <v>1869659.8100000992</v>
-      </c>
-      <c r="K23" s="54">
-        <f>IFERROR(J23/H23, 0)</f>
-        <v>4.6782546934937892E-2</v>
-      </c>
-      <c r="L23" s="50">
-        <f>_xlfn.RANK.EQ(K23, $K$2:$K$52, 0)</f>
+      <c r="J23" s="40">
+        <f t="shared" si="5"/>
+        <v>-1869659.8100000992</v>
+      </c>
+      <c r="K23" s="50">
+        <f t="shared" si="1"/>
+        <v>-4.6782546934937892E-2</v>
+      </c>
+      <c r="L23" s="47">
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
-      <c r="M23" s="30" t="s">
+      <c r="M23" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="N23" s="17">
+      <c r="N23" s="16">
         <v>7759600</v>
       </c>
-      <c r="O23" s="18">
+      <c r="O23" s="17">
         <v>7497322.9100000001</v>
       </c>
-      <c r="P23" s="39">
-        <f>N23-O23</f>
-        <v>262277.08999999985</v>
-      </c>
-      <c r="Q23" s="54">
-        <f>IFERROR(P23/N23, 0)</f>
-        <v>3.3800336357544182E-2</v>
-      </c>
-      <c r="R23" s="50">
-        <f>_xlfn.RANK.EQ(Q23, $Q$2:$Q$52, 0)</f>
+      <c r="P23" s="38">
+        <f t="shared" si="7"/>
+        <v>-262277.08999999985</v>
+      </c>
+      <c r="Q23" s="50">
+        <f t="shared" si="2"/>
+        <v>-3.3800336357544182E-2</v>
+      </c>
+      <c r="R23" s="47">
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="16">
         <v>38381900</v>
       </c>
-      <c r="C24" s="42">
+      <c r="C24" s="41">
         <v>37565141.859999903</v>
       </c>
-      <c r="D24" s="52">
-        <f>B24-C24</f>
-        <v>816758.14000009745</v>
-      </c>
-      <c r="E24" s="54">
-        <f>IFERROR(D24/B24, 0)</f>
-        <v>2.1279773539092578E-2</v>
-      </c>
-      <c r="F24" s="51">
-        <f>_xlfn.RANK.EQ(E24, $E$2:$E$52, 0)</f>
+      <c r="D24" s="48">
+        <f t="shared" si="3"/>
+        <v>-816758.14000009745</v>
+      </c>
+      <c r="E24" s="50">
+        <f t="shared" si="0"/>
+        <v>-2.1279773539092578E-2</v>
+      </c>
+      <c r="F24" s="49">
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="G24" s="27" t="s">
+      <c r="G24" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="H24" s="17">
+      <c r="H24" s="16">
         <v>8560800</v>
       </c>
-      <c r="I24" s="18">
+      <c r="I24" s="17">
         <v>8171472.0199999996</v>
       </c>
-      <c r="J24" s="41">
-        <f>H24-I24</f>
-        <v>389327.98000000045</v>
-      </c>
-      <c r="K24" s="54">
-        <f>IFERROR(J24/H24, 0)</f>
-        <v>4.5477990374731388E-2</v>
-      </c>
-      <c r="L24" s="51">
-        <f>_xlfn.RANK.EQ(K24, $K$2:$K$52, 0)</f>
+      <c r="J24" s="40">
+        <f t="shared" si="5"/>
+        <v>-389327.98000000045</v>
+      </c>
+      <c r="K24" s="50">
+        <f t="shared" si="1"/>
+        <v>-4.5477990374731388E-2</v>
+      </c>
+      <c r="L24" s="47">
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
-      <c r="M24" s="29" t="s">
+      <c r="M24" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="N24" s="17">
+      <c r="N24" s="16">
         <v>6157400</v>
       </c>
-      <c r="O24" s="18">
+      <c r="O24" s="17">
         <v>5987572.0199999996</v>
       </c>
-      <c r="P24" s="39">
-        <f>N24-O24</f>
-        <v>169827.98000000045</v>
-      </c>
-      <c r="Q24" s="54">
-        <f>IFERROR(P24/N24, 0)</f>
-        <v>2.7581118653977402E-2</v>
-      </c>
-      <c r="R24" s="51">
-        <f>_xlfn.RANK.EQ(Q24, $Q$2:$Q$52, 0)</f>
+      <c r="P24" s="38">
+        <f t="shared" si="7"/>
+        <v>-169827.98000000045</v>
+      </c>
+      <c r="Q24" s="50">
+        <f t="shared" si="2"/>
+        <v>-2.7581118653977402E-2</v>
+      </c>
+      <c r="R24" s="47">
+        <f t="shared" si="8"/>
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B25" s="16">
         <v>8135400</v>
       </c>
-      <c r="C25" s="42">
+      <c r="C25" s="41">
         <v>7968645.8300000001</v>
       </c>
-      <c r="D25" s="52">
-        <f>B25-C25</f>
-        <v>166754.16999999993</v>
-      </c>
-      <c r="E25" s="54">
-        <f>IFERROR(D25/B25, 0)</f>
-        <v>2.0497353541313264E-2</v>
-      </c>
-      <c r="F25" s="50">
-        <f>_xlfn.RANK.EQ(E25, $E$2:$E$52, 0)</f>
+      <c r="D25" s="48">
+        <f t="shared" si="3"/>
+        <v>-166754.16999999993</v>
+      </c>
+      <c r="E25" s="50">
+        <f t="shared" si="0"/>
+        <v>-2.0497353541313264E-2</v>
+      </c>
+      <c r="F25" s="49">
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="G25" s="25" t="s">
+      <c r="G25" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="H25" s="17">
+      <c r="H25" s="16">
         <v>184167800</v>
       </c>
-      <c r="I25" s="18">
+      <c r="I25" s="17">
         <v>175966389.24999899</v>
       </c>
-      <c r="J25" s="41">
-        <f>H25-I25</f>
-        <v>8201410.7500010133</v>
-      </c>
-      <c r="K25" s="54">
-        <f>IFERROR(J25/H25, 0)</f>
-        <v>4.4532273014072019E-2</v>
-      </c>
-      <c r="L25" s="50">
-        <f>_xlfn.RANK.EQ(K25, $K$2:$K$52, 0)</f>
+      <c r="J25" s="40">
+        <f t="shared" si="5"/>
+        <v>-8201410.7500010133</v>
+      </c>
+      <c r="K25" s="50">
+        <f t="shared" si="1"/>
+        <v>-4.4532273014072019E-2</v>
+      </c>
+      <c r="L25" s="47">
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
-      <c r="M25" s="30" t="s">
+      <c r="M25" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="N25" s="17">
+      <c r="N25" s="16">
         <v>4345600</v>
       </c>
-      <c r="O25" s="18">
+      <c r="O25" s="17">
         <v>4229801.51</v>
       </c>
-      <c r="P25" s="39">
-        <f>N25-O25</f>
-        <v>115798.49000000022</v>
-      </c>
-      <c r="Q25" s="54">
-        <f>IFERROR(P25/N25, 0)</f>
-        <v>2.6647296115611244E-2</v>
-      </c>
-      <c r="R25" s="50">
-        <f>_xlfn.RANK.EQ(Q25, $Q$2:$Q$52, 0)</f>
+      <c r="P25" s="38">
+        <f t="shared" si="7"/>
+        <v>-115798.49000000022</v>
+      </c>
+      <c r="Q25" s="50">
+        <f t="shared" si="2"/>
+        <v>-2.6647296115611244E-2</v>
+      </c>
+      <c r="R25" s="47">
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="17">
+      <c r="B26" s="16">
         <v>855300</v>
       </c>
-      <c r="C26" s="42">
+      <c r="C26" s="41">
         <v>838669.82</v>
       </c>
-      <c r="D26" s="52">
-        <f>B26-C26</f>
-        <v>16630.180000000051</v>
-      </c>
-      <c r="E26" s="54">
-        <f>IFERROR(D26/B26, 0)</f>
-        <v>1.9443680579913542E-2</v>
-      </c>
-      <c r="F26" s="51">
-        <f>_xlfn.RANK.EQ(E26, $E$2:$E$52, 0)</f>
+      <c r="D26" s="48">
+        <f t="shared" si="3"/>
+        <v>-16630.180000000051</v>
+      </c>
+      <c r="E26" s="50">
+        <f t="shared" si="0"/>
+        <v>-1.9443680579913542E-2</v>
+      </c>
+      <c r="F26" s="49">
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="G26" s="28" t="s">
+      <c r="G26" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H26" s="17">
+      <c r="H26" s="16">
         <v>15309700</v>
       </c>
-      <c r="I26" s="18">
+      <c r="I26" s="17">
         <v>14645233.51</v>
       </c>
-      <c r="J26" s="41">
-        <f>H26-I26</f>
-        <v>664466.49000000022</v>
-      </c>
-      <c r="K26" s="54">
-        <f>IFERROR(J26/H26, 0)</f>
-        <v>4.3401666263871937E-2</v>
-      </c>
-      <c r="L26" s="51">
-        <f>_xlfn.RANK.EQ(K26, $K$2:$K$52, 0)</f>
+      <c r="J26" s="40">
+        <f t="shared" si="5"/>
+        <v>-664466.49000000022</v>
+      </c>
+      <c r="K26" s="50">
+        <f t="shared" si="1"/>
+        <v>-4.3401666263871937E-2</v>
+      </c>
+      <c r="L26" s="47">
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="M26" s="22" t="s">
+      <c r="M26" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="N26" s="17">
+      <c r="N26" s="16">
         <v>3662400</v>
       </c>
-      <c r="O26" s="18">
+      <c r="O26" s="17">
         <v>3564983.04999999</v>
       </c>
-      <c r="P26" s="39">
-        <f>N26-O26</f>
-        <v>97416.950000009965</v>
-      </c>
-      <c r="Q26" s="54">
-        <f>IFERROR(P26/N26, 0)</f>
-        <v>2.6599210899959033E-2</v>
-      </c>
-      <c r="R26" s="51">
-        <f>_xlfn.RANK.EQ(Q26, $Q$2:$Q$52, 0)</f>
+      <c r="P26" s="38">
+        <f t="shared" si="7"/>
+        <v>-97416.950000009965</v>
+      </c>
+      <c r="Q26" s="50">
+        <f t="shared" si="2"/>
+        <v>-2.6599210899959033E-2</v>
+      </c>
+      <c r="R26" s="47">
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="17">
+      <c r="B27" s="16">
         <v>4189300</v>
       </c>
-      <c r="C27" s="42">
+      <c r="C27" s="41">
         <v>4109958.22</v>
       </c>
-      <c r="D27" s="52">
-        <f>B27-C27</f>
-        <v>79341.779999999795</v>
-      </c>
-      <c r="E27" s="54">
-        <f>IFERROR(D27/B27, 0)</f>
-        <v>1.8939149738619768E-2</v>
-      </c>
-      <c r="F27" s="8">
-        <f>_xlfn.RANK.EQ(E27, $E$2:$E$52, 0)</f>
+      <c r="D27" s="48">
+        <f t="shared" si="3"/>
+        <v>-79341.779999999795</v>
+      </c>
+      <c r="E27" s="50">
+        <f t="shared" si="0"/>
+        <v>-1.8939149738619768E-2</v>
+      </c>
+      <c r="F27" s="49">
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="G27" s="25" t="s">
+      <c r="G27" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="17">
+      <c r="H27" s="16">
         <v>22683800</v>
       </c>
-      <c r="I27" s="18">
+      <c r="I27" s="17">
         <v>21722126.219999898</v>
       </c>
-      <c r="J27" s="41">
-        <f>H27-I27</f>
-        <v>961673.78000010177</v>
-      </c>
-      <c r="K27" s="54">
-        <f>IFERROR(J27/H27, 0)</f>
-        <v>4.2394738976719144E-2</v>
-      </c>
-      <c r="L27" s="50">
-        <f>_xlfn.RANK.EQ(K27, $K$2:$K$52, 0)</f>
+      <c r="J27" s="40">
+        <f t="shared" si="5"/>
+        <v>-961673.78000010177</v>
+      </c>
+      <c r="K27" s="50">
+        <f t="shared" si="1"/>
+        <v>-4.2394738976719144E-2</v>
+      </c>
+      <c r="L27" s="47">
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
-      <c r="M27" s="30" t="s">
+      <c r="M27" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="N27" s="17">
+      <c r="N27" s="16">
         <v>23220300</v>
       </c>
-      <c r="O27" s="18">
+      <c r="O27" s="17">
         <v>22619057.440000001</v>
       </c>
-      <c r="P27" s="39">
-        <f>N27-O27</f>
-        <v>601242.55999999866</v>
-      </c>
-      <c r="Q27" s="54">
-        <f>IFERROR(P27/N27, 0)</f>
-        <v>2.5892971236375011E-2</v>
-      </c>
-      <c r="R27" s="50">
-        <f>_xlfn.RANK.EQ(Q27, $Q$2:$Q$52, 0)</f>
+      <c r="P27" s="38">
+        <f t="shared" si="7"/>
+        <v>-601242.55999999866</v>
+      </c>
+      <c r="Q27" s="50">
+        <f t="shared" si="2"/>
+        <v>-2.5892971236375011E-2</v>
+      </c>
+      <c r="R27" s="47">
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="17">
+      <c r="B28" s="16">
         <v>92200</v>
       </c>
-      <c r="C28" s="42">
+      <c r="C28" s="41">
         <v>90499.43</v>
       </c>
-      <c r="D28" s="52">
-        <f>B28-C28</f>
-        <v>1700.570000000007</v>
-      </c>
-      <c r="E28" s="54">
-        <f>IFERROR(D28/B28, 0)</f>
-        <v>1.8444360086767971E-2</v>
-      </c>
-      <c r="F28" s="51">
-        <f>_xlfn.RANK.EQ(E28, $E$2:$E$52, 0)</f>
+      <c r="D28" s="48">
+        <f t="shared" si="3"/>
+        <v>-1700.570000000007</v>
+      </c>
+      <c r="E28" s="50">
+        <f t="shared" si="0"/>
+        <v>-1.8444360086767971E-2</v>
+      </c>
+      <c r="F28" s="49">
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="G28" s="27" t="s">
+      <c r="G28" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H28" s="16">
         <v>2779500</v>
       </c>
-      <c r="I28" s="18">
+      <c r="I28" s="17">
         <v>2665264.4399999902</v>
       </c>
-      <c r="J28" s="41">
-        <f>H28-I28</f>
-        <v>114235.56000000983</v>
-      </c>
-      <c r="K28" s="54">
-        <f>IFERROR(J28/H28, 0)</f>
-        <v>4.1099320021590155E-2</v>
-      </c>
-      <c r="L28" s="51">
-        <f>_xlfn.RANK.EQ(K28, $K$2:$K$52, 0)</f>
+      <c r="J28" s="40">
+        <f t="shared" si="5"/>
+        <v>-114235.56000000983</v>
+      </c>
+      <c r="K28" s="50">
+        <f t="shared" si="1"/>
+        <v>-4.1099320021590155E-2</v>
+      </c>
+      <c r="L28" s="47">
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
-      <c r="M28" s="29" t="s">
+      <c r="M28" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="N28" s="17">
+      <c r="N28" s="16">
         <v>6207300</v>
       </c>
-      <c r="O28" s="18">
+      <c r="O28" s="17">
         <v>6056976.6699999999</v>
       </c>
-      <c r="P28" s="39">
-        <f>N28-O28</f>
-        <v>150323.33000000007</v>
-      </c>
-      <c r="Q28" s="54">
-        <f>IFERROR(P28/N28, 0)</f>
-        <v>2.4217184605222895E-2</v>
-      </c>
-      <c r="R28" s="51">
-        <f>_xlfn.RANK.EQ(Q28, $Q$2:$Q$52, 0)</f>
+      <c r="P28" s="38">
+        <f t="shared" si="7"/>
+        <v>-150323.33000000007</v>
+      </c>
+      <c r="Q28" s="50">
+        <f t="shared" si="2"/>
+        <v>-2.4217184605222895E-2</v>
+      </c>
+      <c r="R28" s="47">
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="17">
+      <c r="B29" s="16">
         <v>2561800</v>
       </c>
-      <c r="C29" s="42">
+      <c r="C29" s="41">
         <v>2523884.71</v>
       </c>
-      <c r="D29" s="52">
-        <f>B29-C29</f>
-        <v>37915.290000000037</v>
-      </c>
-      <c r="E29" s="54">
-        <f>IFERROR(D29/B29, 0)</f>
-        <v>1.4800253727847622E-2</v>
-      </c>
-      <c r="F29" s="8">
-        <f>_xlfn.RANK.EQ(E29, $E$2:$E$52, 0)</f>
+      <c r="D29" s="48">
+        <f t="shared" si="3"/>
+        <v>-37915.290000000037</v>
+      </c>
+      <c r="E29" s="50">
+        <f t="shared" si="0"/>
+        <v>-1.4800253727847622E-2</v>
+      </c>
+      <c r="F29" s="49">
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="G29" s="25" t="s">
+      <c r="G29" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="H29" s="17">
+      <c r="H29" s="16">
         <v>1112700</v>
       </c>
-      <c r="I29" s="18">
+      <c r="I29" s="17">
         <v>1067214.42</v>
       </c>
-      <c r="J29" s="41">
-        <f>H29-I29</f>
-        <v>45485.580000000075</v>
-      </c>
-      <c r="K29" s="54">
-        <f>IFERROR(J29/H29, 0)</f>
-        <v>4.087856565111897E-2</v>
-      </c>
-      <c r="L29" s="50">
-        <f>_xlfn.RANK.EQ(K29, $K$2:$K$52, 0)</f>
+      <c r="J29" s="40">
+        <f t="shared" si="5"/>
+        <v>-45485.580000000075</v>
+      </c>
+      <c r="K29" s="50">
+        <f t="shared" si="1"/>
+        <v>-4.087856565111897E-2</v>
+      </c>
+      <c r="L29" s="47">
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
-      <c r="M29" s="30" t="s">
+      <c r="M29" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="N29" s="17">
+      <c r="N29" s="16">
         <v>188953500</v>
       </c>
-      <c r="O29" s="18">
+      <c r="O29" s="17">
         <v>184450910.84999901</v>
       </c>
-      <c r="P29" s="39">
-        <f>N29-O29</f>
-        <v>4502589.1500009894</v>
-      </c>
-      <c r="Q29" s="54">
-        <f>IFERROR(P29/N29, 0)</f>
-        <v>2.3829085727446114E-2</v>
-      </c>
-      <c r="R29" s="50">
-        <f>_xlfn.RANK.EQ(Q29, $Q$2:$Q$52, 0)</f>
+      <c r="P29" s="38">
+        <f t="shared" si="7"/>
+        <v>-4502589.1500009894</v>
+      </c>
+      <c r="Q29" s="50">
+        <f t="shared" si="2"/>
+        <v>-2.3829085727446114E-2</v>
+      </c>
+      <c r="R29" s="47">
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="17">
+      <c r="B30" s="16">
         <v>1765600</v>
       </c>
-      <c r="C30" s="42">
+      <c r="C30" s="41">
         <v>1740827.69</v>
       </c>
-      <c r="D30" s="52">
-        <f>B30-C30</f>
-        <v>24772.310000000056</v>
-      </c>
-      <c r="E30" s="54">
-        <f>IFERROR(D30/B30, 0)</f>
-        <v>1.4030533529678329E-2</v>
-      </c>
-      <c r="F30" s="51">
-        <f>_xlfn.RANK.EQ(E30, $E$2:$E$52, 0)</f>
+      <c r="D30" s="48">
+        <f t="shared" si="3"/>
+        <v>-24772.310000000056</v>
+      </c>
+      <c r="E30" s="50">
+        <f t="shared" si="0"/>
+        <v>-1.4030533529678329E-2</v>
+      </c>
+      <c r="F30" s="49">
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="G30" s="27" t="s">
+      <c r="G30" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="H30" s="17">
+      <c r="H30" s="16">
         <v>7214700</v>
       </c>
-      <c r="I30" s="18">
+      <c r="I30" s="17">
         <v>6922072.5599999996</v>
       </c>
-      <c r="J30" s="41">
-        <f>H30-I30</f>
-        <v>292627.44000000041</v>
-      </c>
-      <c r="K30" s="54">
-        <f>IFERROR(J30/H30, 0)</f>
-        <v>4.0559890224125802E-2</v>
-      </c>
-      <c r="L30" s="51">
-        <f>_xlfn.RANK.EQ(K30, $K$2:$K$52, 0)</f>
+      <c r="J30" s="40">
+        <f t="shared" si="5"/>
+        <v>-292627.44000000041</v>
+      </c>
+      <c r="K30" s="50">
+        <f t="shared" si="1"/>
+        <v>-4.0559890224125802E-2</v>
+      </c>
+      <c r="L30" s="47">
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
-      <c r="M30" s="29" t="s">
+      <c r="M30" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="N30" s="17">
+      <c r="N30" s="16">
         <v>487500</v>
       </c>
-      <c r="O30" s="18">
+      <c r="O30" s="17">
         <v>478318.92</v>
       </c>
-      <c r="P30" s="39">
-        <f>N30-O30</f>
-        <v>9181.0800000000163</v>
-      </c>
-      <c r="Q30" s="54">
-        <f>IFERROR(P30/N30, 0)</f>
-        <v>1.883298461538465E-2</v>
-      </c>
-      <c r="R30" s="51">
-        <f>_xlfn.RANK.EQ(Q30, $Q$2:$Q$52, 0)</f>
+      <c r="P30" s="38">
+        <f t="shared" si="7"/>
+        <v>-9181.0800000000163</v>
+      </c>
+      <c r="Q30" s="50">
+        <f t="shared" si="2"/>
+        <v>-1.883298461538465E-2</v>
+      </c>
+      <c r="R30" s="47">
+        <f t="shared" si="8"/>
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="17">
+      <c r="B31" s="16">
         <v>512000</v>
       </c>
-      <c r="C31" s="42">
+      <c r="C31" s="41">
         <v>505017.37</v>
       </c>
-      <c r="D31" s="52">
-        <f>B31-C31</f>
-        <v>6982.6300000000047</v>
-      </c>
-      <c r="E31" s="54">
-        <f>IFERROR(D31/B31, 0)</f>
-        <v>1.3637949218750009E-2</v>
-      </c>
-      <c r="F31" s="50">
-        <f>_xlfn.RANK.EQ(E31, $E$2:$E$52, 0)</f>
+      <c r="D31" s="48">
+        <f t="shared" si="3"/>
+        <v>-6982.6300000000047</v>
+      </c>
+      <c r="E31" s="50">
+        <f t="shared" si="0"/>
+        <v>-1.3637949218750009E-2</v>
+      </c>
+      <c r="F31" s="49">
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="G31" s="25" t="s">
+      <c r="G31" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="H31" s="17">
+      <c r="H31" s="16">
         <v>56792200</v>
       </c>
-      <c r="I31" s="18">
+      <c r="I31" s="17">
         <v>54594953.959999897</v>
       </c>
-      <c r="J31" s="41">
-        <f>H31-I31</f>
-        <v>2197246.0400001034</v>
-      </c>
-      <c r="K31" s="54">
-        <f>IFERROR(J31/H31, 0)</f>
-        <v>3.8689222111488959E-2</v>
-      </c>
-      <c r="L31" s="50">
-        <f>_xlfn.RANK.EQ(K31, $K$2:$K$52, 0)</f>
+      <c r="J31" s="40">
+        <f t="shared" si="5"/>
+        <v>-2197246.0400001034</v>
+      </c>
+      <c r="K31" s="50">
+        <f t="shared" si="1"/>
+        <v>-3.8689222111488959E-2</v>
+      </c>
+      <c r="L31" s="47">
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="M31" s="30" t="s">
+      <c r="M31" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="N31" s="17">
+      <c r="N31" s="16">
         <v>4799900</v>
       </c>
-      <c r="O31" s="18">
+      <c r="O31" s="17">
         <v>4717822.6500000004</v>
       </c>
-      <c r="P31" s="39">
-        <f>N31-O31</f>
-        <v>82077.349999999627</v>
-      </c>
-      <c r="Q31" s="54">
-        <f>IFERROR(P31/N31, 0)</f>
-        <v>1.7099804162586642E-2</v>
-      </c>
-      <c r="R31" s="50">
-        <f>_xlfn.RANK.EQ(Q31, $Q$2:$Q$52, 0)</f>
+      <c r="P31" s="38">
+        <f t="shared" si="7"/>
+        <v>-82077.349999999627</v>
+      </c>
+      <c r="Q31" s="50">
+        <f t="shared" si="2"/>
+        <v>-1.7099804162586642E-2</v>
+      </c>
+      <c r="R31" s="47">
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="17">
+      <c r="B32" s="16">
         <v>917200</v>
       </c>
-      <c r="C32" s="42">
+      <c r="C32" s="41">
         <v>904969.19</v>
       </c>
-      <c r="D32" s="52">
-        <f>B32-C32</f>
-        <v>12230.810000000056</v>
-      </c>
-      <c r="E32" s="54">
-        <f>IFERROR(D32/B32, 0)</f>
-        <v>1.3334943305713101E-2</v>
-      </c>
-      <c r="F32" s="51">
-        <f>_xlfn.RANK.EQ(E32, $E$2:$E$52, 0)</f>
+      <c r="D32" s="48">
+        <f t="shared" si="3"/>
+        <v>-12230.810000000056</v>
+      </c>
+      <c r="E32" s="50">
+        <f t="shared" si="0"/>
+        <v>-1.3334943305713101E-2</v>
+      </c>
+      <c r="F32" s="49">
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="G32" s="27" t="s">
+      <c r="G32" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="H32" s="17">
+      <c r="H32" s="16">
         <v>8925500</v>
       </c>
-      <c r="I32" s="18">
+      <c r="I32" s="17">
         <v>8599059.6199999992</v>
       </c>
-      <c r="J32" s="41">
-        <f>H32-I32</f>
-        <v>326440.38000000082</v>
-      </c>
-      <c r="K32" s="54">
-        <f>IFERROR(J32/H32, 0)</f>
-        <v>3.6573903982970231E-2</v>
-      </c>
-      <c r="L32" s="51">
-        <f>_xlfn.RANK.EQ(K32, $K$2:$K$52, 0)</f>
+      <c r="J32" s="40">
+        <f t="shared" si="5"/>
+        <v>-326440.38000000082</v>
+      </c>
+      <c r="K32" s="50">
+        <f t="shared" si="1"/>
+        <v>-3.6573903982970231E-2</v>
+      </c>
+      <c r="L32" s="47">
+        <f t="shared" si="6"/>
         <v>31</v>
       </c>
-      <c r="M32" s="29" t="s">
+      <c r="M32" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="N32" s="17">
+      <c r="N32" s="16">
         <v>40216700</v>
       </c>
-      <c r="O32" s="18">
+      <c r="O32" s="17">
         <v>39606263.709999897</v>
       </c>
-      <c r="P32" s="39">
-        <f>N32-O32</f>
-        <v>610436.29000010341</v>
-      </c>
-      <c r="Q32" s="54">
-        <f>IFERROR(P32/N32, 0)</f>
-        <v>1.5178676768608648E-2</v>
-      </c>
-      <c r="R32" s="51">
-        <f>_xlfn.RANK.EQ(Q32, $Q$2:$Q$52, 0)</f>
+      <c r="P32" s="38">
+        <f t="shared" si="7"/>
+        <v>-610436.29000010341</v>
+      </c>
+      <c r="Q32" s="50">
+        <f t="shared" si="2"/>
+        <v>-1.5178676768608648E-2</v>
+      </c>
+      <c r="R32" s="47">
+        <f t="shared" si="8"/>
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="17">
+      <c r="B33" s="16">
         <v>11566000</v>
       </c>
-      <c r="C33" s="42">
+      <c r="C33" s="41">
         <v>11412339.8799999</v>
       </c>
-      <c r="D33" s="52">
-        <f>B33-C33</f>
-        <v>153660.12000009976</v>
-      </c>
-      <c r="E33" s="54">
-        <f>IFERROR(D33/B33, 0)</f>
-        <v>1.3285502334437123E-2</v>
-      </c>
-      <c r="F33" s="50">
-        <f>_xlfn.RANK.EQ(E33, $E$2:$E$52, 0)</f>
+      <c r="D33" s="48">
+        <f t="shared" si="3"/>
+        <v>-153660.12000009976</v>
+      </c>
+      <c r="E33" s="50">
+        <f t="shared" si="0"/>
+        <v>-1.3285502334437123E-2</v>
+      </c>
+      <c r="F33" s="49">
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="G33" s="25" t="s">
+      <c r="G33" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="H33" s="17">
+      <c r="H33" s="16">
         <v>1823300</v>
       </c>
-      <c r="I33" s="18">
+      <c r="I33" s="17">
         <v>1762676.85</v>
       </c>
-      <c r="J33" s="41">
-        <f>H33-I33</f>
-        <v>60623.149999999907</v>
-      </c>
-      <c r="K33" s="54">
-        <f>IFERROR(J33/H33, 0)</f>
-        <v>3.3249136181648611E-2</v>
-      </c>
-      <c r="L33" s="50">
-        <f>_xlfn.RANK.EQ(K33, $K$2:$K$52, 0)</f>
+      <c r="J33" s="40">
+        <f t="shared" si="5"/>
+        <v>-60623.149999999907</v>
+      </c>
+      <c r="K33" s="50">
+        <f t="shared" si="1"/>
+        <v>-3.3249136181648611E-2</v>
+      </c>
+      <c r="L33" s="47">
+        <f t="shared" si="6"/>
         <v>32</v>
       </c>
-      <c r="M33" s="30" t="s">
+      <c r="M33" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="N33" s="17">
+      <c r="N33" s="16">
         <v>56027100</v>
       </c>
-      <c r="O33" s="18">
+      <c r="O33" s="17">
         <v>55386549.6599999</v>
       </c>
-      <c r="P33" s="39">
-        <f>N33-O33</f>
-        <v>640550.34000010043</v>
-      </c>
-      <c r="Q33" s="54">
-        <f>IFERROR(P33/N33, 0)</f>
-        <v>1.1432866237947358E-2</v>
-      </c>
-      <c r="R33" s="50">
-        <f>_xlfn.RANK.EQ(Q33, $Q$2:$Q$52, 0)</f>
+      <c r="P33" s="38">
+        <f t="shared" si="7"/>
+        <v>-640550.34000010043</v>
+      </c>
+      <c r="Q33" s="50">
+        <f t="shared" si="2"/>
+        <v>-1.1432866237947358E-2</v>
+      </c>
+      <c r="R33" s="47">
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="17">
+      <c r="B34" s="16">
         <v>5847800</v>
       </c>
-      <c r="C34" s="42">
+      <c r="C34" s="41">
         <v>5772288.3300000001</v>
       </c>
-      <c r="D34" s="52">
-        <f>B34-C34</f>
-        <v>75511.669999999925</v>
-      </c>
-      <c r="E34" s="54">
-        <f>IFERROR(D34/B34, 0)</f>
-        <v>1.2912833886247806E-2</v>
-      </c>
-      <c r="F34" s="51">
-        <f>_xlfn.RANK.EQ(E34, $E$2:$E$52, 0)</f>
+      <c r="D34" s="48">
+        <f t="shared" si="3"/>
+        <v>-75511.669999999925</v>
+      </c>
+      <c r="E34" s="50">
+        <f t="shared" ref="E34:E52" si="9">IFERROR(D34/B34, 0)</f>
+        <v>-1.2912833886247806E-2</v>
+      </c>
+      <c r="F34" s="49">
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
-      <c r="G34" s="27" t="s">
+      <c r="G34" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="H34" s="17">
+      <c r="H34" s="16">
         <v>266000</v>
       </c>
-      <c r="I34" s="18">
+      <c r="I34" s="17">
         <v>257402.90999999901</v>
       </c>
-      <c r="J34" s="41">
-        <f>H34-I34</f>
-        <v>8597.090000000986</v>
-      </c>
-      <c r="K34" s="54">
-        <f>IFERROR(J34/H34, 0)</f>
-        <v>3.2319887218048821E-2</v>
-      </c>
-      <c r="L34" s="51">
-        <f>_xlfn.RANK.EQ(K34, $K$2:$K$52, 0)</f>
+      <c r="J34" s="40">
+        <f t="shared" si="5"/>
+        <v>-8597.090000000986</v>
+      </c>
+      <c r="K34" s="50">
+        <f t="shared" ref="K34:K52" si="10">IFERROR(J34/H34, 0)</f>
+        <v>-3.2319887218048821E-2</v>
+      </c>
+      <c r="L34" s="47">
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
-      <c r="M34" s="29" t="s">
+      <c r="M34" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="N34" s="17">
+      <c r="N34" s="16">
         <v>8833900</v>
       </c>
-      <c r="O34" s="18">
+      <c r="O34" s="17">
         <v>8735843.3100000005</v>
       </c>
-      <c r="P34" s="39">
-        <f>N34-O34</f>
-        <v>98056.689999999478</v>
-      </c>
-      <c r="Q34" s="54">
-        <f>IFERROR(P34/N34, 0)</f>
-        <v>1.1100045280114048E-2</v>
-      </c>
-      <c r="R34" s="51">
-        <f>_xlfn.RANK.EQ(Q34, $Q$2:$Q$52, 0)</f>
+      <c r="P34" s="38">
+        <f t="shared" si="7"/>
+        <v>-98056.689999999478</v>
+      </c>
+      <c r="Q34" s="50">
+        <f t="shared" ref="Q34:Q52" si="11">IFERROR(P34/N34, 0)</f>
+        <v>-1.1100045280114048E-2</v>
+      </c>
+      <c r="R34" s="47">
+        <f t="shared" si="8"/>
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B35" s="17">
+      <c r="B35" s="16">
         <v>55301600</v>
       </c>
-      <c r="C35" s="42">
+      <c r="C35" s="41">
         <v>54589584.0499999</v>
       </c>
-      <c r="D35" s="52">
-        <f>B35-C35</f>
-        <v>712015.95000009984</v>
-      </c>
-      <c r="E35" s="54">
-        <f>IFERROR(D35/B35, 0)</f>
-        <v>1.287514194887851E-2</v>
-      </c>
-      <c r="F35" s="8">
-        <f>_xlfn.RANK.EQ(E35, $E$2:$E$52, 0)</f>
+      <c r="D35" s="48">
+        <f t="shared" si="3"/>
+        <v>-712015.95000009984</v>
+      </c>
+      <c r="E35" s="50">
+        <f t="shared" si="9"/>
+        <v>-1.287514194887851E-2</v>
+      </c>
+      <c r="F35" s="49">
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
-      <c r="G35" s="25" t="s">
+      <c r="G35" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="H35" s="17">
+      <c r="H35" s="16">
         <v>5089500</v>
       </c>
-      <c r="I35" s="18">
+      <c r="I35" s="17">
         <v>4956043.6699999897</v>
       </c>
-      <c r="J35" s="41">
-        <f>H35-I35</f>
-        <v>133456.33000001032</v>
-      </c>
-      <c r="K35" s="54">
-        <f>IFERROR(J35/H35, 0)</f>
-        <v>2.6221894095689226E-2</v>
-      </c>
-      <c r="L35" s="50">
-        <f>_xlfn.RANK.EQ(K35, $K$2:$K$52, 0)</f>
+      <c r="J35" s="40">
+        <f t="shared" si="5"/>
+        <v>-133456.33000001032</v>
+      </c>
+      <c r="K35" s="50">
+        <f t="shared" si="10"/>
+        <v>-2.6221894095689226E-2</v>
+      </c>
+      <c r="L35" s="47">
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
-      <c r="M35" s="30" t="s">
+      <c r="M35" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="N35" s="17">
+      <c r="N35" s="16">
         <v>989572899.99999905</v>
       </c>
-      <c r="O35" s="18">
+      <c r="O35" s="17">
         <v>984116289.40999901</v>
       </c>
-      <c r="P35" s="39">
-        <f>N35-O35</f>
-        <v>5456610.5900000334</v>
-      </c>
-      <c r="Q35" s="54">
-        <f>IFERROR(P35/N35, 0)</f>
-        <v>5.5141067323084929E-3</v>
-      </c>
-      <c r="R35">
-        <f>_xlfn.RANK.EQ(Q35, $Q$2:$Q$52, 0)</f>
+      <c r="P35" s="38">
+        <f t="shared" si="7"/>
+        <v>-5456610.5900000334</v>
+      </c>
+      <c r="Q35" s="50">
+        <f t="shared" si="11"/>
+        <v>-5.5141067323084929E-3</v>
+      </c>
+      <c r="R35" s="47">
+        <f t="shared" si="8"/>
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="B36" s="17">
+      <c r="B36" s="16">
         <v>8609500</v>
       </c>
-      <c r="C36" s="42">
+      <c r="C36" s="41">
         <v>8499425.3399999905</v>
       </c>
-      <c r="D36" s="52">
-        <f>B36-C36</f>
-        <v>110074.66000000946</v>
-      </c>
-      <c r="E36" s="54">
-        <f>IFERROR(D36/B36, 0)</f>
-        <v>1.2785255822058129E-2</v>
-      </c>
-      <c r="F36" s="51">
-        <f>_xlfn.RANK.EQ(E36, $E$2:$E$52, 0)</f>
+      <c r="D36" s="48">
+        <f t="shared" si="3"/>
+        <v>-110074.66000000946</v>
+      </c>
+      <c r="E36" s="50">
+        <f t="shared" si="9"/>
+        <v>-1.2785255822058129E-2</v>
+      </c>
+      <c r="F36" s="49">
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="G36" s="27" t="s">
+      <c r="G36" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="H36" s="17">
+      <c r="H36" s="16">
         <v>6195500</v>
       </c>
-      <c r="I36" s="18">
+      <c r="I36" s="17">
         <v>6084985.4699999997</v>
       </c>
-      <c r="J36" s="41">
-        <f>H36-I36</f>
-        <v>110514.53000000026</v>
-      </c>
-      <c r="K36" s="54">
-        <f>IFERROR(J36/H36, 0)</f>
-        <v>1.7837871035428981E-2</v>
-      </c>
-      <c r="L36" s="51">
-        <f>_xlfn.RANK.EQ(K36, $K$2:$K$52, 0)</f>
+      <c r="J36" s="40">
+        <f t="shared" si="5"/>
+        <v>-110514.53000000026</v>
+      </c>
+      <c r="K36" s="50">
+        <f t="shared" si="10"/>
+        <v>-1.7837871035428981E-2</v>
+      </c>
+      <c r="L36" s="47">
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
-      <c r="M36" s="22" t="s">
+      <c r="M36" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="N36" s="17">
+      <c r="N36" s="16">
         <v>496500</v>
       </c>
-      <c r="O36" s="18">
+      <c r="O36" s="17">
         <v>494775.1</v>
       </c>
-      <c r="P36" s="39">
-        <f>N36-O36</f>
-        <v>1724.9000000000233</v>
-      </c>
-      <c r="Q36" s="54">
-        <f>IFERROR(P36/N36, 0)</f>
-        <v>3.4741188318228064E-3</v>
-      </c>
-      <c r="R36" s="51">
-        <f>_xlfn.RANK.EQ(Q36, $Q$2:$Q$52, 0)</f>
+      <c r="P36" s="38">
+        <f t="shared" si="7"/>
+        <v>-1724.9000000000233</v>
+      </c>
+      <c r="Q36" s="50">
+        <f t="shared" si="11"/>
+        <v>-3.4741188318228064E-3</v>
+      </c>
+      <c r="R36" s="47">
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="17">
+      <c r="B37" s="16">
         <v>5999400</v>
       </c>
-      <c r="C37" s="42">
+      <c r="C37" s="41">
         <v>5925637.7199999904</v>
       </c>
-      <c r="D37" s="52">
-        <f>B37-C37</f>
-        <v>73762.280000009574</v>
-      </c>
-      <c r="E37" s="54">
-        <f>IFERROR(D37/B37, 0)</f>
-        <v>1.2294942827617691E-2</v>
-      </c>
-      <c r="F37" s="50">
-        <f>_xlfn.RANK.EQ(E37, $E$2:$E$52, 0)</f>
+      <c r="D37" s="48">
+        <f t="shared" si="3"/>
+        <v>-73762.280000009574</v>
+      </c>
+      <c r="E37" s="50">
+        <f t="shared" si="9"/>
+        <v>-1.2294942827617691E-2</v>
+      </c>
+      <c r="F37" s="49">
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
-      <c r="G37" s="25" t="s">
+      <c r="G37" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="H37" s="17">
+      <c r="H37" s="16">
         <v>3652300</v>
       </c>
-      <c r="I37" s="18">
+      <c r="I37" s="17">
         <v>3589693.2099999902</v>
       </c>
-      <c r="J37" s="41">
-        <f>H37-I37</f>
-        <v>62606.790000009816</v>
-      </c>
-      <c r="K37" s="54">
-        <f>IFERROR(J37/H37, 0)</f>
-        <v>1.7141743558856015E-2</v>
-      </c>
-      <c r="L37" s="50">
-        <f>_xlfn.RANK.EQ(K37, $K$2:$K$52, 0)</f>
+      <c r="J37" s="40">
+        <f t="shared" si="5"/>
+        <v>-62606.790000009816</v>
+      </c>
+      <c r="K37" s="50">
+        <f t="shared" si="10"/>
+        <v>-1.7141743558856015E-2</v>
+      </c>
+      <c r="L37" s="47">
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
-      <c r="M37" s="30" t="s">
+      <c r="M37" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="N37" s="17">
+      <c r="N37" s="16">
         <v>12861300</v>
       </c>
-      <c r="O37" s="18">
+      <c r="O37" s="17">
         <v>12826009.609999999</v>
       </c>
-      <c r="P37" s="39">
-        <f>N37-O37</f>
-        <v>35290.390000000596</v>
-      </c>
-      <c r="Q37" s="54">
-        <f>IFERROR(P37/N37, 0)</f>
-        <v>2.7439209100169185E-3</v>
-      </c>
-      <c r="R37" s="50">
-        <f>_xlfn.RANK.EQ(Q37, $Q$2:$Q$52, 0)</f>
+      <c r="P37" s="38">
+        <f t="shared" si="7"/>
+        <v>-35290.390000000596</v>
+      </c>
+      <c r="Q37" s="50">
+        <f t="shared" si="11"/>
+        <v>-2.7439209100169185E-3</v>
+      </c>
+      <c r="R37" s="47">
+        <f t="shared" si="8"/>
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="17">
+      <c r="B38" s="16">
         <v>6600700</v>
       </c>
-      <c r="C38" s="42">
+      <c r="C38" s="41">
         <v>6522480.4599999897</v>
       </c>
-      <c r="D38" s="52">
-        <f>B38-C38</f>
-        <v>78219.540000010282</v>
-      </c>
-      <c r="E38" s="54">
-        <f>IFERROR(D38/B38, 0)</f>
-        <v>1.1850188616360429E-2</v>
-      </c>
-      <c r="F38" s="51">
-        <f>_xlfn.RANK.EQ(E38, $E$2:$E$52, 0)</f>
+      <c r="D38" s="48">
+        <f t="shared" si="3"/>
+        <v>-78219.540000010282</v>
+      </c>
+      <c r="E38" s="50">
+        <f t="shared" si="9"/>
+        <v>-1.1850188616360429E-2</v>
+      </c>
+      <c r="F38" s="49">
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
-      <c r="G38" s="27" t="s">
+      <c r="G38" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="H38" s="17">
+      <c r="H38" s="16">
         <v>505200</v>
       </c>
-      <c r="I38" s="18">
+      <c r="I38" s="17">
         <v>497194.20999999897</v>
       </c>
-      <c r="J38" s="41">
-        <f>H38-I38</f>
-        <v>8005.7900000010268</v>
-      </c>
-      <c r="K38" s="54">
-        <f>IFERROR(J38/H38, 0)</f>
-        <v>1.5846773555029746E-2</v>
-      </c>
-      <c r="L38" s="51">
-        <f>_xlfn.RANK.EQ(K38, $K$2:$K$52, 0)</f>
+      <c r="J38" s="40">
+        <f t="shared" si="5"/>
+        <v>-8005.7900000010268</v>
+      </c>
+      <c r="K38" s="50">
+        <f t="shared" si="10"/>
+        <v>-1.5846773555029746E-2</v>
+      </c>
+      <c r="L38" s="47">
+        <f t="shared" si="6"/>
         <v>37</v>
       </c>
-      <c r="M38" s="29" t="s">
+      <c r="M38" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="N38" s="17">
+      <c r="N38" s="16">
         <v>322700</v>
       </c>
-      <c r="O38" s="18">
+      <c r="O38" s="17">
         <v>322263.03999999998</v>
       </c>
-      <c r="P38" s="39">
-        <f>N38-O38</f>
-        <v>436.96000000002095</v>
-      </c>
-      <c r="Q38" s="54">
-        <f>IFERROR(P38/N38, 0)</f>
-        <v>1.3540749922529313E-3</v>
-      </c>
-      <c r="R38" s="51">
-        <f>_xlfn.RANK.EQ(Q38, $Q$2:$Q$52, 0)</f>
+      <c r="P38" s="38">
+        <f t="shared" si="7"/>
+        <v>-436.96000000002095</v>
+      </c>
+      <c r="Q38" s="50">
+        <f t="shared" si="11"/>
+        <v>-1.3540749922529313E-3</v>
+      </c>
+      <c r="R38" s="47">
+        <f t="shared" si="8"/>
         <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="17">
+      <c r="B39" s="16">
         <v>484100</v>
       </c>
-      <c r="C39" s="42">
+      <c r="C39" s="41">
         <v>479149.53</v>
       </c>
-      <c r="D39" s="52">
-        <f>B39-C39</f>
-        <v>4950.4699999999721</v>
-      </c>
-      <c r="E39" s="54">
-        <f>IFERROR(D39/B39, 0)</f>
-        <v>1.0226130964676661E-2</v>
-      </c>
-      <c r="F39" s="50">
-        <f>_xlfn.RANK.EQ(E39, $E$2:$E$52, 0)</f>
+      <c r="D39" s="48">
+        <f t="shared" si="3"/>
+        <v>-4950.4699999999721</v>
+      </c>
+      <c r="E39" s="50">
+        <f t="shared" si="9"/>
+        <v>-1.0226130964676661E-2</v>
+      </c>
+      <c r="F39" s="49">
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
-      <c r="G39" s="25" t="s">
+      <c r="G39" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="H39" s="17">
+      <c r="H39" s="16">
         <v>11980700</v>
       </c>
-      <c r="I39" s="18">
+      <c r="I39" s="17">
         <v>11791977.9699999</v>
       </c>
-      <c r="J39" s="41">
-        <f>H39-I39</f>
-        <v>188722.03000009991</v>
-      </c>
-      <c r="K39" s="54">
-        <f>IFERROR(J39/H39, 0)</f>
-        <v>1.5752170574348738E-2</v>
-      </c>
-      <c r="L39" s="50">
-        <f>_xlfn.RANK.EQ(K39, $K$2:$K$52, 0)</f>
+      <c r="J39" s="40">
+        <f t="shared" si="5"/>
+        <v>-188722.03000009991</v>
+      </c>
+      <c r="K39" s="50">
+        <f t="shared" si="10"/>
+        <v>-1.5752170574348738E-2</v>
+      </c>
+      <c r="L39" s="47">
+        <f t="shared" si="6"/>
         <v>38</v>
       </c>
-      <c r="M39" s="30" t="s">
+      <c r="M39" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="N39" s="17">
+      <c r="N39" s="16">
         <v>75072800</v>
       </c>
-      <c r="O39" s="18">
+      <c r="O39" s="17">
         <v>75050829.179999903</v>
       </c>
-      <c r="P39" s="39">
-        <f>N39-O39</f>
-        <v>21970.820000097156</v>
-      </c>
-      <c r="Q39" s="54">
-        <f>IFERROR(P39/N39, 0)</f>
-        <v>2.9266019117572752E-4</v>
-      </c>
-      <c r="R39" s="50">
-        <f>_xlfn.RANK.EQ(Q39, $Q$2:$Q$52, 0)</f>
+      <c r="P39" s="38">
+        <f t="shared" si="7"/>
+        <v>-21970.820000097156</v>
+      </c>
+      <c r="Q39" s="50">
+        <f t="shared" si="11"/>
+        <v>-2.9266019117572752E-4</v>
+      </c>
+      <c r="R39" s="47">
+        <f t="shared" si="8"/>
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A40" s="25" t="s">
+      <c r="A40" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="B40" s="17">
+      <c r="B40" s="16">
         <v>30083200</v>
       </c>
-      <c r="C40" s="42">
+      <c r="C40" s="41">
         <v>29789104.379999999</v>
       </c>
-      <c r="D40" s="52">
-        <f>B40-C40</f>
-        <v>294095.62000000104</v>
-      </c>
-      <c r="E40" s="54">
-        <f>IFERROR(D40/B40, 0)</f>
-        <v>9.7760750186150751E-3</v>
-      </c>
-      <c r="F40" s="51">
-        <f>_xlfn.RANK.EQ(E40, $E$2:$E$52, 0)</f>
+      <c r="D40" s="48">
+        <f t="shared" si="3"/>
+        <v>-294095.62000000104</v>
+      </c>
+      <c r="E40" s="50">
+        <f t="shared" si="9"/>
+        <v>-9.7760750186150751E-3</v>
+      </c>
+      <c r="F40" s="49">
+        <f t="shared" si="4"/>
         <v>39</v>
       </c>
-      <c r="G40" s="27" t="s">
+      <c r="G40" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="H40" s="17">
+      <c r="H40" s="16">
         <v>199130300</v>
       </c>
-      <c r="I40" s="18">
+      <c r="I40" s="17">
         <v>196755033.31</v>
       </c>
-      <c r="J40" s="41">
-        <f>H40-I40</f>
-        <v>2375266.6899999976</v>
-      </c>
-      <c r="K40" s="54">
-        <f>IFERROR(J40/H40, 0)</f>
-        <v>1.1928203241796942E-2</v>
-      </c>
-      <c r="L40" s="51">
-        <f>_xlfn.RANK.EQ(K40, $K$2:$K$52, 0)</f>
+      <c r="J40" s="40">
+        <f t="shared" si="5"/>
+        <v>-2375266.6899999976</v>
+      </c>
+      <c r="K40" s="50">
+        <f t="shared" si="10"/>
+        <v>-1.1928203241796942E-2</v>
+      </c>
+      <c r="L40" s="47">
+        <f t="shared" si="6"/>
         <v>39</v>
       </c>
-      <c r="M40" s="29" t="s">
+      <c r="M40" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="N40" s="17">
+      <c r="N40" s="16">
         <v>445200</v>
       </c>
-      <c r="O40" s="18">
+      <c r="O40" s="17">
         <v>445114.28999999899</v>
       </c>
-      <c r="P40" s="39">
-        <f>N40-O40</f>
-        <v>85.710000001010485</v>
-      </c>
-      <c r="Q40" s="54">
-        <f>IFERROR(P40/N40, 0)</f>
-        <v>1.925202156356929E-4</v>
-      </c>
-      <c r="R40" s="48">
-        <f>_xlfn.RANK.EQ(Q40, $Q$2:$Q$52, 0)</f>
+      <c r="P40" s="38">
+        <f t="shared" si="7"/>
+        <v>-85.710000001010485</v>
+      </c>
+      <c r="Q40" s="50">
+        <f t="shared" si="11"/>
+        <v>-1.925202156356929E-4</v>
+      </c>
+      <c r="R40" s="47">
+        <f t="shared" si="8"/>
         <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="17">
+      <c r="B41" s="16">
         <v>12132200</v>
       </c>
-      <c r="C41" s="42">
+      <c r="C41" s="41">
         <v>12030494.1</v>
       </c>
-      <c r="D41" s="52">
-        <f>B41-C41</f>
-        <v>101705.90000000037</v>
-      </c>
-      <c r="E41" s="54">
-        <f>IFERROR(D41/B41, 0)</f>
-        <v>8.3831374359143746E-3</v>
-      </c>
-      <c r="F41" s="50">
-        <f>_xlfn.RANK.EQ(E41, $E$2:$E$52, 0)</f>
+      <c r="D41" s="48">
+        <f t="shared" si="3"/>
+        <v>-101705.90000000037</v>
+      </c>
+      <c r="E41" s="50">
+        <f t="shared" si="9"/>
+        <v>-8.3831374359143746E-3</v>
+      </c>
+      <c r="F41" s="49">
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="G41" s="25" t="s">
+      <c r="G41" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H41" s="17">
+      <c r="H41" s="16">
         <v>530500</v>
       </c>
-      <c r="I41" s="18">
+      <c r="I41" s="17">
         <v>524402.98</v>
       </c>
-      <c r="J41" s="41">
-        <f>H41-I41</f>
-        <v>6097.0200000000186</v>
-      </c>
-      <c r="K41" s="54">
-        <f>IFERROR(J41/H41, 0)</f>
-        <v>1.1492968897266765E-2</v>
-      </c>
-      <c r="L41" s="50">
-        <f>_xlfn.RANK.EQ(K41, $K$2:$K$52, 0)</f>
+      <c r="J41" s="40">
+        <f t="shared" si="5"/>
+        <v>-6097.0200000000186</v>
+      </c>
+      <c r="K41" s="50">
+        <f t="shared" si="10"/>
+        <v>-1.1492968897266765E-2</v>
+      </c>
+      <c r="L41" s="47">
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
-      <c r="M41" s="30" t="s">
+      <c r="M41" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="N41" s="17">
+      <c r="N41" s="16">
         <v>777800</v>
       </c>
-      <c r="O41" s="18">
+      <c r="O41" s="17">
         <v>777663.26</v>
       </c>
-      <c r="P41" s="39">
-        <f>N41-O41</f>
-        <v>136.73999999999069</v>
-      </c>
-      <c r="Q41" s="54">
-        <f>IFERROR(P41/N41, 0)</f>
-        <v>1.7580354847003174E-4</v>
-      </c>
-      <c r="R41" s="50">
-        <f>_xlfn.RANK.EQ(Q41, $Q$2:$Q$52, 0)</f>
+      <c r="P41" s="38">
+        <f t="shared" si="7"/>
+        <v>-136.73999999999069</v>
+      </c>
+      <c r="Q41" s="50">
+        <f t="shared" si="11"/>
+        <v>-1.7580354847003174E-4</v>
+      </c>
+      <c r="R41" s="47">
+        <f t="shared" si="8"/>
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="17">
+      <c r="B42" s="16">
         <v>927703099.99999905</v>
       </c>
-      <c r="C42" s="42">
+      <c r="C42" s="41">
         <v>920284264.73000002</v>
       </c>
-      <c r="D42" s="52">
-        <f>B42-C42</f>
-        <v>7418835.2699990273</v>
-      </c>
-      <c r="E42" s="54">
-        <f>IFERROR(D42/B42, 0)</f>
-        <v>7.9969930789269058E-3</v>
-      </c>
-      <c r="F42" s="51">
-        <f>_xlfn.RANK.EQ(E42, $E$2:$E$52, 0)</f>
+      <c r="D42" s="48">
+        <f t="shared" si="3"/>
+        <v>-7418835.2699990273</v>
+      </c>
+      <c r="E42" s="50">
+        <f t="shared" si="9"/>
+        <v>-7.9969930789269058E-3</v>
+      </c>
+      <c r="F42" s="49">
+        <f t="shared" si="4"/>
         <v>41</v>
       </c>
-      <c r="G42" s="27" t="s">
+      <c r="G42" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="H42" s="17">
+      <c r="H42" s="16">
         <v>31040700</v>
       </c>
-      <c r="I42" s="18">
+      <c r="I42" s="17">
         <v>30793711.48</v>
       </c>
-      <c r="J42" s="41">
-        <f>H42-I42</f>
-        <v>246988.51999999955</v>
-      </c>
-      <c r="K42" s="54">
-        <f>IFERROR(J42/H42, 0)</f>
-        <v>7.9569249404813532E-3</v>
-      </c>
-      <c r="L42" s="51">
-        <f>_xlfn.RANK.EQ(K42, $K$2:$K$52, 0)</f>
+      <c r="J42" s="40">
+        <f t="shared" si="5"/>
+        <v>-246988.51999999955</v>
+      </c>
+      <c r="K42" s="50">
+        <f t="shared" si="10"/>
+        <v>-7.9569249404813532E-3</v>
+      </c>
+      <c r="L42" s="47">
+        <f t="shared" si="6"/>
         <v>41</v>
       </c>
-      <c r="M42" s="29" t="s">
+      <c r="M42" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="N42" s="17">
+      <c r="N42" s="16">
         <v>1112600</v>
       </c>
-      <c r="O42" s="18">
+      <c r="O42" s="17">
         <v>1112527.1200000001</v>
       </c>
-      <c r="P42" s="39">
-        <f>N42-O42</f>
-        <v>72.879999999888241</v>
-      </c>
-      <c r="Q42" s="54">
-        <f>IFERROR(P42/N42, 0)</f>
-        <v>6.5504224339284781E-5</v>
-      </c>
-      <c r="R42" s="51">
-        <f>_xlfn.RANK.EQ(Q42, $Q$2:$Q$52, 0)</f>
+      <c r="P42" s="38">
+        <f t="shared" si="7"/>
+        <v>-72.879999999888241</v>
+      </c>
+      <c r="Q42" s="50">
+        <f t="shared" si="11"/>
+        <v>-6.5504224339284781E-5</v>
+      </c>
+      <c r="R42" s="47">
+        <f t="shared" si="8"/>
         <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B43" s="17">
+      <c r="B43" s="16">
         <v>3130600</v>
       </c>
-      <c r="C43" s="42">
+      <c r="C43" s="41">
         <v>3115157.5599999898</v>
       </c>
-      <c r="D43" s="52">
-        <f>B43-C43</f>
-        <v>15442.440000010189</v>
-      </c>
-      <c r="E43" s="54">
-        <f>IFERROR(D43/B43, 0)</f>
-        <v>4.9327413275443007E-3</v>
-      </c>
-      <c r="F43" s="50">
-        <f>_xlfn.RANK.EQ(E43, $E$2:$E$52, 0)</f>
+      <c r="D43" s="48">
+        <f t="shared" si="3"/>
+        <v>-15442.440000010189</v>
+      </c>
+      <c r="E43" s="50">
+        <f t="shared" si="9"/>
+        <v>-4.9327413275443007E-3</v>
+      </c>
+      <c r="F43" s="49">
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
-      <c r="G43" s="25" t="s">
+      <c r="G43" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="H43" s="17">
+      <c r="H43" s="16">
         <v>12735900</v>
       </c>
-      <c r="I43" s="18">
+      <c r="I43" s="17">
         <v>12685514.279999901</v>
       </c>
-      <c r="J43" s="41">
-        <f>H43-I43</f>
-        <v>50385.720000099391</v>
-      </c>
-      <c r="K43" s="54">
-        <f>IFERROR(J43/H43, 0)</f>
-        <v>3.9561962641116366E-3</v>
-      </c>
-      <c r="L43" s="50">
-        <f>_xlfn.RANK.EQ(K43, $K$2:$K$52, 0)</f>
+      <c r="J43" s="40">
+        <f t="shared" si="5"/>
+        <v>-50385.720000099391</v>
+      </c>
+      <c r="K43" s="50">
+        <f t="shared" si="10"/>
+        <v>-3.9561962641116366E-3</v>
+      </c>
+      <c r="L43" s="47">
+        <f t="shared" si="6"/>
         <v>42</v>
       </c>
-      <c r="M43" s="30" t="s">
+      <c r="M43" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="N43" s="17">
+      <c r="N43" s="16">
         <v>11935200</v>
       </c>
-      <c r="O43" s="18">
+      <c r="O43" s="17">
         <v>11934454.77</v>
       </c>
-      <c r="P43" s="39">
-        <f>N43-O43</f>
-        <v>745.23000000044703</v>
-      </c>
-      <c r="Q43" s="54">
-        <f>IFERROR(P43/N43, 0)</f>
-        <v>6.2439674240938325E-5</v>
-      </c>
-      <c r="R43" s="50">
-        <f>_xlfn.RANK.EQ(Q43, $Q$2:$Q$52, 0)</f>
+      <c r="P43" s="38">
+        <f t="shared" si="7"/>
+        <v>-745.23000000044703</v>
+      </c>
+      <c r="Q43" s="50">
+        <f t="shared" si="11"/>
+        <v>-6.2439674240938325E-5</v>
+      </c>
+      <c r="R43" s="47">
+        <f t="shared" si="8"/>
         <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="B44" s="17">
+      <c r="B44" s="16">
         <v>259100</v>
       </c>
-      <c r="C44" s="42">
+      <c r="C44" s="41">
         <v>258322.43</v>
       </c>
-      <c r="D44" s="52">
-        <f>B44-C44</f>
-        <v>777.57000000000698</v>
-      </c>
-      <c r="E44" s="54">
-        <f>IFERROR(D44/B44, 0)</f>
-        <v>3.0010420686993711E-3</v>
-      </c>
-      <c r="F44" s="51">
-        <f>_xlfn.RANK.EQ(E44, $E$2:$E$52, 0)</f>
+      <c r="D44" s="48">
+        <f t="shared" si="3"/>
+        <v>-777.57000000000698</v>
+      </c>
+      <c r="E44" s="50">
+        <f t="shared" si="9"/>
+        <v>-3.0010420686993711E-3</v>
+      </c>
+      <c r="F44" s="49">
+        <f t="shared" si="4"/>
         <v>43</v>
       </c>
-      <c r="G44" s="27" t="s">
+      <c r="G44" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="H44" s="17">
+      <c r="H44" s="16">
         <v>979671000</v>
       </c>
-      <c r="I44" s="18">
+      <c r="I44" s="17">
         <v>977068513.48000002</v>
       </c>
-      <c r="J44" s="41">
-        <f>H44-I44</f>
-        <v>2602486.5199999809</v>
-      </c>
-      <c r="K44" s="54">
-        <f>IFERROR(J44/H44, 0)</f>
-        <v>2.6564903115433454E-3</v>
-      </c>
-      <c r="L44" s="51">
-        <f>_xlfn.RANK.EQ(K44, $K$2:$K$52, 0)</f>
+      <c r="J44" s="40">
+        <f t="shared" si="5"/>
+        <v>-2602486.5199999809</v>
+      </c>
+      <c r="K44" s="50">
+        <f t="shared" si="10"/>
+        <v>-2.6564903115433454E-3</v>
+      </c>
+      <c r="L44" s="47">
+        <f t="shared" si="6"/>
         <v>43</v>
       </c>
-      <c r="M44" s="29" t="s">
+      <c r="M44" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="N44" s="17">
+      <c r="N44" s="16">
         <v>7397200</v>
       </c>
-      <c r="O44" s="18">
+      <c r="O44" s="17">
         <v>7397093</v>
       </c>
-      <c r="P44" s="39">
-        <f>N44-O44</f>
-        <v>107</v>
-      </c>
-      <c r="Q44" s="54">
-        <f>IFERROR(P44/N44, 0)</f>
-        <v>1.4464932677229222E-5</v>
-      </c>
-      <c r="R44" s="48">
-        <f>_xlfn.RANK.EQ(Q44, $Q$2:$Q$52, 0)</f>
+      <c r="P44" s="38">
+        <f t="shared" si="7"/>
+        <v>-107</v>
+      </c>
+      <c r="Q44" s="50">
+        <f t="shared" si="11"/>
+        <v>-1.4464932677229222E-5</v>
+      </c>
+      <c r="R44" s="47">
+        <f t="shared" si="8"/>
         <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="17">
+      <c r="B45" s="16">
         <v>188593300</v>
       </c>
-      <c r="C45" s="42">
+      <c r="C45" s="41">
         <v>188551675.67999899</v>
       </c>
-      <c r="D45" s="52">
-        <f>B45-C45</f>
-        <v>41624.320001006126</v>
-      </c>
-      <c r="E45" s="54">
-        <f>IFERROR(D45/B45, 0)</f>
-        <v>2.2070943135841053E-4</v>
-      </c>
-      <c r="F45" s="50">
-        <f>_xlfn.RANK.EQ(E45, $E$2:$E$52, 0)</f>
+      <c r="D45" s="48">
+        <f t="shared" si="3"/>
+        <v>-41624.320001006126</v>
+      </c>
+      <c r="E45" s="50">
+        <f t="shared" si="9"/>
+        <v>-2.2070943135841053E-4</v>
+      </c>
+      <c r="F45" s="49">
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
-      <c r="G45" s="25" t="s">
+      <c r="G45" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="H45" s="17">
+      <c r="H45" s="16">
         <v>428500</v>
       </c>
-      <c r="I45" s="18">
+      <c r="I45" s="17">
         <v>427758.64</v>
       </c>
-      <c r="J45" s="41">
-        <f>H45-I45</f>
-        <v>741.35999999998603</v>
-      </c>
-      <c r="K45" s="54">
-        <f>IFERROR(J45/H45, 0)</f>
-        <v>1.7301283547257551E-3</v>
-      </c>
-      <c r="L45" s="50">
-        <f>_xlfn.RANK.EQ(K45, $K$2:$K$52, 0)</f>
+      <c r="J45" s="40">
+        <f t="shared" si="5"/>
+        <v>-741.35999999998603</v>
+      </c>
+      <c r="K45" s="50">
+        <f t="shared" si="10"/>
+        <v>-1.7301283547257551E-3</v>
+      </c>
+      <c r="L45" s="47">
+        <f t="shared" si="6"/>
         <v>44</v>
       </c>
-      <c r="M45" s="30" t="s">
+      <c r="M45" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="N45" s="17">
+      <c r="N45" s="16">
         <v>2889900</v>
       </c>
-      <c r="O45" s="18">
+      <c r="O45" s="17">
         <v>2889864.67</v>
       </c>
-      <c r="P45" s="39">
-        <f>N45-O45</f>
-        <v>35.330000000074506</v>
-      </c>
-      <c r="Q45" s="54">
-        <f>IFERROR(P45/N45, 0)</f>
-        <v>1.2225336516860273E-5</v>
-      </c>
-      <c r="R45" s="50">
-        <f>_xlfn.RANK.EQ(Q45, $Q$2:$Q$52, 0)</f>
+      <c r="P45" s="38">
+        <f t="shared" si="7"/>
+        <v>-35.330000000074506</v>
+      </c>
+      <c r="Q45" s="50">
+        <f t="shared" si="11"/>
+        <v>-1.2225336516860273E-5</v>
+      </c>
+      <c r="R45" s="47">
+        <f t="shared" si="8"/>
         <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="B46" s="17">
+      <c r="B46" s="16">
         <v>70390700</v>
       </c>
-      <c r="C46" s="42">
+      <c r="C46" s="41">
         <v>70378426.719999999</v>
       </c>
-      <c r="D46" s="52">
-        <f>B46-C46</f>
-        <v>12273.280000001192</v>
-      </c>
-      <c r="E46" s="54">
-        <f>IFERROR(D46/B46, 0)</f>
-        <v>1.7435939690898361E-4</v>
-      </c>
-      <c r="F46" s="51">
-        <f>_xlfn.RANK.EQ(E46, $E$2:$E$52, 0)</f>
+      <c r="D46" s="48">
+        <f t="shared" si="3"/>
+        <v>-12273.280000001192</v>
+      </c>
+      <c r="E46" s="50">
+        <f t="shared" si="9"/>
+        <v>-1.7435939690898361E-4</v>
+      </c>
+      <c r="F46" s="49">
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="G46" s="27" t="s">
+      <c r="G46" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="H46" s="17">
+      <c r="H46" s="16">
         <v>73467000</v>
       </c>
-      <c r="I46" s="18">
+      <c r="I46" s="17">
         <v>73442541.659999996</v>
       </c>
-      <c r="J46" s="41">
-        <f>H46-I46</f>
-        <v>24458.340000003576</v>
-      </c>
-      <c r="K46" s="54">
-        <f>IFERROR(J46/H46, 0)</f>
-        <v>3.3291600310348285E-4</v>
-      </c>
-      <c r="L46" s="48">
-        <f>_xlfn.RANK.EQ(K46, $K$2:$K$52, 0)</f>
+      <c r="J46" s="40">
+        <f t="shared" si="5"/>
+        <v>-24458.340000003576</v>
+      </c>
+      <c r="K46" s="50">
+        <f t="shared" si="10"/>
+        <v>-3.3291600310348285E-4</v>
+      </c>
+      <c r="L46" s="47">
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
-      <c r="M46" s="29" t="s">
+      <c r="M46" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="N46" s="17">
+      <c r="N46" s="16">
         <v>31282200</v>
       </c>
-      <c r="O46" s="18">
+      <c r="O46" s="17">
         <v>31282141.25</v>
       </c>
-      <c r="P46" s="39">
-        <f>N46-O46</f>
-        <v>58.75</v>
-      </c>
-      <c r="Q46" s="54">
-        <f>IFERROR(P46/N46, 0)</f>
-        <v>1.8780648419868168E-6</v>
-      </c>
-      <c r="R46" s="48">
-        <f>_xlfn.RANK.EQ(Q46, $Q$2:$Q$52, 0)</f>
+      <c r="P46" s="38">
+        <f t="shared" si="7"/>
+        <v>-58.75</v>
+      </c>
+      <c r="Q46" s="50">
+        <f t="shared" si="11"/>
+        <v>-1.8780648419868168E-6</v>
+      </c>
+      <c r="R46" s="47">
+        <f t="shared" si="8"/>
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B47" s="17">
+      <c r="B47" s="16">
         <v>124385900</v>
       </c>
-      <c r="C47" s="42">
+      <c r="C47" s="41">
         <v>124384360.159999</v>
       </c>
-      <c r="D47" s="52">
-        <f>B47-C47</f>
-        <v>1539.8400010019541</v>
-      </c>
-      <c r="E47" s="54">
-        <f>IFERROR(D47/B47, 0)</f>
-        <v>1.2379538203300809E-5</v>
-      </c>
-      <c r="F47" s="50">
-        <f>_xlfn.RANK.EQ(E47, $E$2:$E$52, 0)</f>
+      <c r="D47" s="48">
+        <f t="shared" si="3"/>
+        <v>-1539.8400010019541</v>
+      </c>
+      <c r="E47" s="50">
+        <f t="shared" si="9"/>
+        <v>-1.2379538203300809E-5</v>
+      </c>
+      <c r="F47" s="49">
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
-      <c r="G47" s="25" t="s">
+      <c r="G47" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="H47" s="17">
+      <c r="H47" s="16">
         <v>7352500</v>
       </c>
-      <c r="I47" s="18">
+      <c r="I47" s="17">
         <v>7350464.0800000001</v>
       </c>
-      <c r="J47" s="41">
-        <f>H47-I47</f>
-        <v>2035.9199999999255</v>
-      </c>
-      <c r="K47" s="54">
-        <f>IFERROR(J47/H47, 0)</f>
-        <v>2.769017341040361E-4</v>
-      </c>
-      <c r="L47" s="50">
-        <f>_xlfn.RANK.EQ(K47, $K$2:$K$52, 0)</f>
+      <c r="J47" s="40">
+        <f t="shared" si="5"/>
+        <v>-2035.9199999999255</v>
+      </c>
+      <c r="K47" s="50">
+        <f t="shared" si="10"/>
+        <v>-2.769017341040361E-4</v>
+      </c>
+      <c r="L47" s="47">
+        <f t="shared" si="6"/>
         <v>46</v>
       </c>
-      <c r="M47" s="30" t="s">
+      <c r="M47" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="N47" s="17">
+      <c r="N47" s="16">
         <v>130621400</v>
       </c>
-      <c r="O47" s="18">
+      <c r="O47" s="17">
         <v>130621283.53999899</v>
       </c>
-      <c r="P47" s="39">
-        <f>N47-O47</f>
-        <v>116.46000100672245</v>
-      </c>
-      <c r="Q47" s="54">
-        <f>IFERROR(P47/N47, 0)</f>
-        <v>8.9158438821450736E-7</v>
-      </c>
-      <c r="R47" s="50">
-        <f>_xlfn.RANK.EQ(Q47, $Q$2:$Q$52, 0)</f>
+      <c r="P47" s="38">
+        <f t="shared" si="7"/>
+        <v>-116.46000100672245</v>
+      </c>
+      <c r="Q47" s="50">
+        <f t="shared" si="11"/>
+        <v>-8.9158438821450736E-7</v>
+      </c>
+      <c r="R47" s="47">
+        <f t="shared" si="8"/>
         <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B48" s="17">
+      <c r="B48" s="16">
         <v>0</v>
       </c>
-      <c r="C48" s="42">
+      <c r="C48" s="41">
         <v>0</v>
       </c>
-      <c r="D48" s="52">
-        <f>B48-C48</f>
+      <c r="D48" s="48">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E48" s="54">
-        <f>IFERROR(D48/B48, 0)</f>
+      <c r="E48" s="50">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F48" s="51">
-        <f>_xlfn.RANK.EQ(E48, $E$2:$E$52, 0)</f>
+      <c r="F48" s="49">
+        <f t="shared" si="4"/>
         <v>47</v>
       </c>
-      <c r="G48" s="27" t="s">
+      <c r="G48" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="H48" s="17">
+      <c r="H48" s="16">
         <v>131849400</v>
       </c>
-      <c r="I48" s="18">
+      <c r="I48" s="17">
         <v>131839624.37</v>
       </c>
-      <c r="J48" s="41">
-        <f>H48-I48</f>
-        <v>9775.6299999952316</v>
-      </c>
-      <c r="K48" s="54">
-        <f>IFERROR(J48/H48, 0)</f>
-        <v>7.4142392760188761E-5</v>
-      </c>
-      <c r="L48" s="51">
-        <f>_xlfn.RANK.EQ(K48, $K$2:$K$52, 0)</f>
+      <c r="J48" s="40">
+        <f t="shared" si="5"/>
+        <v>-9775.6299999952316</v>
+      </c>
+      <c r="K48" s="50">
+        <f t="shared" si="10"/>
+        <v>-7.4142392760188761E-5</v>
+      </c>
+      <c r="L48" s="47">
+        <f t="shared" si="6"/>
         <v>47</v>
       </c>
-      <c r="M48" s="29" t="s">
+      <c r="M48" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="N48" s="17">
+      <c r="N48" s="16">
         <v>199954600</v>
       </c>
-      <c r="O48" s="18">
+      <c r="O48" s="17">
         <v>199954563.74999899</v>
       </c>
-      <c r="P48" s="39">
-        <f>N48-O48</f>
-        <v>36.250001013278961</v>
-      </c>
-      <c r="Q48" s="54">
-        <f>IFERROR(P48/N48, 0)</f>
-        <v>1.8129115815929696E-7</v>
-      </c>
-      <c r="R48" s="48">
-        <f>_xlfn.RANK.EQ(Q48, $Q$2:$Q$52, 0)</f>
+      <c r="P48" s="38">
+        <f t="shared" si="7"/>
+        <v>-36.250001013278961</v>
+      </c>
+      <c r="Q48" s="50">
+        <f t="shared" si="11"/>
+        <v>-1.8129115815929696E-7</v>
+      </c>
+      <c r="R48" s="47">
+        <f t="shared" si="8"/>
         <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B49" s="17">
+      <c r="B49" s="16">
         <v>0</v>
       </c>
-      <c r="C49" s="42">
+      <c r="C49" s="41">
         <v>0</v>
       </c>
-      <c r="D49" s="52">
-        <f>B49-C49</f>
+      <c r="D49" s="48">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E49" s="54">
-        <f>IFERROR(D49/B49, 0)</f>
+      <c r="E49" s="50">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F49" s="50">
-        <f>_xlfn.RANK.EQ(E49, $E$2:$E$52, 0)</f>
+      <c r="F49" s="49">
+        <f t="shared" si="4"/>
         <v>47</v>
       </c>
-      <c r="G49" s="25" t="s">
+      <c r="G49" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="H49" s="17">
+      <c r="H49" s="16">
         <v>0</v>
       </c>
-      <c r="I49" s="18">
+      <c r="I49" s="17">
         <v>0</v>
       </c>
-      <c r="J49" s="41">
-        <f>H49-I49</f>
+      <c r="J49" s="40">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K49" s="54">
-        <f>IFERROR(J49/H49, 0)</f>
+      <c r="K49" s="50">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L49" s="50">
-        <f>_xlfn.RANK.EQ(K49, $K$2:$K$52, 0)</f>
+      <c r="L49" s="47">
+        <f t="shared" si="6"/>
         <v>48</v>
       </c>
-      <c r="M49" s="30" t="s">
+      <c r="M49" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="N49" s="17">
+      <c r="N49" s="16">
         <v>0</v>
       </c>
-      <c r="O49" s="18">
+      <c r="O49" s="17">
         <v>0</v>
       </c>
-      <c r="P49" s="39">
-        <f>N49-O49</f>
+      <c r="P49" s="38">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q49" s="54">
-        <f>IFERROR(P49/N49, 0)</f>
+      <c r="Q49" s="50">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="R49" s="50">
-        <f>_xlfn.RANK.EQ(Q49, $Q$2:$Q$52, 0)</f>
+      <c r="R49" s="47">
+        <f t="shared" si="8"/>
         <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A50" s="25" t="s">
+      <c r="A50" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="17">
+      <c r="B50" s="16">
         <v>0</v>
       </c>
-      <c r="C50" s="42">
+      <c r="C50" s="41">
         <v>0</v>
       </c>
-      <c r="D50" s="52">
-        <f>B50-C50</f>
+      <c r="D50" s="48">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E50" s="54">
-        <f>IFERROR(D50/B50, 0)</f>
+      <c r="E50" s="50">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F50" s="51">
-        <f>_xlfn.RANK.EQ(E50, $E$2:$E$52, 0)</f>
+      <c r="F50" s="49">
+        <f t="shared" si="4"/>
         <v>47</v>
       </c>
-      <c r="G50" s="27" t="s">
+      <c r="G50" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="H50" s="17">
+      <c r="H50" s="16">
         <v>0</v>
       </c>
-      <c r="I50" s="18">
+      <c r="I50" s="17">
         <v>0</v>
       </c>
-      <c r="J50" s="41">
-        <f>H50-I50</f>
+      <c r="J50" s="40">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K50" s="54">
-        <f>IFERROR(J50/H50, 0)</f>
+      <c r="K50" s="50">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L50" s="51">
-        <f>_xlfn.RANK.EQ(K50, $K$2:$K$52, 0)</f>
+      <c r="L50" s="47">
+        <f t="shared" si="6"/>
         <v>48</v>
       </c>
-      <c r="M50" s="29" t="s">
+      <c r="M50" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="N50" s="17">
+      <c r="N50" s="16">
         <v>0</v>
       </c>
-      <c r="O50" s="18">
+      <c r="O50" s="17">
         <v>0</v>
       </c>
-      <c r="P50" s="39">
-        <f>N50-O50</f>
+      <c r="P50" s="38">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q50" s="54">
-        <f>IFERROR(P50/N50, 0)</f>
+      <c r="Q50" s="50">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="R50" s="51">
-        <f>_xlfn.RANK.EQ(Q50, $Q$2:$Q$52, 0)</f>
+      <c r="R50" s="47">
+        <f t="shared" si="8"/>
         <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A51" s="25" t="s">
+      <c r="A51" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="B51" s="17">
+      <c r="B51" s="16">
         <v>832600</v>
       </c>
-      <c r="C51" s="42">
+      <c r="C51" s="41">
         <v>832600</v>
       </c>
-      <c r="D51" s="52">
-        <f>B51-C51</f>
+      <c r="D51" s="48">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E51" s="54">
-        <f>IFERROR(D51/B51, 0)</f>
+      <c r="E51" s="50">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F51" s="50">
-        <f>_xlfn.RANK.EQ(E51, $E$2:$E$52, 0)</f>
+      <c r="F51" s="49">
+        <f t="shared" si="4"/>
         <v>47</v>
       </c>
-      <c r="G51" s="25" t="s">
+      <c r="G51" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="H51" s="17">
+      <c r="H51" s="16">
         <v>0</v>
       </c>
-      <c r="I51" s="18">
+      <c r="I51" s="17">
         <v>0</v>
       </c>
-      <c r="J51" s="41">
-        <f>H51-I51</f>
+      <c r="J51" s="40">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K51" s="54">
-        <f>IFERROR(J51/H51, 0)</f>
+      <c r="K51" s="50">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L51" s="50">
-        <f>_xlfn.RANK.EQ(K51, $K$2:$K$52, 0)</f>
+      <c r="L51" s="47">
+        <f t="shared" si="6"/>
         <v>48</v>
       </c>
-      <c r="M51" s="30" t="s">
+      <c r="M51" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="N51" s="17">
+      <c r="N51" s="16">
         <v>0</v>
       </c>
-      <c r="O51" s="18">
+      <c r="O51" s="17">
         <v>0</v>
       </c>
-      <c r="P51" s="39">
-        <f>N51-O51</f>
+      <c r="P51" s="38">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q51" s="54">
-        <f>IFERROR(P51/N51, 0)</f>
+      <c r="Q51" s="50">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="R51" s="50">
-        <f>_xlfn.RANK.EQ(Q51, $Q$2:$Q$52, 0)</f>
+      <c r="R51" s="47">
+        <f t="shared" si="8"/>
         <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B52" s="17">
+      <c r="B52" s="16">
         <v>156049100</v>
       </c>
-      <c r="C52" s="42">
+      <c r="C52" s="41">
         <v>156545919.90000001</v>
       </c>
-      <c r="D52" s="52">
-        <f>B52-C52</f>
-        <v>-496819.90000000596</v>
-      </c>
-      <c r="E52" s="54">
-        <f>IFERROR(D52/B52, 0)</f>
-        <v>-3.1837408866824991E-3</v>
-      </c>
-      <c r="F52" s="51">
-        <f>_xlfn.RANK.EQ(E52, $E$2:$E$52, 0)</f>
+      <c r="D52" s="48">
+        <f t="shared" si="3"/>
+        <v>496819.90000000596</v>
+      </c>
+      <c r="E52" s="50">
+        <f t="shared" si="9"/>
+        <v>3.1837408866824991E-3</v>
+      </c>
+      <c r="F52" s="49">
+        <f t="shared" si="4"/>
         <v>51</v>
       </c>
-      <c r="G52" s="27" t="s">
+      <c r="G52" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="H52" s="17">
+      <c r="H52" s="16">
         <v>859100</v>
       </c>
-      <c r="I52" s="18">
+      <c r="I52" s="17">
         <v>859100</v>
       </c>
-      <c r="J52" s="41">
-        <f>H52-I52</f>
+      <c r="J52" s="40">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K52" s="54">
-        <f>IFERROR(J52/H52, 0)</f>
+      <c r="K52" s="50">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L52" s="51">
-        <f>_xlfn.RANK.EQ(K52, $K$2:$K$52, 0)</f>
+      <c r="L52" s="47">
+        <f t="shared" si="6"/>
         <v>48</v>
       </c>
-      <c r="M52" s="29" t="s">
+      <c r="M52" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="N52" s="17">
+      <c r="N52" s="16">
         <v>843200</v>
       </c>
-      <c r="O52" s="18">
+      <c r="O52" s="17">
         <v>843200</v>
       </c>
-      <c r="P52" s="39">
-        <f>N52-O52</f>
+      <c r="P52" s="38">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Q52" s="54">
-        <f>IFERROR(P52/N52, 0)</f>
+      <c r="Q52" s="50">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="R52" s="51">
-        <f>_xlfn.RANK.EQ(Q52, $Q$2:$Q$52, 0)</f>
+      <c r="R52" s="47">
+        <f t="shared" si="8"/>
         <v>48</v>
       </c>
     </row>
@@ -5993,120 +6014,125 @@
       <c r="A54" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="F54" s="5"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A55" s="21" t="s">
+      <c r="A55" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="33" t="s">
+      <c r="B55" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C55" s="34" t="s">
+      <c r="C55" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="37" t="s">
+      <c r="D55" s="36" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A56" s="44" t="s">
+      <c r="A56" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B56" s="13">
-        <f>VLOOKUP($A56, $A$1:$R$52, 2, FALSE) - VLOOKUP($A56, $A$1:$R$52, 3, FALSE)</f>
-        <v>36209.630000000005</v>
-      </c>
-      <c r="C56" s="43">
-        <f>VLOOKUP($A56, $G$1:$R$52, 2, FALSE) - VLOOKUP($A56, $G$1:$R$52, 3, FALSE)</f>
+      <c r="B56" s="12">
+        <f>VLOOKUP(A56, $A$2:$R$52, MATCH(B$55, $A$1:$R$1, 0))</f>
+        <v>-36209.630000000005</v>
+      </c>
+      <c r="C56" s="42">
+        <f t="shared" ref="C56:C61" si="12">VLOOKUP($A56, $G$1:$R$52, 2, FALSE) - VLOOKUP($A56, $G$1:$R$52, 3, FALSE)</f>
         <v>27292.159999999974</v>
       </c>
-      <c r="D56" s="39">
-        <f>VLOOKUP($A56, $M$1:$R$52, 2, FALSE) - VLOOKUP($A56, $M$1:$R$52, 3, FALSE)</f>
+      <c r="D56" s="38">
+        <f t="shared" ref="D56:D61" si="13">VLOOKUP($A56, $M$1:$R$52, 2, FALSE) - VLOOKUP($A56, $M$1:$R$52, 3, FALSE)</f>
         <v>9181.0800000000163</v>
       </c>
+      <c r="J56">
+        <f>VLOOKUP(A56, $A$2:$R$52, MATCH(B$55, $A$1:$R$1, 0))</f>
+        <v>-36209.630000000005</v>
+      </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A57" s="45" t="s">
+      <c r="A57" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B57" s="13">
+      <c r="B57" s="12">
         <f>VLOOKUP($A57, $A$1:$R$52, 2, FALSE) - VLOOKUP($A57, $A$1:$R$52, 3, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="C57" s="43">
-        <f>VLOOKUP($A57, $G$1:$R$52, 2, FALSE) - VLOOKUP($A57, $G$1:$R$52, 3, FALSE)</f>
+      <c r="C57" s="42">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="D57" s="39">
-        <f>VLOOKUP($A57, $M$1:$R$52, 2, FALSE) - VLOOKUP($A57, $M$1:$R$52, 3, FALSE)</f>
+      <c r="D57" s="38">
+        <f t="shared" si="13"/>
         <v>311228.08999999997</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A58" s="44" t="s">
+      <c r="A58" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B58" s="13">
-        <f>VLOOKUP($A58, $A$1:$R$52, 2, FALSE) - VLOOKUP($A58, $A$1:$R$52, 3, FALSE)</f>
+      <c r="B58" s="12">
+        <f t="shared" ref="B58:B61" si="14">VLOOKUP($A58, $A$1:$R$52, 2, FALSE) - VLOOKUP($A58, $A$1:$R$52, 3, FALSE)</f>
         <v>149396.10000000987</v>
       </c>
-      <c r="C58" s="43">
-        <f>VLOOKUP($A58, $G$1:$R$52, 2, FALSE) - VLOOKUP($A58, $G$1:$R$52, 3, FALSE)</f>
+      <c r="C58" s="42">
+        <f t="shared" si="12"/>
         <v>189254.06000000006</v>
       </c>
-      <c r="D58" s="39">
-        <f>VLOOKUP($A58, $M$1:$R$52, 2, FALSE) - VLOOKUP($A58, $M$1:$R$52, 3, FALSE)</f>
+      <c r="D58" s="38">
+        <f t="shared" si="13"/>
         <v>374962.91000000015</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A59" s="45" t="s">
+      <c r="A59" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="B59" s="13">
-        <f>VLOOKUP($A59, $A$1:$R$52, 2, FALSE) - VLOOKUP($A59, $A$1:$R$52, 3, FALSE)</f>
+      <c r="B59" s="12">
+        <f t="shared" si="14"/>
         <v>12230.810000000056</v>
       </c>
-      <c r="C59" s="43">
-        <f>VLOOKUP($A59, $G$1:$R$52, 2, FALSE) - VLOOKUP($A59, $G$1:$R$52, 3, FALSE)</f>
+      <c r="C59" s="42">
+        <f t="shared" si="12"/>
         <v>45485.580000000075</v>
       </c>
-      <c r="D59" s="39">
-        <f>VLOOKUP($A59, $M$1:$R$52, 2, FALSE) - VLOOKUP($A59, $M$1:$R$52, 3, FALSE)</f>
+      <c r="D59" s="38">
+        <f t="shared" si="13"/>
         <v>72.879999999888241</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A60" s="44" t="s">
+      <c r="A60" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="B60" s="13">
-        <f>VLOOKUP($A60, $A$1:$R$52, 2, FALSE) - VLOOKUP($A60, $A$1:$R$52, 3, FALSE)</f>
+      <c r="B60" s="12">
+        <f t="shared" si="14"/>
         <v>4950.4699999999721</v>
       </c>
-      <c r="C60" s="43">
-        <f>VLOOKUP($A60, $G$1:$R$52, 2, FALSE) - VLOOKUP($A60, $G$1:$R$52, 3, FALSE)</f>
+      <c r="C60" s="42">
+        <f t="shared" si="12"/>
         <v>8005.7900000010268</v>
       </c>
-      <c r="D60" s="39">
-        <f>VLOOKUP($A60, $M$1:$R$52, 2, FALSE) - VLOOKUP($A60, $M$1:$R$52, 3, FALSE)</f>
+      <c r="D60" s="38">
+        <f t="shared" si="13"/>
         <v>1724.9000000000233</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A61" s="45" t="s">
+      <c r="A61" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="B61" s="13">
-        <f>VLOOKUP($A61, $A$1:$R$52, 2, FALSE) - VLOOKUP($A61, $A$1:$R$52, 3, FALSE)</f>
+      <c r="B61" s="12">
+        <f t="shared" si="14"/>
         <v>184239.79000001028</v>
       </c>
-      <c r="C61" s="43">
-        <f>VLOOKUP($A61, $G$1:$R$52, 2, FALSE) - VLOOKUP($A61, $G$1:$R$52, 3, FALSE)</f>
+      <c r="C61" s="42">
+        <f t="shared" si="12"/>
         <v>133456.33000001032</v>
       </c>
-      <c r="D61" s="39">
-        <f>VLOOKUP($A61, $M$1:$R$52, 2, FALSE) - VLOOKUP($A61, $M$1:$R$52, 3, FALSE)</f>
+      <c r="D61" s="38">
+        <f t="shared" si="13"/>
         <v>82077.349999999627</v>
       </c>
     </row>
@@ -6116,312 +6142,384 @@
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.45">
-      <c r="A64" s="21" t="s">
+      <c r="A64" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B64" s="33" t="s">
+      <c r="B64" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C64" s="34" t="s">
+      <c r="C64" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D64" s="37" t="s">
+      <c r="D64" s="36" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A65" s="44" t="s">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A65" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B65" s="13">
-        <f>_xlfn.XLOOKUP($A65, $A$1:$A$52, $B$1:$B$52) - _xlfn.XLOOKUP($A65, $A$1:$A$52, $C$1:$C$52)</f>
-        <v>36209.630000000005</v>
-      </c>
-      <c r="C65" s="43">
-        <f>_xlfn.XLOOKUP($A65, $G$1:$G$52, $H$1:$H$52) - _xlfn.XLOOKUP($A65, $G$1:$G$52, $I$1:$I$52)</f>
-        <v>27292.159999999974</v>
-      </c>
-      <c r="D65" s="39">
-        <f>_xlfn.XLOOKUP($A65, $M$1:$M$52, $N$1:$N$52) - _xlfn.XLOOKUP($A65, $M$1:$M$52, $O$1:$O$52)</f>
-        <v>9181.0800000000163</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A66" s="45" t="s">
+      <c r="B65" s="12">
+        <f>_xlfn.XLOOKUP(A65, $A$1:$A$52, $D$1:$D$52)</f>
+        <v>-36209.630000000005</v>
+      </c>
+      <c r="C65" s="42">
+        <f>_xlfn.XLOOKUP($A65, $G$1:$G$52, $J$1:$J$52)</f>
+        <v>-27292.159999999974</v>
+      </c>
+      <c r="D65" s="38">
+        <f>_xlfn.XLOOKUP($A65, $M$1:$M$52, $P$1:$P$52)</f>
+        <v>-9181.0800000000163</v>
+      </c>
+      <c r="J65">
+        <f>_xlfn.XLOOKUP(A65, $A$1:$A$52, $D$1:$D$52)</f>
+        <v>-36209.630000000005</v>
+      </c>
+      <c r="L65">
+        <f>_xlfn.XLOOKUP($A65, $G$1:$G$52, $J$1:$J$52)</f>
+        <v>-27292.159999999974</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A66" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B66" s="13">
-        <f>_xlfn.XLOOKUP($A66, $A$1:$A$52, $B$1:$B$52) - _xlfn.XLOOKUP($A66, $A$1:$A$52, $C$1:$C$52)</f>
+      <c r="B66" s="12">
+        <f t="shared" ref="B66:B70" si="15">_xlfn.XLOOKUP(A66, $A$1:$A$52, $D$1:$D$52)</f>
         <v>0</v>
       </c>
-      <c r="C66" s="43">
-        <f>_xlfn.XLOOKUP($A66, $G$1:$G$52, $H$1:$H$52) - _xlfn.XLOOKUP($A66, $G$1:$G$52, $I$1:$I$52)</f>
+      <c r="C66" s="42">
+        <f t="shared" ref="C66:C70" si="16">_xlfn.XLOOKUP($A66, $G$1:$G$52, $J$1:$J$52)</f>
         <v>0</v>
       </c>
-      <c r="D66" s="39">
-        <f>_xlfn.XLOOKUP($A66, $M$1:$M$52, $N$1:$N$52) - _xlfn.XLOOKUP($A66, $M$1:$M$52, $O$1:$O$52)</f>
-        <v>311228.08999999997</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A67" s="44" t="s">
+      <c r="D66" s="38">
+        <f t="shared" ref="D66:D70" si="17">_xlfn.XLOOKUP($A66, $M$1:$M$52, $P$1:$P$52)</f>
+        <v>-311228.08999999997</v>
+      </c>
+      <c r="J66">
+        <f t="shared" ref="J66:J70" si="18">_xlfn.XLOOKUP(A66, $A$1:$A$52, $D$1:$D$52)</f>
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <f t="shared" ref="L66:L70" si="19">_xlfn.XLOOKUP($A66, $G$1:$G$52, $J$1:$J$52)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A67" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B67" s="13">
-        <f>_xlfn.XLOOKUP($A67, $A$1:$A$52, $B$1:$B$52) - _xlfn.XLOOKUP($A67, $A$1:$A$52, $C$1:$C$52)</f>
-        <v>149396.10000000987</v>
-      </c>
-      <c r="C67" s="43">
-        <f>_xlfn.XLOOKUP($A67, $G$1:$G$52, $H$1:$H$52) - _xlfn.XLOOKUP($A67, $G$1:$G$52, $I$1:$I$52)</f>
-        <v>189254.06000000006</v>
-      </c>
-      <c r="D67" s="39">
-        <f>_xlfn.XLOOKUP($A67, $M$1:$M$52, $N$1:$N$52) - _xlfn.XLOOKUP($A67, $M$1:$M$52, $O$1:$O$52)</f>
-        <v>374962.91000000015</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A68" s="45" t="s">
+      <c r="B67" s="12">
+        <f t="shared" si="15"/>
+        <v>-149396.10000000987</v>
+      </c>
+      <c r="C67" s="42">
+        <f t="shared" si="16"/>
+        <v>-189254.06000000006</v>
+      </c>
+      <c r="D67" s="38">
+        <f t="shared" si="17"/>
+        <v>-374962.91000000015</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="18"/>
+        <v>-149396.10000000987</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="19"/>
+        <v>-189254.06000000006</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A68" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="B68" s="13">
-        <f>_xlfn.XLOOKUP($A68, $A$1:$A$52, $B$1:$B$52) - _xlfn.XLOOKUP($A68, $A$1:$A$52, $C$1:$C$52)</f>
-        <v>12230.810000000056</v>
-      </c>
-      <c r="C68" s="43">
-        <f>_xlfn.XLOOKUP($A68, $G$1:$G$52, $H$1:$H$52) - _xlfn.XLOOKUP($A68, $G$1:$G$52, $I$1:$I$52)</f>
-        <v>45485.580000000075</v>
-      </c>
-      <c r="D68" s="39">
-        <f>_xlfn.XLOOKUP($A68, $M$1:$M$52, $N$1:$N$52) - _xlfn.XLOOKUP($A68, $M$1:$M$52, $O$1:$O$52)</f>
-        <v>72.879999999888241</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A69" s="44" t="s">
+      <c r="B68" s="12">
+        <f t="shared" si="15"/>
+        <v>-12230.810000000056</v>
+      </c>
+      <c r="C68" s="42">
+        <f t="shared" si="16"/>
+        <v>-45485.580000000075</v>
+      </c>
+      <c r="D68" s="38">
+        <f t="shared" si="17"/>
+        <v>-72.879999999888241</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="18"/>
+        <v>-12230.810000000056</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="19"/>
+        <v>-45485.580000000075</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A69" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="B69" s="13">
-        <f>_xlfn.XLOOKUP($A69, $A$1:$A$52, $B$1:$B$52) - _xlfn.XLOOKUP($A69, $A$1:$A$52, $C$1:$C$52)</f>
-        <v>4950.4699999999721</v>
-      </c>
-      <c r="C69" s="43">
-        <f>_xlfn.XLOOKUP($A69, $G$1:$G$52, $H$1:$H$52) - _xlfn.XLOOKUP($A69, $G$1:$G$52, $I$1:$I$52)</f>
-        <v>8005.7900000010268</v>
-      </c>
-      <c r="D69" s="39">
-        <f>_xlfn.XLOOKUP($A69, $M$1:$M$52, $N$1:$N$52) - _xlfn.XLOOKUP($A69, $M$1:$M$52, $O$1:$O$52)</f>
-        <v>1724.9000000000233</v>
-      </c>
-      <c r="K69" s="16"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A70" s="45" t="s">
+      <c r="B69" s="12">
+        <f t="shared" si="15"/>
+        <v>-4950.4699999999721</v>
+      </c>
+      <c r="C69" s="42">
+        <f t="shared" si="16"/>
+        <v>-8005.7900000010268</v>
+      </c>
+      <c r="D69" s="38">
+        <f t="shared" si="17"/>
+        <v>-1724.9000000000233</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="18"/>
+        <v>-4950.4699999999721</v>
+      </c>
+      <c r="K69" s="15"/>
+      <c r="L69">
+        <f t="shared" si="19"/>
+        <v>-8005.7900000010268</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A70" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="B70" s="13">
-        <f>_xlfn.XLOOKUP($A70, $A$1:$A$52, $B$1:$B$52) - _xlfn.XLOOKUP($A70, $A$1:$A$52, $C$1:$C$52)</f>
-        <v>184239.79000001028</v>
-      </c>
-      <c r="C70" s="43">
-        <f>_xlfn.XLOOKUP($A70, $G$1:$G$52, $H$1:$H$52) - _xlfn.XLOOKUP($A70, $G$1:$G$52, $I$1:$I$52)</f>
-        <v>133456.33000001032</v>
-      </c>
-      <c r="D70" s="39">
-        <f>_xlfn.XLOOKUP($A70, $M$1:$M$52, $N$1:$N$52) - _xlfn.XLOOKUP($A70, $M$1:$M$52, $O$1:$O$52)</f>
-        <v>82077.349999999627</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="B70" s="12">
+        <f t="shared" si="15"/>
+        <v>-184239.79000001028</v>
+      </c>
+      <c r="C70" s="42">
+        <f t="shared" si="16"/>
+        <v>-133456.33000001032</v>
+      </c>
+      <c r="D70" s="38">
+        <f t="shared" si="17"/>
+        <v>-82077.349999999627</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="18"/>
+        <v>-184239.79000001028</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="19"/>
+        <v>-133456.33000001032</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A72" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A73" s="21" t="s">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A73" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B73" s="33" t="s">
+      <c r="B73" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C73" s="34" t="s">
+      <c r="C73" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D73" s="37" t="s">
+      <c r="D73" s="36" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A74" s="44" t="s">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A74" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B74" s="13">
-        <f>INDEX($B$1:$B$52, MATCH(A74, $A$1:$A$52, 0))- INDEX($C$1:$C$52, MATCH(A74, $A$1:$A$52, 0))</f>
-        <v>36209.630000000005</v>
-      </c>
-      <c r="C74" s="43">
+      <c r="B74" s="12">
+        <f>INDEX($A$2:$R$52,MATCH($A74,$A$2:$A$52,0), MATCH(B$73, $A$1:$R$1,0))</f>
+        <v>-36209.630000000005</v>
+      </c>
+      <c r="C74" s="42">
         <f>INDEX($H$1:$H$52, MATCH(A74, $G$1:$G$52, 0))- INDEX($I$1:$I$52, MATCH(A74, $G$1:$G$52, 0))</f>
         <v>27292.159999999974</v>
       </c>
-      <c r="D74" s="39">
+      <c r="D74" s="38">
         <f>INDEX($N$1:$N$52, MATCH(A74, $M$1:$M$52, 0))- INDEX($O$1:$O$52, MATCH(A74, $M$1:$M$52, 0))</f>
         <v>9181.0800000000163</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A75" s="45" t="s">
+      <c r="J74">
+        <f>INDEX($A$2:$R$52,MATCH($A74,$A$2:$A$52,0), MATCH(B$73, $A$1:$R$1,0))</f>
+        <v>-36209.630000000005</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A75" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B75" s="13">
-        <f>INDEX($B$1:$B$52, MATCH(A75, $A$1:$A$52, 0))- INDEX($C$1:$C$52, MATCH(A75, $A$1:$A$52, 0))</f>
+      <c r="B75" s="12">
+        <f t="shared" ref="B75:B79" si="20">INDEX($A$2:$R$52,MATCH($A75,$A$2:$A$52,0), MATCH(B$73, $A$1:$R$1,0))</f>
         <v>0</v>
       </c>
-      <c r="C75" s="43">
-        <f t="shared" ref="C75:C79" si="0">INDEX($H$1:$H$52, MATCH(A75, $G$1:$G$52, 0))- INDEX($I$1:$I$52, MATCH(A75, $G$1:$G$52, 0))</f>
+      <c r="C75" s="42">
+        <f t="shared" ref="C75:C79" si="21">INDEX($H$1:$H$52, MATCH(A75, $G$1:$G$52, 0))- INDEX($I$1:$I$52, MATCH(A75, $G$1:$G$52, 0))</f>
         <v>0</v>
       </c>
-      <c r="D75" s="39">
-        <f t="shared" ref="D75:D79" si="1">INDEX($N$1:$N$52, MATCH(A75, $M$1:$M$52, 0))- INDEX($O$1:$O$52, MATCH(A75, $M$1:$M$52, 0))</f>
+      <c r="D75" s="38">
+        <f t="shared" ref="D75:D79" si="22">INDEX($N$1:$N$52, MATCH(A75, $M$1:$M$52, 0))- INDEX($O$1:$O$52, MATCH(A75, $M$1:$M$52, 0))</f>
         <v>311228.08999999997</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A76" s="44" t="s">
+      <c r="J75">
+        <f t="shared" ref="J75:J79" si="23">INDEX($A$2:$R$52,MATCH($A75,$A$2:$A$52,0), MATCH(B$73, $A$1:$R$1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A76" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B76" s="13">
-        <f>INDEX($B$1:$B$52, MATCH(A76, $A$1:$A$52, 0))- INDEX($C$1:$C$52, MATCH(A76, $A$1:$A$52, 0))</f>
-        <v>149396.10000000987</v>
-      </c>
-      <c r="C76" s="43">
-        <f t="shared" si="0"/>
+      <c r="B76" s="12">
+        <f t="shared" si="20"/>
+        <v>-149396.10000000987</v>
+      </c>
+      <c r="C76" s="42">
+        <f t="shared" si="21"/>
         <v>189254.06000000006</v>
       </c>
-      <c r="D76" s="39">
-        <f t="shared" si="1"/>
+      <c r="D76" s="38">
+        <f t="shared" si="22"/>
         <v>374962.91000000015</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A77" s="45" t="s">
+      <c r="J76">
+        <f t="shared" si="23"/>
+        <v>-149396.10000000987</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A77" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="B77" s="13">
-        <f>INDEX($B$1:$B$52, MATCH(A77, $A$1:$A$52, 0))- INDEX($C$1:$C$52, MATCH(A77, $A$1:$A$52, 0))</f>
-        <v>12230.810000000056</v>
-      </c>
-      <c r="C77" s="43">
-        <f t="shared" si="0"/>
+      <c r="B77" s="12">
+        <f t="shared" si="20"/>
+        <v>-12230.810000000056</v>
+      </c>
+      <c r="C77" s="42">
+        <f t="shared" si="21"/>
         <v>45485.580000000075</v>
       </c>
-      <c r="D77" s="39">
-        <f t="shared" si="1"/>
+      <c r="D77" s="38">
+        <f t="shared" si="22"/>
         <v>72.879999999888241</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A78" s="44" t="s">
+      <c r="J77">
+        <f t="shared" si="23"/>
+        <v>-12230.810000000056</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A78" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="B78" s="13">
-        <f>INDEX($B$1:$B$52, MATCH(A78, $A$1:$A$52, 0))- INDEX($C$1:$C$52, MATCH(A78, $A$1:$A$52, 0))</f>
-        <v>4950.4699999999721</v>
-      </c>
-      <c r="C78" s="43">
-        <f t="shared" si="0"/>
+      <c r="B78" s="12">
+        <f t="shared" si="20"/>
+        <v>-4950.4699999999721</v>
+      </c>
+      <c r="C78" s="42">
+        <f t="shared" si="21"/>
         <v>8005.7900000010268</v>
       </c>
-      <c r="D78" s="39">
-        <f t="shared" si="1"/>
+      <c r="D78" s="38">
+        <f t="shared" si="22"/>
         <v>1724.9000000000233</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A79" s="45" t="s">
+      <c r="J78">
+        <f t="shared" si="23"/>
+        <v>-4950.4699999999721</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A79" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="B79" s="13">
-        <f>INDEX($B$1:$B$52, MATCH(A79, $A$1:$A$52, 0))- INDEX($C$1:$C$52, MATCH(A79, $A$1:$A$52, 0))</f>
-        <v>184239.79000001028</v>
-      </c>
-      <c r="C79" s="43">
-        <f t="shared" si="0"/>
+      <c r="B79" s="12">
+        <f t="shared" si="20"/>
+        <v>-184239.79000001028</v>
+      </c>
+      <c r="C79" s="42">
+        <f t="shared" si="21"/>
         <v>133456.33000001032</v>
       </c>
-      <c r="D79" s="39">
-        <f t="shared" si="1"/>
+      <c r="D79" s="38">
+        <f t="shared" si="22"/>
         <v>82077.349999999627</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="J79">
+        <f t="shared" si="23"/>
+        <v>-184239.79000001028</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A81" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A82" s="21" t="s">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A82" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B82" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C82" s="9"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A83" s="11"/>
-      <c r="B83" s="38" t="s">
+      <c r="B82" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82" s="8"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A83" s="10"/>
+      <c r="B83" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="C83" s="31" t="s">
+      <c r="C83" s="30" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A84" s="33" t="s">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A84" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="B84" s="14">
+      <c r="B84" s="13">
         <f>INDEX($B$2:$B$52, MATCH($B$82, $A$2:$A$52, 0))</f>
-        <v>1382900</v>
-      </c>
-      <c r="C84" s="15">
+        <v>356640100</v>
+      </c>
+      <c r="C84" s="14">
         <f>INDEX($C$2:$C$52, MATCH($B$82, $A$2:$A$52, 0))</f>
-        <v>1250442.02</v>
-      </c>
-      <c r="D84" s="10"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A85" s="35" t="s">
+        <v>341243679.13</v>
+      </c>
+      <c r="D84" s="9"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A85" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="B85" s="14">
+      <c r="B85" s="13">
         <f>INDEX($H$2:$H$52, MATCH($B$82, $A$2:$A$52, 0))</f>
-        <v>1294400</v>
-      </c>
-      <c r="C85" s="15">
+        <v>334800</v>
+      </c>
+      <c r="C85" s="14">
         <f>INDEX($I$2:$I$52, MATCH($B$82, $A$2:$A$52, 0))</f>
-        <v>1114242.27999999</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A86" s="37" t="s">
+        <v>312433.70999999897</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A86" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="B86" s="14">
+      <c r="B86" s="13">
         <f>INDEX($N$2:$N$52, MATCH($B$82, $A$2:$A$52, 0))</f>
-        <v>2910600</v>
-      </c>
-      <c r="C86" s="15">
+        <v>376548600</v>
+      </c>
+      <c r="C86" s="14">
         <f>INDEX($O$2:$O$52, MATCH($B$82, $A$2:$A$52, 0))</f>
-        <v>2535637.09</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+        <v>355279492.22999901</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A88" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>77</v>
       </c>
@@ -6437,7 +6535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B90" s="6" t="s">
         <v>0</v>
       </c>
@@ -6457,36 +6555,51 @@
         <v>78</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A91" s="32" t="s">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A91" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="C91" s="4"/>
+      <c r="B91" t="str" cm="1">
+        <f t="array" ref="B91">_xlfn.XLOOKUP($B$89, INDEX($A$2:$R$52, ,MATCH(A91&amp;"_rank", $A$1:$R1,0)),  $A$2:$A$52)</f>
+        <v>Clerk and Master - Chancery</v>
+      </c>
+      <c r="C91" s="4" cm="1">
+        <f t="array" ref="C91">_xlfn.XLOOKUP($B$89,INDEX($A$2:$R$52,,MATCH(A91&amp;"_rank",$A$1:$R1,0)),INDEX($A$2:$R$52,,MATCH(A91&amp;"_diff_pct",$A$1:$R$1,0)))</f>
+        <v>-0.15235918433091292</v>
+      </c>
       <c r="E91" s="4"/>
       <c r="G91" s="4"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A92" s="40" t="s">
+      <c r="J91" t="str" cm="1">
+        <f t="array" ref="J91">_xlfn.XLOOKUP($B$89, INDEX($A$2:$R$52, ,MATCH(A91&amp;"_rank", $A$1:$R1,0)),  $A$2:$A$52)</f>
+        <v>Clerk and Master - Chancery</v>
+      </c>
+      <c r="L91" s="4" cm="1">
+        <f t="array" ref="L91">_xlfn.XLOOKUP($B$89,INDEX($A$2:$R$52,,MATCH(A91&amp;"_rank",$A$1:$R1,0)),INDEX($A$2:$R$52,,MATCH(A91&amp;"_diff_pct",$A$1:$R$1,0)))</f>
+        <v>-0.15235918433091292</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A92" s="39" t="s">
         <v>74</v>
       </c>
       <c r="C92" s="4"/>
       <c r="E92" s="4"/>
       <c r="G92" s="4"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A93" s="36" t="s">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A93" s="35" t="s">
         <v>75</v>
       </c>
       <c r="C93" s="4"/>
       <c r="E93" s="4"/>
       <c r="G93" s="4"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A95" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>77</v>
       </c>
@@ -6502,7 +6615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B97" s="6" t="s">
         <v>0</v>
       </c>
@@ -6522,17 +6635,25 @@
         <v>78</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A98" s="32" t="s">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A98" s="31" t="s">
         <v>73</v>
       </c>
       <c r="C98" s="3"/>
       <c r="E98" s="3"/>
       <c r="G98" s="3"/>
       <c r="I98" s="3"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A99" s="40" t="s">
+      <c r="J98" t="str">
+        <f>INDEX($A$2:$A$52,MATCH($B$96,INDEX($A$2:$R$52,,MATCH(A98&amp;"_rank",$A$1:$R$1,0)),0))</f>
+        <v>Clerk and Master - Chancery</v>
+      </c>
+      <c r="L98" s="4">
+        <f>INDEX($A$2:$R$52,MATCH($B$96,INDEX($A$2:$R$52,,MATCH(A98&amp;"_rank",$A$1:$R$1,0)),0),MATCH(A98&amp;"_diff_pct",$A$1:$R$1,0))</f>
+        <v>-0.15235918433091292</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A99" s="39" t="s">
         <v>74</v>
       </c>
       <c r="C99" s="3"/>
@@ -6540,8 +6661,8 @@
       <c r="G99" s="3"/>
       <c r="I99" s="3"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A100" s="36" t="s">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A100" s="35" t="s">
         <v>75</v>
       </c>
       <c r="C100" s="3"/>
